--- a/xk/excel/Problem_C_Data_Wordle.xlsx
+++ b/xk/excel/Problem_C_Data_Wordle.xlsx
@@ -403,6 +403,9 @@
   </sheetViews>
   <sheetData>
     <row r="1">
+      <c r="A1" t="str">
+        <v>Unnamed: 0</v>
+      </c>
       <c r="B1" t="str">
         <v>Date</v>
       </c>
@@ -440,7 +443,7 @@
         <v>7 or more tries (X)</v>
       </c>
       <c r="N1" t="str">
-        <v>6</v>
+        <v>Replication number</v>
       </c>
     </row>
     <row r="2">
@@ -483,6 +486,9 @@
       <c r="M2" t="str">
         <v>1</v>
       </c>
+      <c r="N2" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -524,6 +530,9 @@
       <c r="M3" t="str">
         <v>2</v>
       </c>
+      <c r="N3" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -565,6 +574,9 @@
       <c r="M4" t="str">
         <v>4</v>
       </c>
+      <c r="N4" t="str">
+        <v>2</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -606,6 +618,9 @@
       <c r="M5" t="str">
         <v>2</v>
       </c>
+      <c r="N5" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -647,6 +662,9 @@
       <c r="M6" t="str">
         <v>1</v>
       </c>
+      <c r="N6" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -688,6 +706,9 @@
       <c r="M7" t="str">
         <v>3</v>
       </c>
+      <c r="N7" t="str">
+        <v>2</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -729,6 +750,9 @@
       <c r="M8" t="str">
         <v>5</v>
       </c>
+      <c r="N8" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -770,6 +794,9 @@
       <c r="M9" t="str">
         <v>1</v>
       </c>
+      <c r="N9" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -811,6 +838,9 @@
       <c r="M10" t="str">
         <v>1</v>
       </c>
+      <c r="N10" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -852,6 +882,9 @@
       <c r="M11" t="str">
         <v>2</v>
       </c>
+      <c r="N11" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -893,6 +926,9 @@
       <c r="M12" t="str">
         <v>6</v>
       </c>
+      <c r="N12" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -934,6 +970,9 @@
       <c r="M13" t="str">
         <v>1</v>
       </c>
+      <c r="N13" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -975,6 +1014,9 @@
       <c r="M14" t="str">
         <v>1</v>
       </c>
+      <c r="N14" t="str">
+        <v>2</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -1016,6 +1058,9 @@
       <c r="M15" t="str">
         <v>1</v>
       </c>
+      <c r="N15" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -1057,6 +1102,9 @@
       <c r="M16" t="str">
         <v>3</v>
       </c>
+      <c r="N16" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -1098,6 +1146,9 @@
       <c r="M17" t="str">
         <v>1</v>
       </c>
+      <c r="N17" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -1139,6 +1190,9 @@
       <c r="M18" t="str">
         <v>4</v>
       </c>
+      <c r="N18" t="str">
+        <v>2</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -1180,6 +1234,9 @@
       <c r="M19" t="str">
         <v>1</v>
       </c>
+      <c r="N19" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -1221,6 +1278,9 @@
       <c r="M20" t="str">
         <v>2</v>
       </c>
+      <c r="N20" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -1262,6 +1322,9 @@
       <c r="M21" t="str">
         <v>1</v>
       </c>
+      <c r="N21" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -1303,6 +1366,9 @@
       <c r="M22" t="str">
         <v>4</v>
       </c>
+      <c r="N22" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
@@ -1344,6 +1410,9 @@
       <c r="M23" t="str">
         <v>1</v>
       </c>
+      <c r="N23" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
@@ -1385,6 +1454,9 @@
       <c r="M24" t="str">
         <v>2</v>
       </c>
+      <c r="N24" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
@@ -1426,6 +1498,9 @@
       <c r="M25" t="str">
         <v>5</v>
       </c>
+      <c r="N25" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
@@ -1467,6 +1542,9 @@
       <c r="M26" t="str">
         <v>1</v>
       </c>
+      <c r="N26" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
@@ -1508,6 +1586,9 @@
       <c r="M27" t="str">
         <v>1</v>
       </c>
+      <c r="N27" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
@@ -1549,6 +1630,9 @@
       <c r="M28" t="str">
         <v>4</v>
       </c>
+      <c r="N28" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
@@ -1590,6 +1674,9 @@
       <c r="M29" t="str">
         <v>2</v>
       </c>
+      <c r="N29" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
@@ -1631,6 +1718,9 @@
       <c r="M30" t="str">
         <v>2</v>
       </c>
+      <c r="N30" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
@@ -1672,6 +1762,9 @@
       <c r="M31" t="str">
         <v>3</v>
       </c>
+      <c r="N31" t="str">
+        <v>2</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
@@ -1713,6 +1806,9 @@
       <c r="M32" t="str">
         <v>5</v>
       </c>
+      <c r="N32" t="str">
+        <v>2</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
@@ -1754,6 +1850,9 @@
       <c r="M33" t="str">
         <v>3</v>
       </c>
+      <c r="N33" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
@@ -1795,6 +1894,9 @@
       <c r="M34" t="str">
         <v>2</v>
       </c>
+      <c r="N34" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
@@ -1836,6 +1938,9 @@
       <c r="M35" t="str">
         <v>2</v>
       </c>
+      <c r="N35" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
@@ -1877,6 +1982,9 @@
       <c r="M36" t="str">
         <v>3</v>
       </c>
+      <c r="N36" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
@@ -1918,6 +2026,9 @@
       <c r="M37" t="str">
         <v>1</v>
       </c>
+      <c r="N37" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
@@ -1959,6 +2070,9 @@
       <c r="M38" t="str">
         <v>1</v>
       </c>
+      <c r="N38" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
@@ -2000,6 +2114,9 @@
       <c r="M39" t="str">
         <v>2</v>
       </c>
+      <c r="N39" t="str">
+        <v>2</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
@@ -2041,6 +2158,9 @@
       <c r="M40" t="str">
         <v>2</v>
       </c>
+      <c r="N40" t="str">
+        <v>2</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
@@ -2082,6 +2202,9 @@
       <c r="M41" t="str">
         <v>3</v>
       </c>
+      <c r="N41" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
@@ -2123,6 +2246,9 @@
       <c r="M42" t="str">
         <v>9</v>
       </c>
+      <c r="N42" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
@@ -2164,6 +2290,9 @@
       <c r="M43" t="str">
         <v>7</v>
       </c>
+      <c r="N43" t="str">
+        <v>2</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
@@ -2205,6 +2334,9 @@
       <c r="M44" t="str">
         <v>10</v>
       </c>
+      <c r="N44" t="str">
+        <v>2</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
@@ -2246,6 +2378,9 @@
       <c r="M45" t="str">
         <v>3</v>
       </c>
+      <c r="N45" t="str">
+        <v>2</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
@@ -2287,6 +2422,9 @@
       <c r="M46" t="str">
         <v>2</v>
       </c>
+      <c r="N46" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
@@ -2328,6 +2466,9 @@
       <c r="M47" t="str">
         <v>0</v>
       </c>
+      <c r="N47" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
@@ -2369,6 +2510,9 @@
       <c r="M48" t="str">
         <v>8</v>
       </c>
+      <c r="N48" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
@@ -2410,6 +2554,9 @@
       <c r="M49" t="str">
         <v>2</v>
       </c>
+      <c r="N49" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
@@ -2451,6 +2598,9 @@
       <c r="M50" t="str">
         <v>4</v>
       </c>
+      <c r="N50" t="str">
+        <v>2</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
@@ -2492,6 +2642,9 @@
       <c r="M51" t="str">
         <v>2</v>
       </c>
+      <c r="N51" t="str">
+        <v>2</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
@@ -2533,6 +2686,9 @@
       <c r="M52" t="str">
         <v>1</v>
       </c>
+      <c r="N52" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
@@ -2574,6 +2730,9 @@
       <c r="M53" t="str">
         <v>1</v>
       </c>
+      <c r="N53" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
@@ -2615,6 +2774,9 @@
       <c r="M54" t="str">
         <v>2</v>
       </c>
+      <c r="N54" t="str">
+        <v>2</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
@@ -2656,6 +2818,9 @@
       <c r="M55" t="str">
         <v>2</v>
       </c>
+      <c r="N55" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
@@ -2697,6 +2862,9 @@
       <c r="M56" t="str">
         <v>1</v>
       </c>
+      <c r="N56" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
@@ -2738,6 +2906,9 @@
       <c r="M57" t="str">
         <v>2</v>
       </c>
+      <c r="N57" t="str">
+        <v>2</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
@@ -2779,6 +2950,9 @@
       <c r="M58" t="str">
         <v>3</v>
       </c>
+      <c r="N58" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
@@ -2820,6 +2994,9 @@
       <c r="M59" t="str">
         <v>1</v>
       </c>
+      <c r="N59" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
@@ -2861,6 +3038,9 @@
       <c r="M60" t="str">
         <v>1</v>
       </c>
+      <c r="N60" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
@@ -2902,6 +3082,9 @@
       <c r="M61" t="str">
         <v>2</v>
       </c>
+      <c r="N61" t="str">
+        <v>2</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
@@ -2943,6 +3126,9 @@
       <c r="M62" t="str">
         <v>1</v>
       </c>
+      <c r="N62" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
@@ -2984,6 +3170,9 @@
       <c r="M63" t="str">
         <v>1</v>
       </c>
+      <c r="N63" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
@@ -3025,6 +3214,9 @@
       <c r="M64" t="str">
         <v>20</v>
       </c>
+      <c r="N64" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
@@ -3066,6 +3258,9 @@
       <c r="M65" t="str">
         <v>1</v>
       </c>
+      <c r="N65" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
@@ -3107,6 +3302,9 @@
       <c r="M66" t="str">
         <v>1</v>
       </c>
+      <c r="N66" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
@@ -3148,6 +3346,9 @@
       <c r="M67" t="str">
         <v>2</v>
       </c>
+      <c r="N67" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
@@ -3189,6 +3390,9 @@
       <c r="M68" t="str">
         <v>1</v>
       </c>
+      <c r="N68" t="str">
+        <v>2</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
@@ -3230,6 +3434,9 @@
       <c r="M69" t="str">
         <v>15</v>
       </c>
+      <c r="N69" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
@@ -3271,6 +3478,9 @@
       <c r="M70" t="str">
         <v>3</v>
       </c>
+      <c r="N70" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
@@ -3312,6 +3522,9 @@
       <c r="M71" t="str">
         <v>1</v>
       </c>
+      <c r="N71" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
@@ -3353,6 +3566,9 @@
       <c r="M72" t="str">
         <v>3</v>
       </c>
+      <c r="N72" t="str">
+        <v>2</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
@@ -3394,6 +3610,9 @@
       <c r="M73" t="str">
         <v>2</v>
       </c>
+      <c r="N73" t="str">
+        <v>2</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
@@ -3435,6 +3654,9 @@
       <c r="M74" t="str">
         <v>0</v>
       </c>
+      <c r="N74" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
@@ -3476,6 +3698,9 @@
       <c r="M75" t="str">
         <v>2</v>
       </c>
+      <c r="N75" t="str">
+        <v>2</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
@@ -3517,6 +3742,9 @@
       <c r="M76" t="str">
         <v>2</v>
       </c>
+      <c r="N76" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
@@ -3558,6 +3786,9 @@
       <c r="M77" t="str">
         <v>1</v>
       </c>
+      <c r="N77" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
@@ -3599,6 +3830,9 @@
       <c r="M78" t="str">
         <v>1</v>
       </c>
+      <c r="N78" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
@@ -3640,6 +3874,9 @@
       <c r="M79" t="str">
         <v>3</v>
       </c>
+      <c r="N79" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
@@ -3681,6 +3918,9 @@
       <c r="M80" t="str">
         <v>9</v>
       </c>
+      <c r="N80" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
@@ -3722,6 +3962,9 @@
       <c r="M81" t="str">
         <v>14</v>
       </c>
+      <c r="N81" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
@@ -3763,6 +4006,9 @@
       <c r="M82" t="str">
         <v>4</v>
       </c>
+      <c r="N82" t="str">
+        <v>2</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
@@ -3804,6 +4050,9 @@
       <c r="M83" t="str">
         <v>6</v>
       </c>
+      <c r="N83" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
@@ -3845,6 +4094,9 @@
       <c r="M84" t="str">
         <v>8</v>
       </c>
+      <c r="N84" t="str">
+        <v>2</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
@@ -3886,6 +4138,9 @@
       <c r="M85" t="str">
         <v>5</v>
       </c>
+      <c r="N85" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
@@ -3927,6 +4182,9 @@
       <c r="M86" t="str">
         <v>1</v>
       </c>
+      <c r="N86" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
@@ -3968,6 +4226,9 @@
       <c r="M87" t="str">
         <v>6</v>
       </c>
+      <c r="N87" t="str">
+        <v>2</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
@@ -4009,6 +4270,9 @@
       <c r="M88" t="str">
         <v>3</v>
       </c>
+      <c r="N88" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
@@ -4050,6 +4314,9 @@
       <c r="M89" t="str">
         <v>3</v>
       </c>
+      <c r="N89" t="str">
+        <v>2</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
@@ -4091,6 +4358,9 @@
       <c r="M90" t="str">
         <v>3</v>
       </c>
+      <c r="N90" t="str">
+        <v>2</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
@@ -4132,6 +4402,9 @@
       <c r="M91" t="str">
         <v>4</v>
       </c>
+      <c r="N91" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
@@ -4173,6 +4446,9 @@
       <c r="M92" t="str">
         <v>4</v>
       </c>
+      <c r="N92" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
@@ -4214,6 +4490,9 @@
       <c r="M93" t="str">
         <v>1</v>
       </c>
+      <c r="N93" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
@@ -4255,6 +4534,9 @@
       <c r="M94" t="str">
         <v>1</v>
       </c>
+      <c r="N94" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
@@ -4296,6 +4578,9 @@
       <c r="M95" t="str">
         <v>2</v>
       </c>
+      <c r="N95" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
@@ -4337,6 +4622,9 @@
       <c r="M96" t="str">
         <v>1</v>
       </c>
+      <c r="N96" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
@@ -4378,6 +4666,9 @@
       <c r="M97" t="str">
         <v>1</v>
       </c>
+      <c r="N97" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
@@ -4419,6 +4710,9 @@
       <c r="M98" t="str">
         <v>1</v>
       </c>
+      <c r="N98" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
@@ -4460,6 +4754,9 @@
       <c r="M99" t="str">
         <v>5</v>
       </c>
+      <c r="N99" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
@@ -4501,6 +4798,9 @@
       <c r="M100" t="str">
         <v>1</v>
       </c>
+      <c r="N100" t="str">
+        <v>2</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
@@ -4542,6 +4842,9 @@
       <c r="M101" t="str">
         <v>2</v>
       </c>
+      <c r="N101" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
@@ -4583,6 +4886,9 @@
       <c r="M102" t="str">
         <v>1</v>
       </c>
+      <c r="N102" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
@@ -4624,6 +4930,9 @@
       <c r="M103" t="str">
         <v>26</v>
       </c>
+      <c r="N103" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
@@ -4665,6 +4974,9 @@
       <c r="M104" t="str">
         <v>2</v>
       </c>
+      <c r="N104" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
@@ -4706,6 +5018,9 @@
       <c r="M105" t="str">
         <v>4</v>
       </c>
+      <c r="N105" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
@@ -4747,6 +5062,9 @@
       <c r="M106" t="str">
         <v>0</v>
       </c>
+      <c r="N106" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
@@ -4788,6 +5106,9 @@
       <c r="M107" t="str">
         <v>1</v>
       </c>
+      <c r="N107" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
@@ -4829,6 +5150,9 @@
       <c r="M108" t="str">
         <v>1</v>
       </c>
+      <c r="N108" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
@@ -4870,6 +5194,9 @@
       <c r="M109" t="str">
         <v>4</v>
       </c>
+      <c r="N109" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
@@ -4911,6 +5238,9 @@
       <c r="M110" t="str">
         <v>1</v>
       </c>
+      <c r="N110" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
@@ -4952,6 +5282,9 @@
       <c r="M111" t="str">
         <v>1</v>
       </c>
+      <c r="N111" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
@@ -4993,6 +5326,9 @@
       <c r="M112" t="str">
         <v>7</v>
       </c>
+      <c r="N112" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
@@ -5034,6 +5370,9 @@
       <c r="M113" t="str">
         <v>4</v>
       </c>
+      <c r="N113" t="str">
+        <v>2</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
@@ -5075,6 +5414,9 @@
       <c r="M114" t="str">
         <v>3</v>
       </c>
+      <c r="N114" t="str">
+        <v>2</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
@@ -5116,6 +5458,9 @@
       <c r="M115" t="str">
         <v>2</v>
       </c>
+      <c r="N115" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
@@ -5157,6 +5502,9 @@
       <c r="M116" t="str">
         <v>1</v>
       </c>
+      <c r="N116" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
@@ -5198,6 +5546,9 @@
       <c r="M117" t="str">
         <v>0</v>
       </c>
+      <c r="N117" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
@@ -5239,6 +5590,9 @@
       <c r="M118" t="str">
         <v>12</v>
       </c>
+      <c r="N118" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
@@ -5280,6 +5634,9 @@
       <c r="M119" t="str">
         <v>2</v>
       </c>
+      <c r="N119" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
@@ -5321,6 +5678,9 @@
       <c r="M120" t="str">
         <v>1</v>
       </c>
+      <c r="N120" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
@@ -5362,6 +5722,9 @@
       <c r="M121" t="str">
         <v>4</v>
       </c>
+      <c r="N121" t="str">
+        <v>2</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
@@ -5403,6 +5766,9 @@
       <c r="M122" t="str">
         <v>1</v>
       </c>
+      <c r="N122" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
@@ -5444,6 +5810,9 @@
       <c r="M123" t="str">
         <v>2</v>
       </c>
+      <c r="N123" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
@@ -5485,6 +5854,9 @@
       <c r="M124" t="str">
         <v>1</v>
       </c>
+      <c r="N124" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
@@ -5526,6 +5898,9 @@
       <c r="M125" t="str">
         <v>2</v>
       </c>
+      <c r="N125" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
@@ -5567,6 +5942,9 @@
       <c r="M126" t="str">
         <v>1</v>
       </c>
+      <c r="N126" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
@@ -5608,6 +5986,9 @@
       <c r="M127" t="str">
         <v>1</v>
       </c>
+      <c r="N127" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
@@ -5649,6 +6030,9 @@
       <c r="M128" t="str">
         <v>4</v>
       </c>
+      <c r="N128" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
@@ -5690,6 +6074,9 @@
       <c r="M129" t="str">
         <v>2</v>
       </c>
+      <c r="N129" t="str">
+        <v>2</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
@@ -5731,6 +6118,9 @@
       <c r="M130" t="str">
         <v>1</v>
       </c>
+      <c r="N130" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
@@ -5772,6 +6162,9 @@
       <c r="M131" t="str">
         <v>1</v>
       </c>
+      <c r="N131" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
@@ -5813,6 +6206,9 @@
       <c r="M132" t="str">
         <v>3</v>
       </c>
+      <c r="N132" t="str">
+        <v>2</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
@@ -5854,6 +6250,9 @@
       <c r="M133" t="str">
         <v>6</v>
       </c>
+      <c r="N133" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
@@ -5895,6 +6294,9 @@
       <c r="M134" t="str">
         <v>1</v>
       </c>
+      <c r="N134" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
@@ -5936,6 +6338,9 @@
       <c r="M135" t="str">
         <v>1</v>
       </c>
+      <c r="N135" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
@@ -5977,6 +6382,9 @@
       <c r="M136" t="str">
         <v>2</v>
       </c>
+      <c r="N136" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
@@ -6018,6 +6426,9 @@
       <c r="M137" t="str">
         <v>1</v>
       </c>
+      <c r="N137" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
@@ -6059,6 +6470,9 @@
       <c r="M138" t="str">
         <v>6</v>
       </c>
+      <c r="N138" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
@@ -6100,6 +6514,9 @@
       <c r="M139" t="str">
         <v>1</v>
       </c>
+      <c r="N139" t="str">
+        <v>2</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
@@ -6141,6 +6558,9 @@
       <c r="M140" t="str">
         <v>1</v>
       </c>
+      <c r="N140" t="str">
+        <v>2</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
@@ -6182,6 +6602,9 @@
       <c r="M141" t="str">
         <v>1</v>
       </c>
+      <c r="N141" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
@@ -6223,6 +6646,9 @@
       <c r="M142" t="str">
         <v>2</v>
       </c>
+      <c r="N142" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
@@ -6264,6 +6690,9 @@
       <c r="M143" t="str">
         <v>1</v>
       </c>
+      <c r="N143" t="str">
+        <v>2</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
@@ -6305,6 +6734,9 @@
       <c r="M144" t="str">
         <v>2</v>
       </c>
+      <c r="N144" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
@@ -6346,6 +6778,9 @@
       <c r="M145" t="str">
         <v>3</v>
       </c>
+      <c r="N145" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
@@ -6387,6 +6822,9 @@
       <c r="M146" t="str">
         <v>2</v>
       </c>
+      <c r="N146" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
@@ -6428,6 +6866,9 @@
       <c r="M147" t="str">
         <v>0</v>
       </c>
+      <c r="N147" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
@@ -6469,6 +6910,9 @@
       <c r="M148" t="str">
         <v>1</v>
       </c>
+      <c r="N148" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
@@ -6510,6 +6954,9 @@
       <c r="M149" t="str">
         <v>1</v>
       </c>
+      <c r="N149" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
@@ -6551,6 +6998,9 @@
       <c r="M150" t="str">
         <v>1</v>
       </c>
+      <c r="N150" t="str">
+        <v>2</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
@@ -6592,6 +7042,9 @@
       <c r="M151" t="str">
         <v>1</v>
       </c>
+      <c r="N151" t="str">
+        <v>2</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
@@ -6633,6 +7086,9 @@
       <c r="M152" t="str">
         <v>2</v>
       </c>
+      <c r="N152" t="str">
+        <v>2</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
@@ -6674,6 +7130,9 @@
       <c r="M153" t="str">
         <v>3</v>
       </c>
+      <c r="N153" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
@@ -6715,6 +7174,9 @@
       <c r="M154" t="str">
         <v>1</v>
       </c>
+      <c r="N154" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
@@ -6756,6 +7218,9 @@
       <c r="M155" t="str">
         <v>5</v>
       </c>
+      <c r="N155" t="str">
+        <v>2</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
@@ -6797,6 +7262,9 @@
       <c r="M156" t="str">
         <v>1</v>
       </c>
+      <c r="N156" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
@@ -6838,6 +7306,9 @@
       <c r="M157" t="str">
         <v>1</v>
       </c>
+      <c r="N157" t="str">
+        <v>2</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
@@ -6879,6 +7350,9 @@
       <c r="M158" t="str">
         <v>1</v>
       </c>
+      <c r="N158" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
@@ -6920,6 +7394,9 @@
       <c r="M159" t="str">
         <v>2</v>
       </c>
+      <c r="N159" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
@@ -6961,6 +7438,9 @@
       <c r="M160" t="str">
         <v>1</v>
       </c>
+      <c r="N160" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
@@ -7002,6 +7482,9 @@
       <c r="M161" t="str">
         <v>1</v>
       </c>
+      <c r="N161" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
@@ -7043,6 +7526,9 @@
       <c r="M162" t="str">
         <v>4</v>
       </c>
+      <c r="N162" t="str">
+        <v>2</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
@@ -7084,6 +7570,9 @@
       <c r="M163" t="str">
         <v>2</v>
       </c>
+      <c r="N163" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
@@ -7125,6 +7614,9 @@
       <c r="M164" t="str">
         <v>1</v>
       </c>
+      <c r="N164" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
@@ -7166,6 +7658,9 @@
       <c r="M165" t="str">
         <v>2</v>
       </c>
+      <c r="N165" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
@@ -7207,6 +7702,9 @@
       <c r="M166" t="str">
         <v>2</v>
       </c>
+      <c r="N166" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
@@ -7248,6 +7746,9 @@
       <c r="M167" t="str">
         <v>1</v>
       </c>
+      <c r="N167" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
@@ -7289,6 +7790,9 @@
       <c r="M168" t="str">
         <v>2</v>
       </c>
+      <c r="N168" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
@@ -7330,6 +7834,9 @@
       <c r="M169" t="str">
         <v>1</v>
       </c>
+      <c r="N169" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
@@ -7371,6 +7878,9 @@
       <c r="M170" t="str">
         <v>1</v>
       </c>
+      <c r="N170" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="str">
@@ -7412,6 +7922,9 @@
       <c r="M171" t="str">
         <v>1</v>
       </c>
+      <c r="N171" t="str">
+        <v>2</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="str">
@@ -7453,6 +7966,9 @@
       <c r="M172" t="str">
         <v>3</v>
       </c>
+      <c r="N172" t="str">
+        <v>2</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="str">
@@ -7494,6 +8010,9 @@
       <c r="M173" t="str">
         <v>10</v>
       </c>
+      <c r="N173" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="str">
@@ -7535,6 +8054,9 @@
       <c r="M174" t="str">
         <v>9</v>
       </c>
+      <c r="N174" t="str">
+        <v>2</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="str">
@@ -7576,6 +8098,9 @@
       <c r="M175" t="str">
         <v>1</v>
       </c>
+      <c r="N175" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="str">
@@ -7617,6 +8142,9 @@
       <c r="M176" t="str">
         <v>2</v>
       </c>
+      <c r="N176" t="str">
+        <v>2</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="str">
@@ -7658,6 +8186,9 @@
       <c r="M177" t="str">
         <v>1</v>
       </c>
+      <c r="N177" t="str">
+        <v>2</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="str">
@@ -7699,6 +8230,9 @@
       <c r="M178" t="str">
         <v>7</v>
       </c>
+      <c r="N178" t="str">
+        <v>2</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="str">
@@ -7740,6 +8274,9 @@
       <c r="M179" t="str">
         <v>1</v>
       </c>
+      <c r="N179" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="str">
@@ -7781,6 +8318,9 @@
       <c r="M180" t="str">
         <v>4</v>
       </c>
+      <c r="N180" t="str">
+        <v>3</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="str">
@@ -7822,6 +8362,9 @@
       <c r="M181" t="str">
         <v>3</v>
       </c>
+      <c r="N181" t="str">
+        <v>2</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="str">
@@ -7863,6 +8406,9 @@
       <c r="M182" t="str">
         <v>1</v>
       </c>
+      <c r="N182" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="str">
@@ -7904,6 +8450,9 @@
       <c r="M183" t="str">
         <v>3</v>
       </c>
+      <c r="N183" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="str">
@@ -7945,6 +8494,9 @@
       <c r="M184" t="str">
         <v>1</v>
       </c>
+      <c r="N184" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="str">
@@ -7986,6 +8538,9 @@
       <c r="M185" t="str">
         <v>2</v>
       </c>
+      <c r="N185" t="str">
+        <v>2</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="str">
@@ -8027,6 +8582,9 @@
       <c r="M186" t="str">
         <v>7</v>
       </c>
+      <c r="N186" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="str">
@@ -8068,6 +8626,9 @@
       <c r="M187" t="str">
         <v>0</v>
       </c>
+      <c r="N187" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="str">
@@ -8109,6 +8670,9 @@
       <c r="M188" t="str">
         <v>8</v>
       </c>
+      <c r="N188" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="str">
@@ -8150,6 +8714,9 @@
       <c r="M189" t="str">
         <v>2</v>
       </c>
+      <c r="N189" t="str">
+        <v>2</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="str">
@@ -8191,6 +8758,9 @@
       <c r="M190" t="str">
         <v>2</v>
       </c>
+      <c r="N190" t="str">
+        <v>2</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="str">
@@ -8232,6 +8802,9 @@
       <c r="M191" t="str">
         <v>2</v>
       </c>
+      <c r="N191" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="str">
@@ -8273,6 +8846,9 @@
       <c r="M192" t="str">
         <v>1</v>
       </c>
+      <c r="N192" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="str">
@@ -8314,6 +8890,9 @@
       <c r="M193" t="str">
         <v>1</v>
       </c>
+      <c r="N193" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="str">
@@ -8355,6 +8934,9 @@
       <c r="M194" t="str">
         <v>15</v>
       </c>
+      <c r="N194" t="str">
+        <v>2</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="str">
@@ -8396,6 +8978,9 @@
       <c r="M195" t="str">
         <v>2</v>
       </c>
+      <c r="N195" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="str">
@@ -8437,6 +9022,9 @@
       <c r="M196" t="str">
         <v>1</v>
       </c>
+      <c r="N196" t="str">
+        <v>2</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="str">
@@ -8478,6 +9066,9 @@
       <c r="M197" t="str">
         <v>2</v>
       </c>
+      <c r="N197" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="str">
@@ -8519,6 +9110,9 @@
       <c r="M198" t="str">
         <v>4</v>
       </c>
+      <c r="N198" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="str">
@@ -8560,6 +9154,9 @@
       <c r="M199" t="str">
         <v>2</v>
       </c>
+      <c r="N199" t="str">
+        <v>2</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="str">
@@ -8601,6 +9198,9 @@
       <c r="M200" t="str">
         <v>13</v>
       </c>
+      <c r="N200" t="str">
+        <v>2</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="str">
@@ -8642,6 +9242,9 @@
       <c r="M201" t="str">
         <v>1</v>
       </c>
+      <c r="N201" t="str">
+        <v>2</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="str">
@@ -8683,6 +9286,9 @@
       <c r="M202" t="str">
         <v>2</v>
       </c>
+      <c r="N202" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="str">
@@ -8724,6 +9330,9 @@
       <c r="M203" t="str">
         <v>1</v>
       </c>
+      <c r="N203" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="str">
@@ -8765,6 +9374,9 @@
       <c r="M204" t="str">
         <v>1</v>
       </c>
+      <c r="N204" t="str">
+        <v>2</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="str">
@@ -8806,6 +9418,9 @@
       <c r="M205" t="str">
         <v>2</v>
       </c>
+      <c r="N205" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="str">
@@ -8847,6 +9462,9 @@
       <c r="M206" t="str">
         <v>2</v>
       </c>
+      <c r="N206" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="str">
@@ -8888,6 +9506,9 @@
       <c r="M207" t="str">
         <v>15</v>
       </c>
+      <c r="N207" t="str">
+        <v>2</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="str">
@@ -8929,6 +9550,9 @@
       <c r="M208" t="str">
         <v>3</v>
       </c>
+      <c r="N208" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="str">
@@ -8970,6 +9594,9 @@
       <c r="M209" t="str">
         <v>1</v>
       </c>
+      <c r="N209" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="str">
@@ -9011,6 +9638,9 @@
       <c r="M210" t="str">
         <v>5</v>
       </c>
+      <c r="N210" t="str">
+        <v>2</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="str">
@@ -9052,6 +9682,9 @@
       <c r="M211" t="str">
         <v>0</v>
       </c>
+      <c r="N211" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="str">
@@ -9093,6 +9726,9 @@
       <c r="M212" t="str">
         <v>2</v>
       </c>
+      <c r="N212" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="str">
@@ -9134,6 +9770,9 @@
       <c r="M213" t="str">
         <v>1</v>
       </c>
+      <c r="N213" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="str">
@@ -9175,6 +9814,9 @@
       <c r="M214" t="str">
         <v>1</v>
       </c>
+      <c r="N214" t="str">
+        <v>2</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="str">
@@ -9216,6 +9858,9 @@
       <c r="M215" t="str">
         <v>2</v>
       </c>
+      <c r="N215" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="str">
@@ -9257,6 +9902,9 @@
       <c r="M216" t="str">
         <v>1</v>
       </c>
+      <c r="N216" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="str">
@@ -9298,6 +9946,9 @@
       <c r="M217" t="str">
         <v>2</v>
       </c>
+      <c r="N217" t="str">
+        <v>2</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="str">
@@ -9339,6 +9990,9 @@
       <c r="M218" t="str">
         <v>7</v>
       </c>
+      <c r="N218" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="str">
@@ -9380,6 +10034,9 @@
       <c r="M219" t="str">
         <v>4</v>
       </c>
+      <c r="N219" t="str">
+        <v>2</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="str">
@@ -9421,6 +10078,9 @@
       <c r="M220" t="str">
         <v>5</v>
       </c>
+      <c r="N220" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="str">
@@ -9462,6 +10122,9 @@
       <c r="M221" t="str">
         <v>1</v>
       </c>
+      <c r="N221" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="str">
@@ -9503,6 +10166,9 @@
       <c r="M222" t="str">
         <v>1</v>
       </c>
+      <c r="N222" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="str">
@@ -9544,6 +10210,9 @@
       <c r="M223" t="str">
         <v>1</v>
       </c>
+      <c r="N223" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="str">
@@ -9585,6 +10254,9 @@
       <c r="M224" t="str">
         <v>1</v>
       </c>
+      <c r="N224" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="str">
@@ -9626,6 +10298,9 @@
       <c r="M225" t="str">
         <v>1</v>
       </c>
+      <c r="N225" t="str">
+        <v>2</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="str">
@@ -9667,6 +10342,9 @@
       <c r="M226" t="str">
         <v>5</v>
       </c>
+      <c r="N226" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="str">
@@ -9708,6 +10386,9 @@
       <c r="M227" t="str">
         <v>0</v>
       </c>
+      <c r="N227" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="str">
@@ -9749,6 +10430,9 @@
       <c r="M228" t="str">
         <v>3</v>
       </c>
+      <c r="N228" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="str">
@@ -9790,6 +10474,9 @@
       <c r="M229" t="str">
         <v>1</v>
       </c>
+      <c r="N229" t="str">
+        <v>2</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="str">
@@ -9831,6 +10518,9 @@
       <c r="M230" t="str">
         <v>1</v>
       </c>
+      <c r="N230" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="str">
@@ -9872,6 +10562,9 @@
       <c r="M231" t="str">
         <v>1</v>
       </c>
+      <c r="N231" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="str">
@@ -9913,6 +10606,9 @@
       <c r="M232" t="str">
         <v>4</v>
       </c>
+      <c r="N232" t="str">
+        <v>2</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="str">
@@ -9954,6 +10650,9 @@
       <c r="M233" t="str">
         <v>8</v>
       </c>
+      <c r="N233" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="str">
@@ -9995,6 +10694,9 @@
       <c r="M234" t="str">
         <v>0</v>
       </c>
+      <c r="N234" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="str">
@@ -10036,6 +10738,9 @@
       <c r="M235" t="str">
         <v>1</v>
       </c>
+      <c r="N235" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="str">
@@ -10077,6 +10782,9 @@
       <c r="M236" t="str">
         <v>5</v>
       </c>
+      <c r="N236" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="str">
@@ -10118,6 +10826,9 @@
       <c r="M237" t="str">
         <v>1</v>
       </c>
+      <c r="N237" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="str">
@@ -10159,6 +10870,9 @@
       <c r="M238" t="str">
         <v>1</v>
       </c>
+      <c r="N238" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="str">
@@ -10200,6 +10914,9 @@
       <c r="M239" t="str">
         <v>7</v>
       </c>
+      <c r="N239" t="str">
+        <v>2</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="str">
@@ -10241,6 +10958,9 @@
       <c r="M240" t="str">
         <v>1</v>
       </c>
+      <c r="N240" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="str">
@@ -10282,6 +11002,9 @@
       <c r="M241" t="str">
         <v>1</v>
       </c>
+      <c r="N241" t="str">
+        <v>2</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="str">
@@ -10323,6 +11046,9 @@
       <c r="M242" t="str">
         <v>13</v>
       </c>
+      <c r="N242" t="str">
+        <v>2</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="str">
@@ -10364,6 +11090,9 @@
       <c r="M243" t="str">
         <v>2</v>
       </c>
+      <c r="N243" t="str">
+        <v>2</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="str">
@@ -10405,6 +11134,9 @@
       <c r="M244" t="str">
         <v>7</v>
       </c>
+      <c r="N244" t="str">
+        <v>2</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="str">
@@ -10446,6 +11178,9 @@
       <c r="M245" t="str">
         <v>0</v>
       </c>
+      <c r="N245" t="str">
+        <v>2</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="str">
@@ -10487,6 +11222,9 @@
       <c r="M246" t="str">
         <v>3</v>
       </c>
+      <c r="N246" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="str">
@@ -10528,6 +11266,9 @@
       <c r="M247" t="str">
         <v>2</v>
       </c>
+      <c r="N247" t="str">
+        <v>2</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="str">
@@ -10569,6 +11310,9 @@
       <c r="M248" t="str">
         <v>4</v>
       </c>
+      <c r="N248" t="str">
+        <v>2</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="str">
@@ -10610,6 +11354,9 @@
       <c r="M249" t="str">
         <v>1</v>
       </c>
+      <c r="N249" t="str">
+        <v>2</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="str">
@@ -10651,6 +11398,9 @@
       <c r="M250" t="str">
         <v>0</v>
       </c>
+      <c r="N250" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="str">
@@ -10692,6 +11442,9 @@
       <c r="M251" t="str">
         <v>0</v>
       </c>
+      <c r="N251" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="str">
@@ -10733,6 +11486,9 @@
       <c r="M252" t="str">
         <v>48</v>
       </c>
+      <c r="N252" t="str">
+        <v>2</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="str">
@@ -10774,6 +11530,9 @@
       <c r="M253" t="str">
         <v>0</v>
       </c>
+      <c r="N253" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="str">
@@ -10815,6 +11574,9 @@
       <c r="M254" t="str">
         <v>0</v>
       </c>
+      <c r="N254" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="str">
@@ -10856,6 +11618,9 @@
       <c r="M255" t="str">
         <v>11</v>
       </c>
+      <c r="N255" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="str">
@@ -10897,6 +11662,9 @@
       <c r="M256" t="str">
         <v>2</v>
       </c>
+      <c r="N256" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="str">
@@ -10938,6 +11706,9 @@
       <c r="M257" t="str">
         <v>1</v>
       </c>
+      <c r="N257" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="str">
@@ -10979,6 +11750,9 @@
       <c r="M258" t="str">
         <v>1</v>
       </c>
+      <c r="N258" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="str">
@@ -11020,6 +11794,9 @@
       <c r="M259" t="str">
         <v>0</v>
       </c>
+      <c r="N259" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="str">
@@ -11061,6 +11838,9 @@
       <c r="M260" t="str">
         <v>3</v>
       </c>
+      <c r="N260" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="str">
@@ -11102,6 +11882,9 @@
       <c r="M261" t="str">
         <v>1</v>
       </c>
+      <c r="N261" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="str">
@@ -11143,6 +11926,9 @@
       <c r="M262" t="str">
         <v>1</v>
       </c>
+      <c r="N262" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="str">
@@ -11184,6 +11970,9 @@
       <c r="M263" t="str">
         <v>2</v>
       </c>
+      <c r="N263" t="str">
+        <v>2</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="str">
@@ -11225,6 +12014,9 @@
       <c r="M264" t="str">
         <v>1</v>
       </c>
+      <c r="N264" t="str">
+        <v>2</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="str">
@@ -11266,6 +12058,9 @@
       <c r="M265" t="str">
         <v>2</v>
       </c>
+      <c r="N265" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="str">
@@ -11307,6 +12102,9 @@
       <c r="M266" t="str">
         <v>1</v>
       </c>
+      <c r="N266" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="str">
@@ -11348,6 +12146,9 @@
       <c r="M267" t="str">
         <v>1</v>
       </c>
+      <c r="N267" t="str">
+        <v>2</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="str">
@@ -11389,6 +12190,9 @@
       <c r="M268" t="str">
         <v>1</v>
       </c>
+      <c r="N268" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="str">
@@ -11430,6 +12234,9 @@
       <c r="M269" t="str">
         <v>2</v>
       </c>
+      <c r="N269" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="str">
@@ -11471,6 +12278,9 @@
       <c r="M270" t="str">
         <v>3</v>
       </c>
+      <c r="N270" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="str">
@@ -11512,6 +12322,9 @@
       <c r="M271" t="str">
         <v>1</v>
       </c>
+      <c r="N271" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="str">
@@ -11553,6 +12366,9 @@
       <c r="M272" t="str">
         <v>0</v>
       </c>
+      <c r="N272" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="str">
@@ -11594,6 +12410,9 @@
       <c r="M273" t="str">
         <v>11</v>
       </c>
+      <c r="N273" t="str">
+        <v>2</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="str">
@@ -11635,6 +12454,9 @@
       <c r="M274" t="str">
         <v>2</v>
       </c>
+      <c r="N274" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="str">
@@ -11676,6 +12498,9 @@
       <c r="M275" t="str">
         <v>4</v>
       </c>
+      <c r="N275" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="str">
@@ -11717,6 +12542,9 @@
       <c r="M276" t="str">
         <v>3</v>
       </c>
+      <c r="N276" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="str">
@@ -11758,6 +12586,9 @@
       <c r="M277" t="str">
         <v>1</v>
       </c>
+      <c r="N277" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="str">
@@ -11799,6 +12630,9 @@
       <c r="M278" t="str">
         <v>11</v>
       </c>
+      <c r="N278" t="str">
+        <v>2</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="str">
@@ -11840,6 +12674,9 @@
       <c r="M279" t="str">
         <v>2</v>
       </c>
+      <c r="N279" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="str">
@@ -11881,6 +12718,9 @@
       <c r="M280" t="str">
         <v>0</v>
       </c>
+      <c r="N280" t="str">
+        <v>2</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="str">
@@ -11922,6 +12762,9 @@
       <c r="M281" t="str">
         <v>23</v>
       </c>
+      <c r="N281" t="str">
+        <v>2</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="str">
@@ -11963,6 +12806,9 @@
       <c r="M282" t="str">
         <v>1</v>
       </c>
+      <c r="N282" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="str">
@@ -12004,6 +12850,9 @@
       <c r="M283" t="str">
         <v>1</v>
       </c>
+      <c r="N283" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="str">
@@ -12045,6 +12894,9 @@
       <c r="M284" t="str">
         <v>1</v>
       </c>
+      <c r="N284" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="str">
@@ -12086,6 +12938,9 @@
       <c r="M285" t="str">
         <v>2</v>
       </c>
+      <c r="N285" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="str">
@@ -12127,6 +12982,9 @@
       <c r="M286" t="str">
         <v>0</v>
       </c>
+      <c r="N286" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="str">
@@ -12168,6 +13026,9 @@
       <c r="M287" t="str">
         <v>3</v>
       </c>
+      <c r="N287" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="str">
@@ -12209,6 +13070,9 @@
       <c r="M288" t="str">
         <v>1</v>
       </c>
+      <c r="N288" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="str">
@@ -12250,6 +13114,9 @@
       <c r="M289" t="str">
         <v>18</v>
       </c>
+      <c r="N289" t="str">
+        <v>3</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="str">
@@ -12291,6 +13158,9 @@
       <c r="M290" t="str">
         <v>1</v>
       </c>
+      <c r="N290" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="str">
@@ -12332,6 +13202,9 @@
       <c r="M291" t="str">
         <v>3</v>
       </c>
+      <c r="N291" t="str">
+        <v>2</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="str">
@@ -12373,6 +13246,9 @@
       <c r="M292" t="str">
         <v>1</v>
       </c>
+      <c r="N292" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="str">
@@ -12414,6 +13290,9 @@
       <c r="M293" t="str">
         <v>3</v>
       </c>
+      <c r="N293" t="str">
+        <v>2</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="str">
@@ -12455,6 +13334,9 @@
       <c r="M294" t="str">
         <v>1</v>
       </c>
+      <c r="N294" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="str">
@@ -12496,6 +13378,9 @@
       <c r="M295" t="str">
         <v>2</v>
       </c>
+      <c r="N295" t="str">
+        <v>2</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="str">
@@ -12537,6 +13422,9 @@
       <c r="M296" t="str">
         <v>3</v>
       </c>
+      <c r="N296" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="str">
@@ -12578,6 +13466,9 @@
       <c r="M297" t="str">
         <v>1</v>
       </c>
+      <c r="N297" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="str">
@@ -12619,6 +13510,9 @@
       <c r="M298" t="str">
         <v>2</v>
       </c>
+      <c r="N298" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="str">
@@ -12660,6 +13554,9 @@
       <c r="M299" t="str">
         <v>1</v>
       </c>
+      <c r="N299" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="str">
@@ -12701,6 +13598,9 @@
       <c r="M300" t="str">
         <v>1</v>
       </c>
+      <c r="N300" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="str">
@@ -12742,6 +13642,9 @@
       <c r="M301" t="str">
         <v>0</v>
       </c>
+      <c r="N301" t="str">
+        <v>2</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="str">
@@ -12783,6 +13686,9 @@
       <c r="M302" t="str">
         <v>1</v>
       </c>
+      <c r="N302" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="str">
@@ -12824,6 +13730,9 @@
       <c r="M303" t="str">
         <v>2</v>
       </c>
+      <c r="N303" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="str">
@@ -12865,6 +13774,9 @@
       <c r="M304" t="str">
         <v>1</v>
       </c>
+      <c r="N304" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="str">
@@ -12906,6 +13818,9 @@
       <c r="M305" t="str">
         <v>1</v>
       </c>
+      <c r="N305" t="str">
+        <v>2</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="str">
@@ -12947,6 +13862,9 @@
       <c r="M306" t="str">
         <v>1</v>
       </c>
+      <c r="N306" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="str">
@@ -12988,6 +13906,9 @@
       <c r="M307" t="str">
         <v>1</v>
       </c>
+      <c r="N307" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="str">
@@ -13029,6 +13950,9 @@
       <c r="M308" t="str">
         <v>1</v>
       </c>
+      <c r="N308" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="str">
@@ -13070,6 +13994,9 @@
       <c r="M309" t="str">
         <v>1</v>
       </c>
+      <c r="N309" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="str">
@@ -13111,6 +14038,9 @@
       <c r="M310" t="str">
         <v>3</v>
       </c>
+      <c r="N310" t="str">
+        <v>2</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="str">
@@ -13152,6 +14082,9 @@
       <c r="M311" t="str">
         <v>1</v>
       </c>
+      <c r="N311" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="str">
@@ -13193,6 +14126,9 @@
       <c r="M312" t="str">
         <v>4</v>
       </c>
+      <c r="N312" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="str">
@@ -13234,6 +14170,9 @@
       <c r="M313" t="str">
         <v>10</v>
       </c>
+      <c r="N313" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="str">
@@ -13275,6 +14214,9 @@
       <c r="M314" t="str">
         <v>0</v>
       </c>
+      <c r="N314" t="str">
+        <v>2</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="str">
@@ -13316,6 +14258,9 @@
       <c r="M315" t="str">
         <v>1</v>
       </c>
+      <c r="N315" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="str">
@@ -13357,6 +14302,9 @@
       <c r="M316" t="str">
         <v>1</v>
       </c>
+      <c r="N316" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="str">
@@ -13398,6 +14346,9 @@
       <c r="M317" t="str">
         <v>5</v>
       </c>
+      <c r="N317" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="str">
@@ -13439,6 +14390,9 @@
       <c r="M318" t="str">
         <v>3</v>
       </c>
+      <c r="N318" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="str">
@@ -13480,6 +14434,9 @@
       <c r="M319" t="str">
         <v>1</v>
       </c>
+      <c r="N319" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="str">
@@ -13521,6 +14478,9 @@
       <c r="M320" t="str">
         <v>1</v>
       </c>
+      <c r="N320" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="str">
@@ -13562,6 +14522,9 @@
       <c r="M321" t="str">
         <v>2</v>
       </c>
+      <c r="N321" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="str">
@@ -13603,6 +14566,9 @@
       <c r="M322" t="str">
         <v>1</v>
       </c>
+      <c r="N322" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="str">
@@ -13644,6 +14610,9 @@
       <c r="M323" t="str">
         <v>1</v>
       </c>
+      <c r="N323" t="str">
+        <v>2</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="str">
@@ -13685,6 +14654,9 @@
       <c r="M324" t="str">
         <v>0</v>
       </c>
+      <c r="N324" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="str">
@@ -13726,6 +14698,9 @@
       <c r="M325" t="str">
         <v>2</v>
       </c>
+      <c r="N325" t="str">
+        <v>2</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="str">
@@ -13767,6 +14742,9 @@
       <c r="M326" t="str">
         <v>2</v>
       </c>
+      <c r="N326" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="str">
@@ -13808,6 +14786,9 @@
       <c r="M327" t="str">
         <v>2</v>
       </c>
+      <c r="N327" t="str">
+        <v>2</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="str">
@@ -13849,6 +14830,9 @@
       <c r="M328" t="str">
         <v>2</v>
       </c>
+      <c r="N328" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="str">
@@ -13890,6 +14874,9 @@
       <c r="M329" t="str">
         <v>1</v>
       </c>
+      <c r="N329" t="str">
+        <v>2</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="str">
@@ -13931,6 +14918,9 @@
       <c r="M330" t="str">
         <v>1</v>
       </c>
+      <c r="N330" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="str">
@@ -13972,6 +14962,9 @@
       <c r="M331" t="str">
         <v>4</v>
       </c>
+      <c r="N331" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="str">
@@ -14013,6 +15006,9 @@
       <c r="M332" t="str">
         <v>3</v>
       </c>
+      <c r="N332" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="str">
@@ -14054,6 +15050,9 @@
       <c r="M333" t="str">
         <v>2</v>
       </c>
+      <c r="N333" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="str">
@@ -14095,6 +15094,9 @@
       <c r="M334" t="str">
         <v>3</v>
       </c>
+      <c r="N334" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="str">
@@ -14136,6 +15138,9 @@
       <c r="M335" t="str">
         <v>0</v>
       </c>
+      <c r="N335" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="str">
@@ -14177,6 +15182,9 @@
       <c r="M336" t="str">
         <v>1</v>
       </c>
+      <c r="N336" t="str">
+        <v>2</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="str">
@@ -14218,6 +15226,9 @@
       <c r="M337" t="str">
         <v>1</v>
       </c>
+      <c r="N337" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="str">
@@ -14259,6 +15270,9 @@
       <c r="M338" t="str">
         <v>1</v>
       </c>
+      <c r="N338" t="str">
+        <v>2</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="str">
@@ -14300,6 +15314,9 @@
       <c r="M339" t="str">
         <v>0</v>
       </c>
+      <c r="N339" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="str">
@@ -14341,6 +15358,9 @@
       <c r="M340" t="str">
         <v>1</v>
       </c>
+      <c r="N340" t="str">
+        <v>2</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="str">
@@ -14382,6 +15402,9 @@
       <c r="M341" t="str">
         <v>1</v>
       </c>
+      <c r="N341" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="str">
@@ -14423,6 +15446,9 @@
       <c r="M342" t="str">
         <v>0</v>
       </c>
+      <c r="N342" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="str">
@@ -14464,6 +15490,9 @@
       <c r="M343" t="str">
         <v>3</v>
       </c>
+      <c r="N343" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="str">
@@ -14505,6 +15534,9 @@
       <c r="M344" t="str">
         <v>1</v>
       </c>
+      <c r="N344" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="str">
@@ -14546,6 +15578,9 @@
       <c r="M345" t="str">
         <v>0</v>
       </c>
+      <c r="N345" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="str">
@@ -14587,6 +15622,9 @@
       <c r="M346" t="str">
         <v>0</v>
       </c>
+      <c r="N346" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="str">
@@ -14628,6 +15666,9 @@
       <c r="M347" t="str">
         <v>2</v>
       </c>
+      <c r="N347" t="str">
+        <v>2</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="str">
@@ -14669,6 +15710,9 @@
       <c r="M348" t="str">
         <v>3</v>
       </c>
+      <c r="N348" t="str">
+        <v>2</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="str">
@@ -14710,6 +15754,9 @@
       <c r="M349" t="str">
         <v>1</v>
       </c>
+      <c r="N349" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="str">
@@ -14751,6 +15798,9 @@
       <c r="M350" t="str">
         <v>1</v>
       </c>
+      <c r="N350" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="str">
@@ -14792,6 +15842,9 @@
       <c r="M351" t="str">
         <v>14</v>
       </c>
+      <c r="N351" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="str">
@@ -14833,6 +15886,9 @@
       <c r="M352" t="str">
         <v>3</v>
       </c>
+      <c r="N352" t="str">
+        <v>2</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="str">
@@ -14874,6 +15930,9 @@
       <c r="M353" t="str">
         <v>1</v>
       </c>
+      <c r="N353" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="str">
@@ -14915,6 +15974,9 @@
       <c r="M354" t="str">
         <v>2</v>
       </c>
+      <c r="N354" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="str">
@@ -14956,6 +16018,9 @@
       <c r="M355" t="str">
         <v>1</v>
       </c>
+      <c r="N355" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="str">
@@ -14996,6 +16061,9 @@
       </c>
       <c r="M356" t="str">
         <v>2</v>
+      </c>
+      <c r="N356" t="str">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/xk/excel/Problem_C_Data_Wordle.xlsx
+++ b/xk/excel/Problem_C_Data_Wordle.xlsx
@@ -404,7 +404,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>Unnamed: 0</v>
+        <v/>
       </c>
       <c r="B1" t="str">
         <v>Date</v>

--- a/xk/excel/Problem_C_Data_Wordle.xlsx
+++ b/xk/excel/Problem_C_Data_Wordle.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="726">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="727">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>Frequency</t>
+  </si>
+  <si>
+    <t>characters</t>
   </si>
   <si>
     <t>1/7/22</t>
@@ -2549,13 +2552,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P356"/>
+  <dimension ref="A1:Q356"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2604,19 +2607,22 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2">
         <v>358</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2">
         <v>202</v>
       </c>
       <c r="D2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E2">
         <v>80630</v>
@@ -2654,19 +2660,22 @@
       <c r="P2">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:16">
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3">
         <v>357</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3">
         <v>203</v>
       </c>
       <c r="D3" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E3">
         <v>101503</v>
@@ -2704,19 +2713,22 @@
       <c r="P3">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4">
         <v>356</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4">
         <v>204</v>
       </c>
       <c r="D4" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E4">
         <v>91477</v>
@@ -2754,19 +2766,22 @@
       <c r="P4">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5">
         <v>355</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5">
         <v>205</v>
       </c>
       <c r="D5" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E5">
         <v>107134</v>
@@ -2804,19 +2819,22 @@
       <c r="P5">
         <v>108</v>
       </c>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6">
         <v>354</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6">
         <v>206</v>
       </c>
       <c r="D6" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E6">
         <v>153880</v>
@@ -2854,19 +2872,22 @@
       <c r="P6">
         <v>725</v>
       </c>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7">
         <v>352</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7">
         <v>208</v>
       </c>
       <c r="D7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E7">
         <v>132726</v>
@@ -2904,19 +2925,22 @@
       <c r="P7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8">
         <v>351</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8">
         <v>209</v>
       </c>
       <c r="D8" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E8">
         <v>169484</v>
@@ -2954,19 +2978,22 @@
       <c r="P8">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9">
         <v>350</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9">
         <v>210</v>
       </c>
       <c r="D9" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E9">
         <v>205880</v>
@@ -3004,19 +3031,22 @@
       <c r="P9">
         <v>62</v>
       </c>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10">
         <v>349</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10">
         <v>211</v>
       </c>
       <c r="D10" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E10">
         <v>209609</v>
@@ -3054,19 +3084,22 @@
       <c r="P10">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11">
         <v>348</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11">
         <v>212</v>
       </c>
       <c r="D11" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E11">
         <v>222197</v>
@@ -3104,19 +3137,22 @@
       <c r="P11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12">
         <v>347</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12">
         <v>213</v>
       </c>
       <c r="D12" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E12">
         <v>220950</v>
@@ -3154,19 +3190,22 @@
       <c r="P12">
         <v>71</v>
       </c>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13">
         <v>346</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13">
         <v>214</v>
       </c>
       <c r="D13" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E13">
         <v>280622</v>
@@ -3204,19 +3243,22 @@
       <c r="P13">
         <v>1304</v>
       </c>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14">
         <v>345</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C14">
         <v>215</v>
       </c>
       <c r="D14" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E14">
         <v>243964</v>
@@ -3254,19 +3296,22 @@
       <c r="P14">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15">
         <v>344</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C15">
         <v>216</v>
       </c>
       <c r="D15" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E15">
         <v>273727</v>
@@ -3304,19 +3349,22 @@
       <c r="P15">
         <v>55</v>
       </c>
-    </row>
-    <row r="16" spans="1:16">
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16">
         <v>343</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C16">
         <v>217</v>
       </c>
       <c r="D16" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E16">
         <v>241489</v>
@@ -3354,19 +3402,22 @@
       <c r="P16">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:16">
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17">
         <v>342</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C17">
         <v>218</v>
       </c>
       <c r="D17" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E17">
         <v>269929</v>
@@ -3404,19 +3455,22 @@
       <c r="P17">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:16">
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18">
         <v>341</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C18">
         <v>219</v>
       </c>
       <c r="D18" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E18">
         <v>258038</v>
@@ -3454,19 +3508,22 @@
       <c r="P18">
         <v>9</v>
       </c>
-    </row>
-    <row r="19" spans="1:16">
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19">
         <v>340</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C19">
         <v>220</v>
       </c>
       <c r="D19" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E19">
         <v>276404</v>
@@ -3504,19 +3561,22 @@
       <c r="P19">
         <v>143</v>
       </c>
-    </row>
-    <row r="20" spans="1:16">
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20">
         <v>339</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>221</v>
       </c>
       <c r="D20" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E20">
         <v>302348</v>
@@ -3554,19 +3614,22 @@
       <c r="P20">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="1:16">
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21">
         <v>338</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C21">
         <v>222</v>
       </c>
       <c r="D21" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E21">
         <v>331844</v>
@@ -3604,19 +3667,22 @@
       <c r="P21">
         <v>438</v>
       </c>
-    </row>
-    <row r="22" spans="1:16">
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22">
         <v>337</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C22">
         <v>223</v>
       </c>
       <c r="D22" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E22">
         <v>296968</v>
@@ -3654,19 +3720,22 @@
       <c r="P22">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:16">
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23">
         <v>336</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C23">
         <v>224</v>
       </c>
       <c r="D23" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E23">
         <v>313220</v>
@@ -3704,19 +3773,22 @@
       <c r="P23">
         <v>5487</v>
       </c>
-    </row>
-    <row r="24" spans="1:16">
+      <c r="Q23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24">
         <v>335</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C24">
         <v>225</v>
       </c>
       <c r="D24" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E24">
         <v>294687</v>
@@ -3754,19 +3826,22 @@
       <c r="P24">
         <v>13</v>
       </c>
-    </row>
-    <row r="25" spans="1:16">
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25">
         <v>334</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C25">
         <v>226</v>
       </c>
       <c r="D25" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E25">
         <v>341314</v>
@@ -3804,19 +3879,22 @@
       <c r="P25">
         <v>1377</v>
       </c>
-    </row>
-    <row r="26" spans="1:16">
+      <c r="Q25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
       <c r="A26">
         <v>333</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C26">
         <v>227</v>
       </c>
       <c r="D26" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E26">
         <v>351663</v>
@@ -3854,19 +3932,22 @@
       <c r="P26">
         <v>2535</v>
       </c>
-    </row>
-    <row r="27" spans="1:16">
+      <c r="Q26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
       <c r="A27">
         <v>332</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C27">
         <v>228</v>
       </c>
       <c r="D27" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E27">
         <v>361908</v>
@@ -3904,19 +3985,22 @@
       <c r="P27">
         <v>39</v>
       </c>
-    </row>
-    <row r="28" spans="1:16">
+      <c r="Q27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
       <c r="A28">
         <v>331</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C28">
         <v>229</v>
       </c>
       <c r="D28" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E28">
         <v>358176</v>
@@ -3954,19 +4038,22 @@
       <c r="P28">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:16">
+      <c r="Q28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
       <c r="A29">
         <v>330</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C29">
         <v>230</v>
       </c>
       <c r="D29" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E29">
         <v>359679</v>
@@ -4004,19 +4091,22 @@
       <c r="P29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:16">
+      <c r="Q29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
       <c r="A30">
         <v>329</v>
       </c>
       <c r="B30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C30">
         <v>231</v>
       </c>
       <c r="D30" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E30">
         <v>319698</v>
@@ -4054,19 +4144,22 @@
       <c r="P30">
         <v>74</v>
       </c>
-    </row>
-    <row r="31" spans="1:16">
+      <c r="Q30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
       <c r="A31">
         <v>328</v>
       </c>
       <c r="B31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C31">
         <v>232</v>
       </c>
       <c r="D31" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E31">
         <v>311018</v>
@@ -4104,19 +4197,22 @@
       <c r="P31">
         <v>133</v>
       </c>
-    </row>
-    <row r="32" spans="1:16">
+      <c r="Q31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
       <c r="A32">
         <v>327</v>
       </c>
       <c r="B32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C32">
         <v>233</v>
       </c>
       <c r="D32" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E32">
         <v>288228</v>
@@ -4154,19 +4250,22 @@
       <c r="P32">
         <v>67</v>
       </c>
-    </row>
-    <row r="33" spans="1:16">
+      <c r="Q32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
       <c r="A33">
         <v>326</v>
       </c>
       <c r="B33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C33">
         <v>234</v>
       </c>
       <c r="D33" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E33">
         <v>336236</v>
@@ -4204,19 +4303,22 @@
       <c r="P33">
         <v>293</v>
       </c>
-    </row>
-    <row r="34" spans="1:16">
+      <c r="Q33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
       <c r="A34">
         <v>325</v>
       </c>
       <c r="B34" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C34">
         <v>235</v>
       </c>
       <c r="D34" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E34">
         <v>305372</v>
@@ -4254,19 +4356,22 @@
       <c r="P34">
         <v>114</v>
       </c>
-    </row>
-    <row r="35" spans="1:16">
+      <c r="Q34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
       <c r="A35">
         <v>324</v>
       </c>
       <c r="B35" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C35">
         <v>236</v>
       </c>
       <c r="D35" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E35">
         <v>304830</v>
@@ -4304,19 +4409,22 @@
       <c r="P35">
         <v>230</v>
       </c>
-    </row>
-    <row r="36" spans="1:16">
+      <c r="Q35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
       <c r="A36">
         <v>323</v>
       </c>
       <c r="B36" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C36">
         <v>237</v>
       </c>
       <c r="D36" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E36">
         <v>278826</v>
@@ -4354,19 +4462,22 @@
       <c r="P36">
         <v>11</v>
       </c>
-    </row>
-    <row r="37" spans="1:16">
+      <c r="Q36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
       <c r="A37">
         <v>322</v>
       </c>
       <c r="B37" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C37">
         <v>238</v>
       </c>
       <c r="D37" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E37">
         <v>269885</v>
@@ -4404,19 +4515,22 @@
       <c r="P37">
         <v>6</v>
       </c>
-    </row>
-    <row r="38" spans="1:16">
+      <c r="Q37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
       <c r="A38">
         <v>321</v>
       </c>
       <c r="B38" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C38">
         <v>239</v>
       </c>
       <c r="D38" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E38">
         <v>277471</v>
@@ -4454,19 +4568,22 @@
       <c r="P38">
         <v>9</v>
       </c>
-    </row>
-    <row r="39" spans="1:16">
+      <c r="Q38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
       <c r="A39">
         <v>320</v>
       </c>
       <c r="B39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C39">
         <v>240</v>
       </c>
       <c r="D39" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E39">
         <v>261521</v>
@@ -4504,19 +4621,22 @@
       <c r="P39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:16">
+      <c r="Q39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
       <c r="A40">
         <v>319</v>
       </c>
       <c r="B40" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C40">
         <v>241</v>
       </c>
       <c r="D40" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E40">
         <v>287836</v>
@@ -4554,19 +4674,22 @@
       <c r="P40">
         <v>26</v>
       </c>
-    </row>
-    <row r="41" spans="1:16">
+      <c r="Q40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
       <c r="A41">
         <v>318</v>
       </c>
       <c r="B41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C41">
         <v>242</v>
       </c>
       <c r="D41" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E41">
         <v>289721</v>
@@ -4604,19 +4727,22 @@
       <c r="P41">
         <v>2</v>
       </c>
-    </row>
-    <row r="42" spans="1:16">
+      <c r="Q41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
       <c r="A42">
         <v>317</v>
       </c>
       <c r="B42" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C42">
         <v>243</v>
       </c>
       <c r="D42" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E42">
         <v>342003</v>
@@ -4654,19 +4780,22 @@
       <c r="P42">
         <v>245</v>
       </c>
-    </row>
-    <row r="43" spans="1:16">
+      <c r="Q42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
       <c r="A43">
         <v>316</v>
       </c>
       <c r="B43" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C43">
         <v>244</v>
       </c>
       <c r="D43" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E43">
         <v>265238</v>
@@ -4704,19 +4833,22 @@
       <c r="P43">
         <v>33</v>
       </c>
-    </row>
-    <row r="44" spans="1:16">
+      <c r="Q43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
       <c r="A44">
         <v>315</v>
       </c>
       <c r="B44" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C44">
         <v>245</v>
       </c>
       <c r="D44" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E44">
         <v>282327</v>
@@ -4754,19 +4886,22 @@
       <c r="P44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:16">
+      <c r="Q44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
       <c r="A45">
         <v>314</v>
       </c>
       <c r="B45" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C45">
         <v>246</v>
       </c>
       <c r="D45" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="E45">
         <v>273306</v>
@@ -4804,19 +4939,22 @@
       <c r="P45">
         <v>6</v>
       </c>
-    </row>
-    <row r="46" spans="1:16">
+      <c r="Q45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
       <c r="A46">
         <v>313</v>
       </c>
       <c r="B46" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C46">
         <v>247</v>
       </c>
       <c r="D46" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E46">
         <v>278731</v>
@@ -4854,19 +4992,22 @@
       <c r="P46">
         <v>4959</v>
       </c>
-    </row>
-    <row r="47" spans="1:16">
+      <c r="Q46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
       <c r="A47">
         <v>312</v>
       </c>
       <c r="B47" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C47">
         <v>248</v>
       </c>
       <c r="D47" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E47">
         <v>306356</v>
@@ -4904,19 +5045,22 @@
       <c r="P47">
         <v>20</v>
       </c>
-    </row>
-    <row r="48" spans="1:16">
+      <c r="Q47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
       <c r="A48">
         <v>311</v>
       </c>
       <c r="B48" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C48">
         <v>249</v>
       </c>
       <c r="D48" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E48">
         <v>277576</v>
@@ -4954,19 +5098,22 @@
       <c r="P48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:16">
+      <c r="Q48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
       <c r="A49">
         <v>310</v>
       </c>
       <c r="B49" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C49">
         <v>250</v>
       </c>
       <c r="D49" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E49">
         <v>250674</v>
@@ -5004,19 +5151,22 @@
       <c r="P49">
         <v>61</v>
       </c>
-    </row>
-    <row r="50" spans="1:16">
+      <c r="Q49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
       <c r="A50">
         <v>309</v>
       </c>
       <c r="B50" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C50">
         <v>251</v>
       </c>
       <c r="D50" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E50">
         <v>255907</v>
@@ -5054,19 +5204,22 @@
       <c r="P50">
         <v>69</v>
       </c>
-    </row>
-    <row r="51" spans="1:16">
+      <c r="Q50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
       <c r="A51">
         <v>308</v>
       </c>
       <c r="B51" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C51">
         <v>252</v>
       </c>
       <c r="D51" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E51">
         <v>248363</v>
@@ -5104,19 +5257,22 @@
       <c r="P51">
         <v>28</v>
       </c>
-    </row>
-    <row r="52" spans="1:16">
+      <c r="Q51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17">
       <c r="A52">
         <v>307</v>
       </c>
       <c r="B52" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C52">
         <v>253</v>
       </c>
       <c r="D52" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="E52">
         <v>250413</v>
@@ -5154,19 +5310,22 @@
       <c r="P52">
         <v>64</v>
       </c>
-    </row>
-    <row r="53" spans="1:16">
+      <c r="Q52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17">
       <c r="A53">
         <v>306</v>
       </c>
       <c r="B53" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C53">
         <v>254</v>
       </c>
       <c r="D53" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E53">
         <v>251094</v>
@@ -5204,19 +5363,22 @@
       <c r="P53">
         <v>189</v>
       </c>
-    </row>
-    <row r="54" spans="1:16">
+      <c r="Q53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17">
       <c r="A54">
         <v>305</v>
       </c>
       <c r="B54" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C54">
         <v>255</v>
       </c>
       <c r="D54" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E54">
         <v>240137</v>
@@ -5254,19 +5416,22 @@
       <c r="P54">
         <v>6</v>
       </c>
-    </row>
-    <row r="55" spans="1:16">
+      <c r="Q54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17">
       <c r="A55">
         <v>304</v>
       </c>
       <c r="B55" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C55">
         <v>256</v>
       </c>
       <c r="D55" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E55">
         <v>257304</v>
@@ -5304,19 +5469,22 @@
       <c r="P55">
         <v>28</v>
       </c>
-    </row>
-    <row r="56" spans="1:16">
+      <c r="Q55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17">
       <c r="A56">
         <v>303</v>
       </c>
       <c r="B56" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C56">
         <v>257</v>
       </c>
       <c r="D56" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E56">
         <v>240018</v>
@@ -5354,19 +5522,22 @@
       <c r="P56">
         <v>61</v>
       </c>
-    </row>
-    <row r="57" spans="1:16">
+      <c r="Q56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17">
       <c r="A57">
         <v>302</v>
       </c>
       <c r="B57" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C57">
         <v>258</v>
       </c>
       <c r="D57" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E57">
         <v>203730</v>
@@ -5404,19 +5575,22 @@
       <c r="P57">
         <v>264</v>
       </c>
-    </row>
-    <row r="58" spans="1:16">
+      <c r="Q57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17">
       <c r="A58">
         <v>301</v>
       </c>
       <c r="B58" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C58">
         <v>259</v>
       </c>
       <c r="D58" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E58">
         <v>229895</v>
@@ -5454,19 +5628,22 @@
       <c r="P58">
         <v>10</v>
       </c>
-    </row>
-    <row r="59" spans="1:16">
+      <c r="Q58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17">
       <c r="A59">
         <v>300</v>
       </c>
       <c r="B59" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C59">
         <v>260</v>
       </c>
       <c r="D59" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E59">
         <v>218595</v>
@@ -5504,19 +5681,22 @@
       <c r="P59">
         <v>142</v>
       </c>
-    </row>
-    <row r="60" spans="1:16">
+      <c r="Q59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17">
       <c r="A60">
         <v>299</v>
       </c>
       <c r="B60" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C60">
         <v>261</v>
       </c>
       <c r="D60" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E60">
         <v>218595</v>
@@ -5554,19 +5734,22 @@
       <c r="P60">
         <v>25</v>
       </c>
-    </row>
-    <row r="61" spans="1:16">
+      <c r="Q60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17">
       <c r="A61">
         <v>298</v>
       </c>
       <c r="B61" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C61">
         <v>262</v>
       </c>
       <c r="D61" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E61">
         <v>207473</v>
@@ -5604,19 +5787,22 @@
       <c r="P61">
         <v>530</v>
       </c>
-    </row>
-    <row r="62" spans="1:16">
+      <c r="Q61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17">
       <c r="A62">
         <v>297</v>
       </c>
       <c r="B62" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C62">
         <v>263</v>
       </c>
       <c r="D62" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E62">
         <v>201799</v>
@@ -5654,19 +5840,22 @@
       <c r="P62">
         <v>632</v>
       </c>
-    </row>
-    <row r="63" spans="1:16">
+      <c r="Q62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17">
       <c r="A63">
         <v>296</v>
       </c>
       <c r="B63" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C63">
         <v>264</v>
       </c>
       <c r="D63" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E63">
         <v>208884</v>
@@ -5704,19 +5893,22 @@
       <c r="P63">
         <v>55</v>
       </c>
-    </row>
-    <row r="64" spans="1:16">
+      <c r="Q63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17">
       <c r="A64">
         <v>295</v>
       </c>
       <c r="B64" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C64">
         <v>265</v>
       </c>
       <c r="D64" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E64">
         <v>226349</v>
@@ -5754,19 +5946,22 @@
       <c r="P64">
         <v>659</v>
       </c>
-    </row>
-    <row r="65" spans="1:16">
+      <c r="Q64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17">
       <c r="A65">
         <v>294</v>
       </c>
       <c r="B65" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C65">
         <v>266</v>
       </c>
       <c r="D65" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E65">
         <v>192049</v>
@@ -5804,19 +5999,22 @@
       <c r="P65">
         <v>688</v>
       </c>
-    </row>
-    <row r="66" spans="1:16">
+      <c r="Q65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17">
       <c r="A66">
         <v>293</v>
       </c>
       <c r="B66" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C66">
         <v>267</v>
       </c>
       <c r="D66" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E66">
         <v>179436</v>
@@ -5854,19 +6052,22 @@
       <c r="P66">
         <v>206</v>
       </c>
-    </row>
-    <row r="67" spans="1:16">
+      <c r="Q66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17">
       <c r="A67">
         <v>292</v>
       </c>
       <c r="B67" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C67">
         <v>268</v>
       </c>
       <c r="D67" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E67">
         <v>185406</v>
@@ -5904,19 +6105,22 @@
       <c r="P67">
         <v>45</v>
       </c>
-    </row>
-    <row r="68" spans="1:16">
+      <c r="Q67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17">
       <c r="A68">
         <v>291</v>
       </c>
       <c r="B68" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C68">
         <v>269</v>
       </c>
       <c r="D68" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E68">
         <v>202855</v>
@@ -5954,19 +6158,22 @@
       <c r="P68">
         <v>32</v>
       </c>
-    </row>
-    <row r="69" spans="1:16">
+      <c r="Q68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17">
       <c r="A69">
         <v>290</v>
       </c>
       <c r="B69" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C69">
         <v>270</v>
       </c>
       <c r="D69" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E69">
         <v>217856</v>
@@ -6004,19 +6211,22 @@
       <c r="P69">
         <v>37</v>
       </c>
-    </row>
-    <row r="70" spans="1:16">
+      <c r="Q69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17">
       <c r="A70">
         <v>289</v>
       </c>
       <c r="B70" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C70">
         <v>271</v>
       </c>
       <c r="D70" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E70">
         <v>169071</v>
@@ -6054,19 +6264,22 @@
       <c r="P70">
         <v>162</v>
       </c>
-    </row>
-    <row r="71" spans="1:16">
+      <c r="Q70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17">
       <c r="A71">
         <v>288</v>
       </c>
       <c r="B71" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C71">
         <v>272</v>
       </c>
       <c r="D71" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E71">
         <v>179830</v>
@@ -6104,19 +6317,22 @@
       <c r="P71">
         <v>2</v>
       </c>
-    </row>
-    <row r="72" spans="1:16">
+      <c r="Q71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17">
       <c r="A72">
         <v>287</v>
       </c>
       <c r="B72" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C72">
         <v>273</v>
       </c>
       <c r="D72" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E72">
         <v>156311</v>
@@ -6154,19 +6370,22 @@
       <c r="P72">
         <v>785</v>
       </c>
-    </row>
-    <row r="73" spans="1:16">
+      <c r="Q72">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17">
       <c r="A73">
         <v>286</v>
       </c>
       <c r="B73" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C73">
         <v>274</v>
       </c>
       <c r="D73" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E73">
         <v>154987</v>
@@ -6204,19 +6423,22 @@
       <c r="P73">
         <v>34</v>
       </c>
-    </row>
-    <row r="74" spans="1:16">
+      <c r="Q73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17">
       <c r="A74">
         <v>285</v>
       </c>
       <c r="B74" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C74">
         <v>275</v>
       </c>
       <c r="D74" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E74">
         <v>173636</v>
@@ -6254,19 +6476,22 @@
       <c r="P74">
         <v>10397</v>
       </c>
-    </row>
-    <row r="75" spans="1:16">
+      <c r="Q74">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17">
       <c r="A75">
         <v>284</v>
       </c>
       <c r="B75" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C75">
         <v>276</v>
       </c>
       <c r="D75" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E75">
         <v>160161</v>
@@ -6304,19 +6529,22 @@
       <c r="P75">
         <v>2</v>
       </c>
-    </row>
-    <row r="76" spans="1:16">
+      <c r="Q75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17">
       <c r="A76">
         <v>283</v>
       </c>
       <c r="B76" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C76">
         <v>277</v>
       </c>
       <c r="D76" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E76">
         <v>156785</v>
@@ -6354,19 +6582,22 @@
       <c r="P76">
         <v>28</v>
       </c>
-    </row>
-    <row r="77" spans="1:16">
+      <c r="Q76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17">
       <c r="A77">
         <v>282</v>
       </c>
       <c r="B77" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C77">
         <v>278</v>
       </c>
       <c r="D77" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="E77">
         <v>169066</v>
@@ -6404,19 +6635,22 @@
       <c r="P77">
         <v>198</v>
       </c>
-    </row>
-    <row r="78" spans="1:16">
+      <c r="Q77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17">
       <c r="A78">
         <v>281</v>
       </c>
       <c r="B78" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C78">
         <v>279</v>
       </c>
       <c r="D78" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E78">
         <v>150197</v>
@@ -6454,19 +6688,22 @@
       <c r="P78">
         <v>12</v>
       </c>
-    </row>
-    <row r="79" spans="1:16">
+      <c r="Q78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17">
       <c r="A79">
         <v>280</v>
       </c>
       <c r="B79" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C79">
         <v>280</v>
       </c>
       <c r="D79" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="E79">
         <v>149507</v>
@@ -6504,19 +6741,22 @@
       <c r="P79">
         <v>3</v>
       </c>
-    </row>
-    <row r="80" spans="1:16">
+      <c r="Q79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17">
       <c r="A80">
         <v>279</v>
       </c>
       <c r="B80" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C80">
         <v>281</v>
       </c>
       <c r="D80" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E80">
         <v>165468</v>
@@ -6554,19 +6794,22 @@
       <c r="P80">
         <v>4</v>
       </c>
-    </row>
-    <row r="81" spans="1:16">
+      <c r="Q80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17">
       <c r="A81">
         <v>278</v>
       </c>
       <c r="B81" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C81">
         <v>282</v>
       </c>
       <c r="D81" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E81">
         <v>173696</v>
@@ -6604,19 +6847,22 @@
       <c r="P81">
         <v>3546</v>
       </c>
-    </row>
-    <row r="82" spans="1:16">
+      <c r="Q81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17">
       <c r="A82">
         <v>277</v>
       </c>
       <c r="B82" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C82">
         <v>283</v>
       </c>
       <c r="D82" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E82">
         <v>149070</v>
@@ -6654,19 +6900,22 @@
       <c r="P82">
         <v>11745</v>
       </c>
-    </row>
-    <row r="83" spans="1:16">
+      <c r="Q82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17">
       <c r="A83">
         <v>276</v>
       </c>
       <c r="B83" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C83">
         <v>284</v>
       </c>
       <c r="D83" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="E83">
         <v>158139</v>
@@ -6704,19 +6953,22 @@
       <c r="P83">
         <v>49</v>
       </c>
-    </row>
-    <row r="84" spans="1:16">
+      <c r="Q83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17">
       <c r="A84">
         <v>275</v>
       </c>
       <c r="B84" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C84">
         <v>285</v>
       </c>
       <c r="D84" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E84">
         <v>135219</v>
@@ -6754,19 +7006,22 @@
       <c r="P84">
         <v>36</v>
       </c>
-    </row>
-    <row r="85" spans="1:16">
+      <c r="Q84">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17">
       <c r="A85">
         <v>274</v>
       </c>
       <c r="B85" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C85">
         <v>286</v>
       </c>
       <c r="D85" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="E85">
         <v>144648</v>
@@ -6804,19 +7059,22 @@
       <c r="P85">
         <v>6</v>
       </c>
-    </row>
-    <row r="86" spans="1:16">
+      <c r="Q85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17">
       <c r="A86">
         <v>273</v>
       </c>
       <c r="B86" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C86">
         <v>287</v>
       </c>
       <c r="D86" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="E86">
         <v>155079</v>
@@ -6854,19 +7112,22 @@
       <c r="P86">
         <v>3</v>
       </c>
-    </row>
-    <row r="87" spans="1:16">
+      <c r="Q86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17">
       <c r="A87">
         <v>272</v>
       </c>
       <c r="B87" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C87">
         <v>288</v>
       </c>
       <c r="D87" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E87">
         <v>124532</v>
@@ -6904,19 +7165,22 @@
       <c r="P87">
         <v>140</v>
       </c>
-    </row>
-    <row r="88" spans="1:16">
+      <c r="Q87">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17">
       <c r="A88">
         <v>271</v>
       </c>
       <c r="B88" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C88">
         <v>289</v>
       </c>
       <c r="D88" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="E88">
         <v>129651</v>
@@ -6954,19 +7218,22 @@
       <c r="P88">
         <v>21</v>
       </c>
-    </row>
-    <row r="89" spans="1:16">
+      <c r="Q88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17">
       <c r="A89">
         <v>270</v>
       </c>
       <c r="B89" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C89">
         <v>290</v>
       </c>
       <c r="D89" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="E89">
         <v>121356</v>
@@ -7004,19 +7271,22 @@
       <c r="P89">
         <v>5</v>
       </c>
-    </row>
-    <row r="90" spans="1:16">
+      <c r="Q89">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17">
       <c r="A90">
         <v>269</v>
       </c>
       <c r="B90" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C90">
         <v>291</v>
       </c>
       <c r="D90" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E90">
         <v>117856</v>
@@ -7054,19 +7324,22 @@
       <c r="P90">
         <v>2</v>
       </c>
-    </row>
-    <row r="91" spans="1:16">
+      <c r="Q90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17">
       <c r="A91">
         <v>268</v>
       </c>
       <c r="B91" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C91">
         <v>292</v>
       </c>
       <c r="D91" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="E91">
         <v>117761</v>
@@ -7104,19 +7377,22 @@
       <c r="P91">
         <v>10</v>
       </c>
-    </row>
-    <row r="92" spans="1:16">
+      <c r="Q91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17">
       <c r="A92">
         <v>267</v>
       </c>
       <c r="B92" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C92">
         <v>293</v>
       </c>
       <c r="D92" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E92">
         <v>141158</v>
@@ -7154,19 +7430,22 @@
       <c r="P92">
         <v>36</v>
       </c>
-    </row>
-    <row r="93" spans="1:16">
+      <c r="Q92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17">
       <c r="A93">
         <v>266</v>
       </c>
       <c r="B93" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C93">
         <v>294</v>
       </c>
       <c r="D93" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E93">
         <v>134210</v>
@@ -7204,19 +7483,22 @@
       <c r="P93">
         <v>14</v>
       </c>
-    </row>
-    <row r="94" spans="1:16">
+      <c r="Q93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17">
       <c r="A94">
         <v>265</v>
       </c>
       <c r="B94" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C94">
         <v>295</v>
       </c>
       <c r="D94" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E94">
         <v>126241</v>
@@ -7254,19 +7536,22 @@
       <c r="P94">
         <v>908</v>
       </c>
-    </row>
-    <row r="95" spans="1:16">
+      <c r="Q94">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17">
       <c r="A95">
         <v>264</v>
       </c>
       <c r="B95" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C95">
         <v>296</v>
       </c>
       <c r="D95" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E95">
         <v>109828</v>
@@ -7304,19 +7589,22 @@
       <c r="P95">
         <v>73</v>
       </c>
-    </row>
-    <row r="96" spans="1:16">
+      <c r="Q95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17">
       <c r="A96">
         <v>263</v>
       </c>
       <c r="B96" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C96">
         <v>297</v>
       </c>
       <c r="D96" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E96">
         <v>114907</v>
@@ -7354,19 +7642,22 @@
       <c r="P96">
         <v>113</v>
       </c>
-    </row>
-    <row r="97" spans="1:16">
+      <c r="Q96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17">
       <c r="A97">
         <v>262</v>
       </c>
       <c r="B97" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C97">
         <v>298</v>
       </c>
       <c r="D97" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E97">
         <v>123255</v>
@@ -7404,19 +7695,22 @@
       <c r="P97">
         <v>14</v>
       </c>
-    </row>
-    <row r="98" spans="1:16">
+      <c r="Q97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17">
       <c r="A98">
         <v>261</v>
       </c>
       <c r="B98" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C98">
         <v>299</v>
       </c>
       <c r="D98" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E98">
         <v>113448</v>
@@ -7454,19 +7748,22 @@
       <c r="P98">
         <v>10</v>
       </c>
-    </row>
-    <row r="99" spans="1:16">
+      <c r="Q98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17">
       <c r="A99">
         <v>260</v>
       </c>
       <c r="B99" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C99">
         <v>300</v>
       </c>
       <c r="D99" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="E99">
         <v>129991</v>
@@ -7504,19 +7801,22 @@
       <c r="P99">
         <v>255</v>
       </c>
-    </row>
-    <row r="100" spans="1:16">
+      <c r="Q99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17">
       <c r="A100">
         <v>259</v>
       </c>
       <c r="B100" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C100">
         <v>301</v>
       </c>
       <c r="D100" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E100">
         <v>107987</v>
@@ -7554,19 +7854,22 @@
       <c r="P100">
         <v>89</v>
       </c>
-    </row>
-    <row r="101" spans="1:16">
+      <c r="Q100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17">
       <c r="A101">
         <v>258</v>
       </c>
       <c r="B101" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C101">
         <v>302</v>
       </c>
       <c r="D101" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E101">
         <v>106681</v>
@@ -7604,19 +7907,22 @@
       <c r="P101">
         <v>77</v>
       </c>
-    </row>
-    <row r="102" spans="1:16">
+      <c r="Q101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17">
       <c r="A102">
         <v>257</v>
       </c>
       <c r="B102" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C102">
         <v>303</v>
       </c>
       <c r="D102" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E102">
         <v>112383</v>
@@ -7654,19 +7960,22 @@
       <c r="P102">
         <v>13</v>
       </c>
-    </row>
-    <row r="103" spans="1:16">
+      <c r="Q102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17">
       <c r="A103">
         <v>256</v>
       </c>
       <c r="B103" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C103">
         <v>304</v>
       </c>
       <c r="D103" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E103">
         <v>108899</v>
@@ -7704,19 +8013,22 @@
       <c r="P103">
         <v>25</v>
       </c>
-    </row>
-    <row r="104" spans="1:16">
+      <c r="Q103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17">
       <c r="A104">
         <v>255</v>
       </c>
       <c r="B104" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C104">
         <v>305</v>
       </c>
       <c r="D104" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="E104">
         <v>102007</v>
@@ -7754,19 +8066,22 @@
       <c r="P104">
         <v>26</v>
       </c>
-    </row>
-    <row r="105" spans="1:16">
+      <c r="Q104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17">
       <c r="A105">
         <v>254</v>
       </c>
       <c r="B105" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C105">
         <v>306</v>
       </c>
       <c r="D105" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E105">
         <v>97955</v>
@@ -7804,19 +8119,22 @@
       <c r="P105">
         <v>3</v>
       </c>
-    </row>
-    <row r="106" spans="1:16">
+      <c r="Q105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17">
       <c r="A106">
         <v>253</v>
       </c>
       <c r="B106" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C106">
         <v>307</v>
       </c>
       <c r="D106" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="E106">
         <v>119232</v>
@@ -7854,19 +8172,22 @@
       <c r="P106">
         <v>395</v>
       </c>
-    </row>
-    <row r="107" spans="1:16">
+      <c r="Q106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17">
       <c r="A107">
         <v>252</v>
       </c>
       <c r="B107" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C107">
         <v>308</v>
       </c>
       <c r="D107" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="E107">
         <v>95562</v>
@@ -7904,19 +8225,22 @@
       <c r="P107">
         <v>60</v>
       </c>
-    </row>
-    <row r="108" spans="1:16">
+      <c r="Q107">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17">
       <c r="A108">
         <v>251</v>
       </c>
       <c r="B108" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C108">
         <v>309</v>
       </c>
       <c r="D108" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="E108">
         <v>97452</v>
@@ -7954,19 +8278,22 @@
       <c r="P108">
         <v>16</v>
       </c>
-    </row>
-    <row r="109" spans="1:16">
+      <c r="Q108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17">
       <c r="A109">
         <v>250</v>
       </c>
       <c r="B109" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C109">
         <v>310</v>
       </c>
       <c r="D109" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="E109">
         <v>91548</v>
@@ -8004,19 +8331,22 @@
       <c r="P109">
         <v>5</v>
       </c>
-    </row>
-    <row r="110" spans="1:16">
+      <c r="Q109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17">
       <c r="A110">
         <v>249</v>
       </c>
       <c r="B110" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C110">
         <v>311</v>
       </c>
       <c r="D110" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E110">
         <v>103153</v>
@@ -8054,19 +8384,22 @@
       <c r="P110">
         <v>2</v>
       </c>
-    </row>
-    <row r="111" spans="1:16">
+      <c r="Q110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17">
       <c r="A111">
         <v>248</v>
       </c>
       <c r="B111" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C111">
         <v>312</v>
       </c>
       <c r="D111" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="E111">
         <v>98967</v>
@@ -8104,19 +8437,22 @@
       <c r="P111">
         <v>1011</v>
       </c>
-    </row>
-    <row r="112" spans="1:16">
+      <c r="Q111">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17">
       <c r="A112">
         <v>247</v>
       </c>
       <c r="B112" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C112">
         <v>313</v>
       </c>
       <c r="D112" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E112">
         <v>88974</v>
@@ -8154,19 +8490,22 @@
       <c r="P112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:16">
+      <c r="Q112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17">
       <c r="A113">
         <v>245</v>
       </c>
       <c r="B113" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C113">
         <v>315</v>
       </c>
       <c r="D113" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="E113">
         <v>77991</v>
@@ -8204,19 +8543,22 @@
       <c r="P113">
         <v>6</v>
       </c>
-    </row>
-    <row r="114" spans="1:16">
+      <c r="Q113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17">
       <c r="A114">
         <v>244</v>
       </c>
       <c r="B114" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C114">
         <v>316</v>
       </c>
       <c r="D114" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="E114">
         <v>77658</v>
@@ -8254,19 +8596,22 @@
       <c r="P114">
         <v>26</v>
       </c>
-    </row>
-    <row r="115" spans="1:16">
+      <c r="Q114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17">
       <c r="A115">
         <v>243</v>
       </c>
       <c r="B115" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C115">
         <v>317</v>
       </c>
       <c r="D115" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E115">
         <v>95643</v>
@@ -8304,19 +8649,22 @@
       <c r="P115">
         <v>584</v>
       </c>
-    </row>
-    <row r="116" spans="1:16">
+      <c r="Q115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17">
       <c r="A116">
         <v>242</v>
       </c>
       <c r="B116" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C116">
         <v>318</v>
       </c>
       <c r="D116" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="E116">
         <v>85817</v>
@@ -8354,19 +8702,22 @@
       <c r="P116">
         <v>35</v>
       </c>
-    </row>
-    <row r="117" spans="1:16">
+      <c r="Q116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17">
       <c r="A117">
         <v>241</v>
       </c>
       <c r="B117" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C117">
         <v>319</v>
       </c>
       <c r="D117" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="E117">
         <v>107750</v>
@@ -8404,19 +8755,22 @@
       <c r="P117">
         <v>531</v>
       </c>
-    </row>
-    <row r="118" spans="1:16">
+      <c r="Q117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17">
       <c r="A118">
         <v>240</v>
       </c>
       <c r="B118" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C118">
         <v>320</v>
       </c>
       <c r="D118" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="E118">
         <v>85979</v>
@@ -8454,19 +8808,22 @@
       <c r="P118">
         <v>46</v>
       </c>
-    </row>
-    <row r="119" spans="1:16">
+      <c r="Q118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17">
       <c r="A119">
         <v>239</v>
       </c>
       <c r="B119" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C119">
         <v>321</v>
       </c>
       <c r="D119" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="E119">
         <v>76292</v>
@@ -8504,19 +8861,22 @@
       <c r="P119">
         <v>13</v>
       </c>
-    </row>
-    <row r="120" spans="1:16">
+      <c r="Q119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17">
       <c r="A120">
         <v>238</v>
       </c>
       <c r="B120" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C120">
         <v>322</v>
       </c>
       <c r="D120" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="E120">
         <v>74458</v>
@@ -8554,19 +8914,22 @@
       <c r="P120">
         <v>472</v>
       </c>
-    </row>
-    <row r="121" spans="1:16">
+      <c r="Q120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17">
       <c r="A121">
         <v>237</v>
       </c>
       <c r="B121" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C121">
         <v>323</v>
       </c>
       <c r="D121" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E121">
         <v>72518</v>
@@ -8604,19 +8967,22 @@
       <c r="P121">
         <v>5</v>
       </c>
-    </row>
-    <row r="122" spans="1:16">
+      <c r="Q121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17">
       <c r="A122">
         <v>236</v>
       </c>
       <c r="B122" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C122">
         <v>324</v>
       </c>
       <c r="D122" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="E122">
         <v>88932</v>
@@ -8654,19 +9020,22 @@
       <c r="P122">
         <v>140</v>
       </c>
-    </row>
-    <row r="123" spans="1:16">
+      <c r="Q122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17">
       <c r="A123">
         <v>235</v>
       </c>
       <c r="B123" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C123">
         <v>325</v>
       </c>
       <c r="D123" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="E123">
         <v>74412</v>
@@ -8704,19 +9073,22 @@
       <c r="P123">
         <v>2</v>
       </c>
-    </row>
-    <row r="124" spans="1:16">
+      <c r="Q123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:17">
       <c r="A124">
         <v>234</v>
       </c>
       <c r="B124" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C124">
         <v>326</v>
       </c>
       <c r="D124" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E124">
         <v>79446</v>
@@ -8754,19 +9126,22 @@
       <c r="P124">
         <v>10</v>
       </c>
-    </row>
-    <row r="125" spans="1:16">
+      <c r="Q124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:17">
       <c r="A125">
         <v>233</v>
       </c>
       <c r="B125" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C125">
         <v>327</v>
       </c>
       <c r="D125" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E125">
         <v>75673</v>
@@ -8804,19 +9179,22 @@
       <c r="P125">
         <v>13</v>
       </c>
-    </row>
-    <row r="126" spans="1:16">
+      <c r="Q125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:17">
       <c r="A126">
         <v>232</v>
       </c>
       <c r="B126" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C126">
         <v>328</v>
       </c>
       <c r="D126" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E126">
         <v>77585</v>
@@ -8854,19 +9232,22 @@
       <c r="P126">
         <v>7</v>
       </c>
-    </row>
-    <row r="127" spans="1:16">
+      <c r="Q126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:17">
       <c r="A127">
         <v>231</v>
       </c>
       <c r="B127" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C127">
         <v>329</v>
       </c>
       <c r="D127" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="E127">
         <v>73225</v>
@@ -8904,19 +9285,22 @@
       <c r="P127">
         <v>112</v>
       </c>
-    </row>
-    <row r="128" spans="1:16">
+      <c r="Q127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:17">
       <c r="A128">
         <v>230</v>
       </c>
       <c r="B128" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C128">
         <v>330</v>
       </c>
       <c r="D128" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E128">
         <v>67115</v>
@@ -8954,19 +9338,22 @@
       <c r="P128">
         <v>463</v>
       </c>
-    </row>
-    <row r="129" spans="1:16">
+      <c r="Q128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:17">
       <c r="A129">
         <v>229</v>
       </c>
       <c r="B129" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C129">
         <v>331</v>
       </c>
       <c r="D129" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="E129">
         <v>68349</v>
@@ -9004,19 +9391,22 @@
       <c r="P129">
         <v>11</v>
       </c>
-    </row>
-    <row r="130" spans="1:16">
+      <c r="Q129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:17">
       <c r="A130">
         <v>228</v>
       </c>
       <c r="B130" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C130">
         <v>332</v>
       </c>
       <c r="D130" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="E130">
         <v>70722</v>
@@ -9054,19 +9444,22 @@
       <c r="P130">
         <v>19465</v>
       </c>
-    </row>
-    <row r="131" spans="1:16">
+      <c r="Q130">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="131" spans="1:17">
       <c r="A131">
         <v>227</v>
       </c>
       <c r="B131" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C131">
         <v>333</v>
       </c>
       <c r="D131" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="E131">
         <v>73933</v>
@@ -9104,19 +9497,22 @@
       <c r="P131">
         <v>8</v>
       </c>
-    </row>
-    <row r="132" spans="1:16">
+      <c r="Q131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:17">
       <c r="A132">
         <v>226</v>
       </c>
       <c r="B132" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C132">
         <v>334</v>
       </c>
       <c r="D132" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="E132">
         <v>70920</v>
@@ -9154,19 +9550,22 @@
       <c r="P132">
         <v>334</v>
       </c>
-    </row>
-    <row r="133" spans="1:16">
+      <c r="Q132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:17">
       <c r="A133">
         <v>225</v>
       </c>
       <c r="B133" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C133">
         <v>335</v>
       </c>
       <c r="D133" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E133">
         <v>69884</v>
@@ -9204,19 +9603,22 @@
       <c r="P133">
         <v>1</v>
       </c>
-    </row>
-    <row r="134" spans="1:16">
+      <c r="Q133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:17">
       <c r="A134">
         <v>224</v>
       </c>
       <c r="B134" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C134">
         <v>336</v>
       </c>
       <c r="D134" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="E134">
         <v>66814</v>
@@ -9254,19 +9656,22 @@
       <c r="P134">
         <v>81</v>
       </c>
-    </row>
-    <row r="135" spans="1:16">
+      <c r="Q134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:17">
       <c r="A135">
         <v>223</v>
       </c>
       <c r="B135" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C135">
         <v>337</v>
       </c>
       <c r="D135" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="E135">
         <v>67909</v>
@@ -9304,19 +9709,22 @@
       <c r="P135">
         <v>973</v>
       </c>
-    </row>
-    <row r="136" spans="1:16">
+      <c r="Q135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:17">
       <c r="A136">
         <v>222</v>
       </c>
       <c r="B136" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C136">
         <v>338</v>
       </c>
       <c r="D136" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E136">
         <v>66431</v>
@@ -9354,19 +9762,22 @@
       <c r="P136">
         <v>7</v>
       </c>
-    </row>
-    <row r="137" spans="1:16">
+      <c r="Q136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:17">
       <c r="A137">
         <v>221</v>
       </c>
       <c r="B137" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C137">
         <v>339</v>
       </c>
       <c r="D137" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E137">
         <v>63380</v>
@@ -9404,19 +9815,22 @@
       <c r="P137">
         <v>11</v>
       </c>
-    </row>
-    <row r="138" spans="1:16">
+      <c r="Q137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:17">
       <c r="A138">
         <v>220</v>
       </c>
       <c r="B138" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C138">
         <v>340</v>
       </c>
       <c r="D138" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="E138">
         <v>62723</v>
@@ -9454,19 +9868,22 @@
       <c r="P138">
         <v>13</v>
       </c>
-    </row>
-    <row r="139" spans="1:16">
+      <c r="Q138">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:17">
       <c r="A139">
         <v>219</v>
       </c>
       <c r="B139" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C139">
         <v>341</v>
       </c>
       <c r="D139" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E139">
         <v>63188</v>
@@ -9504,19 +9921,22 @@
       <c r="P139">
         <v>13</v>
       </c>
-    </row>
-    <row r="140" spans="1:16">
+      <c r="Q139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:17">
       <c r="A140">
         <v>218</v>
       </c>
       <c r="B140" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C140">
         <v>342</v>
       </c>
       <c r="D140" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E140">
         <v>63846</v>
@@ -9554,19 +9974,22 @@
       <c r="P140">
         <v>2</v>
       </c>
-    </row>
-    <row r="141" spans="1:16">
+      <c r="Q140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:17">
       <c r="A141">
         <v>217</v>
       </c>
       <c r="B141" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C141">
         <v>343</v>
       </c>
       <c r="D141" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E141">
         <v>60069</v>
@@ -9604,19 +10027,22 @@
       <c r="P141">
         <v>90</v>
       </c>
-    </row>
-    <row r="142" spans="1:16">
+      <c r="Q141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:17">
       <c r="A142">
         <v>216</v>
       </c>
       <c r="B142" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C142">
         <v>344</v>
       </c>
       <c r="D142" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E142">
         <v>56839</v>
@@ -9654,19 +10080,22 @@
       <c r="P142">
         <v>2</v>
       </c>
-    </row>
-    <row r="143" spans="1:16">
+      <c r="Q142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:17">
       <c r="A143">
         <v>215</v>
       </c>
       <c r="B143" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C143">
         <v>345</v>
       </c>
       <c r="D143" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="E143">
         <v>60969</v>
@@ -9704,19 +10133,22 @@
       <c r="P143">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:16">
+      <c r="Q143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:17">
       <c r="A144">
         <v>214</v>
       </c>
       <c r="B144" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C144">
         <v>346</v>
       </c>
       <c r="D144" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="E144">
         <v>62768</v>
@@ -9754,19 +10186,22 @@
       <c r="P144">
         <v>8</v>
       </c>
-    </row>
-    <row r="145" spans="1:16">
+      <c r="Q144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:17">
       <c r="A145">
         <v>213</v>
       </c>
       <c r="B145" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C145">
         <v>347</v>
       </c>
       <c r="D145" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="E145">
         <v>63241</v>
@@ -9804,19 +10239,22 @@
       <c r="P145">
         <v>23</v>
       </c>
-    </row>
-    <row r="146" spans="1:16">
+      <c r="Q145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:17">
       <c r="A146">
         <v>212</v>
       </c>
       <c r="B146" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C146">
         <v>348</v>
       </c>
       <c r="D146" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="E146">
         <v>61278</v>
@@ -9854,19 +10292,22 @@
       <c r="P146">
         <v>10</v>
       </c>
-    </row>
-    <row r="147" spans="1:16">
+      <c r="Q146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:17">
       <c r="A147">
         <v>211</v>
       </c>
       <c r="B147" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C147">
         <v>349</v>
       </c>
       <c r="D147" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E147">
         <v>65431</v>
@@ -9904,19 +10345,22 @@
       <c r="P147">
         <v>14</v>
       </c>
-    </row>
-    <row r="148" spans="1:16">
+      <c r="Q147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:17">
       <c r="A148">
         <v>210</v>
       </c>
       <c r="B148" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C148">
         <v>350</v>
       </c>
       <c r="D148" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="E148">
         <v>58263</v>
@@ -9954,19 +10398,22 @@
       <c r="P148">
         <v>8</v>
       </c>
-    </row>
-    <row r="149" spans="1:16">
+      <c r="Q148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:17">
       <c r="A149">
         <v>209</v>
       </c>
       <c r="B149" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C149">
         <v>351</v>
       </c>
       <c r="D149" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="E149">
         <v>56738</v>
@@ -10004,19 +10451,22 @@
       <c r="P149">
         <v>146</v>
       </c>
-    </row>
-    <row r="150" spans="1:16">
+      <c r="Q149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:17">
       <c r="A150">
         <v>208</v>
       </c>
       <c r="B150" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C150">
         <v>352</v>
       </c>
       <c r="D150" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="E150">
         <v>58478</v>
@@ -10054,19 +10504,22 @@
       <c r="P150">
         <v>60</v>
       </c>
-    </row>
-    <row r="151" spans="1:16">
+      <c r="Q150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:17">
       <c r="A151">
         <v>207</v>
       </c>
       <c r="B151" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C151">
         <v>353</v>
       </c>
       <c r="D151" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="E151">
         <v>58991</v>
@@ -10104,19 +10557,22 @@
       <c r="P151">
         <v>131</v>
       </c>
-    </row>
-    <row r="152" spans="1:16">
+      <c r="Q151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:17">
       <c r="A152">
         <v>206</v>
       </c>
       <c r="B152" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C152">
         <v>354</v>
       </c>
       <c r="D152" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="E152">
         <v>61026</v>
@@ -10154,19 +10610,22 @@
       <c r="P152">
         <v>8</v>
       </c>
-    </row>
-    <row r="153" spans="1:16">
+      <c r="Q152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:17">
       <c r="A153">
         <v>205</v>
       </c>
       <c r="B153" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C153">
         <v>355</v>
       </c>
       <c r="D153" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="E153">
         <v>60020</v>
@@ -10204,19 +10663,22 @@
       <c r="P153">
         <v>7</v>
       </c>
-    </row>
-    <row r="154" spans="1:16">
+      <c r="Q153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:17">
       <c r="A154">
         <v>204</v>
       </c>
       <c r="B154" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C154">
         <v>356</v>
       </c>
       <c r="D154" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="E154">
         <v>55376</v>
@@ -10254,19 +10716,22 @@
       <c r="P154">
         <v>12</v>
       </c>
-    </row>
-    <row r="155" spans="1:16">
+      <c r="Q154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:17">
       <c r="A155">
         <v>203</v>
       </c>
       <c r="B155" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C155">
         <v>357</v>
       </c>
       <c r="D155" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="E155">
         <v>51958</v>
@@ -10304,19 +10769,22 @@
       <c r="P155">
         <v>24</v>
       </c>
-    </row>
-    <row r="156" spans="1:16">
+      <c r="Q155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:17">
       <c r="A156">
         <v>202</v>
       </c>
       <c r="B156" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C156">
         <v>358</v>
       </c>
       <c r="D156" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E156">
         <v>56684</v>
@@ -10354,19 +10822,22 @@
       <c r="P156">
         <v>67</v>
       </c>
-    </row>
-    <row r="157" spans="1:16">
+      <c r="Q156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:17">
       <c r="A157">
         <v>201</v>
       </c>
       <c r="B157" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C157">
         <v>359</v>
       </c>
       <c r="D157" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="E157">
         <v>53802</v>
@@ -10404,19 +10875,22 @@
       <c r="P157">
         <v>14</v>
       </c>
-    </row>
-    <row r="158" spans="1:16">
+      <c r="Q157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:17">
       <c r="A158">
         <v>200</v>
       </c>
       <c r="B158" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C158">
         <v>360</v>
       </c>
       <c r="D158" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="E158">
         <v>59968</v>
@@ -10454,19 +10928,22 @@
       <c r="P158">
         <v>7</v>
       </c>
-    </row>
-    <row r="159" spans="1:16">
+      <c r="Q158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:17">
       <c r="A159">
         <v>199</v>
       </c>
       <c r="B159" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C159">
         <v>361</v>
       </c>
       <c r="D159" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="E159">
         <v>55989</v>
@@ -10504,19 +10981,22 @@
       <c r="P159">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:16">
+      <c r="Q159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:17">
       <c r="A160">
         <v>198</v>
       </c>
       <c r="B160" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C160">
         <v>362</v>
       </c>
       <c r="D160" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="E160">
         <v>53430</v>
@@ -10554,19 +11034,22 @@
       <c r="P160">
         <v>23</v>
       </c>
-    </row>
-    <row r="161" spans="1:16">
+      <c r="Q160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:17">
       <c r="A161">
         <v>197</v>
       </c>
       <c r="B161" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C161">
         <v>363</v>
       </c>
       <c r="D161" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="E161">
         <v>54665</v>
@@ -10604,19 +11087,22 @@
       <c r="P161">
         <v>116</v>
       </c>
-    </row>
-    <row r="162" spans="1:16">
+      <c r="Q161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:17">
       <c r="A162">
         <v>196</v>
       </c>
       <c r="B162" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C162">
         <v>364</v>
       </c>
       <c r="D162" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="E162">
         <v>47205</v>
@@ -10654,19 +11140,22 @@
       <c r="P162">
         <v>1</v>
       </c>
-    </row>
-    <row r="163" spans="1:16">
+      <c r="Q162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:17">
       <c r="A163">
         <v>195</v>
       </c>
       <c r="B163" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C163">
         <v>365</v>
       </c>
       <c r="D163" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E163">
         <v>55359</v>
@@ -10704,19 +11193,22 @@
       <c r="P163">
         <v>9</v>
       </c>
-    </row>
-    <row r="164" spans="1:16">
+      <c r="Q163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:17">
       <c r="A164">
         <v>194</v>
       </c>
       <c r="B164" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C164">
         <v>366</v>
       </c>
       <c r="D164" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="E164">
         <v>50484</v>
@@ -10754,19 +11246,22 @@
       <c r="P164">
         <v>165</v>
       </c>
-    </row>
-    <row r="165" spans="1:16">
+      <c r="Q164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:17">
       <c r="A165">
         <v>193</v>
       </c>
       <c r="B165" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C165">
         <v>367</v>
       </c>
       <c r="D165" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="E165">
         <v>53342</v>
@@ -10804,19 +11299,22 @@
       <c r="P165">
         <v>4</v>
       </c>
-    </row>
-    <row r="166" spans="1:16">
+      <c r="Q165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:17">
       <c r="A166">
         <v>192</v>
       </c>
       <c r="B166" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C166">
         <v>368</v>
       </c>
       <c r="D166" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="E166">
         <v>47645</v>
@@ -10854,19 +11352,22 @@
       <c r="P166">
         <v>169</v>
       </c>
-    </row>
-    <row r="167" spans="1:16">
+      <c r="Q166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:17">
       <c r="A167">
         <v>191</v>
       </c>
       <c r="B167" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C167">
         <v>369</v>
       </c>
       <c r="D167" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="E167">
         <v>53111</v>
@@ -10904,19 +11405,22 @@
       <c r="P167">
         <v>18</v>
       </c>
-    </row>
-    <row r="168" spans="1:16">
+      <c r="Q167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:17">
       <c r="A168">
         <v>190</v>
       </c>
       <c r="B168" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C168">
         <v>370</v>
       </c>
       <c r="D168" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="E168">
         <v>50617</v>
@@ -10954,19 +11458,22 @@
       <c r="P168">
         <v>123</v>
       </c>
-    </row>
-    <row r="169" spans="1:16">
+      <c r="Q168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:17">
       <c r="A169">
         <v>189</v>
       </c>
       <c r="B169" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C169">
         <v>371</v>
       </c>
       <c r="D169" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="E169">
         <v>46089</v>
@@ -11004,19 +11511,22 @@
       <c r="P169">
         <v>4</v>
       </c>
-    </row>
-    <row r="170" spans="1:16">
+      <c r="Q169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:17">
       <c r="A170">
         <v>188</v>
       </c>
       <c r="B170" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C170">
         <v>372</v>
       </c>
       <c r="D170" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="E170">
         <v>50450</v>
@@ -11054,19 +11564,22 @@
       <c r="P170">
         <v>17</v>
       </c>
-    </row>
-    <row r="171" spans="1:16">
+      <c r="Q170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:17">
       <c r="A171">
         <v>187</v>
       </c>
       <c r="B171" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C171">
         <v>373</v>
       </c>
       <c r="D171" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="E171">
         <v>47986</v>
@@ -11104,19 +11617,22 @@
       <c r="P171">
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="1:16">
+      <c r="Q171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:17">
       <c r="A172">
         <v>186</v>
       </c>
       <c r="B172" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C172">
         <v>374</v>
       </c>
       <c r="D172" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="E172">
         <v>47312</v>
@@ -11154,19 +11670,22 @@
       <c r="P172">
         <v>10</v>
       </c>
-    </row>
-    <row r="173" spans="1:16">
+      <c r="Q172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:17">
       <c r="A173">
         <v>185</v>
       </c>
       <c r="B173" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C173">
         <v>375</v>
       </c>
       <c r="D173" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="E173">
         <v>45645</v>
@@ -11204,19 +11723,22 @@
       <c r="P173">
         <v>9</v>
       </c>
-    </row>
-    <row r="174" spans="1:16">
+      <c r="Q173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:17">
       <c r="A174">
         <v>184</v>
       </c>
       <c r="B174" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C174">
         <v>376</v>
       </c>
       <c r="D174" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="E174">
         <v>44212</v>
@@ -11254,19 +11776,22 @@
       <c r="P174">
         <v>6</v>
       </c>
-    </row>
-    <row r="175" spans="1:16">
+      <c r="Q174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:17">
       <c r="A175">
         <v>183</v>
       </c>
       <c r="B175" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C175">
         <v>377</v>
       </c>
       <c r="D175" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="E175">
         <v>47248</v>
@@ -11304,19 +11829,22 @@
       <c r="P175">
         <v>2</v>
       </c>
-    </row>
-    <row r="176" spans="1:16">
+      <c r="Q175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:17">
       <c r="A176">
         <v>182</v>
       </c>
       <c r="B176" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C176">
         <v>378</v>
       </c>
       <c r="D176" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="E176">
         <v>41765</v>
@@ -11354,19 +11882,22 @@
       <c r="P176">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:16">
+      <c r="Q176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:17">
       <c r="A177">
         <v>181</v>
       </c>
       <c r="B177" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C177">
         <v>379</v>
       </c>
       <c r="D177" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E177">
         <v>40486</v>
@@ -11404,19 +11935,22 @@
       <c r="P177">
         <v>24</v>
       </c>
-    </row>
-    <row r="178" spans="1:16">
+      <c r="Q177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:17">
       <c r="A178">
         <v>180</v>
       </c>
       <c r="B178" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C178">
         <v>380</v>
       </c>
       <c r="D178" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="E178">
         <v>42645</v>
@@ -11454,19 +11988,22 @@
       <c r="P178">
         <v>18</v>
       </c>
-    </row>
-    <row r="179" spans="1:16">
+      <c r="Q178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:17">
       <c r="A179">
         <v>179</v>
       </c>
       <c r="B179" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C179">
         <v>381</v>
       </c>
       <c r="D179" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E179">
         <v>44578</v>
@@ -11504,19 +12041,22 @@
       <c r="P179">
         <v>986</v>
       </c>
-    </row>
-    <row r="180" spans="1:16">
+      <c r="Q179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:17">
       <c r="A180">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C180">
         <v>382</v>
       </c>
       <c r="D180" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="E180">
         <v>47344</v>
@@ -11554,19 +12094,22 @@
       <c r="P180">
         <v>12</v>
       </c>
-    </row>
-    <row r="181" spans="1:16">
+      <c r="Q180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:17">
       <c r="A181">
         <v>177</v>
       </c>
       <c r="B181" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C181">
         <v>383</v>
       </c>
       <c r="D181" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="E181">
         <v>43407</v>
@@ -11604,19 +12147,22 @@
       <c r="P181">
         <v>5</v>
       </c>
-    </row>
-    <row r="182" spans="1:16">
+      <c r="Q181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:17">
       <c r="A182">
         <v>176</v>
       </c>
       <c r="B182" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C182">
         <v>384</v>
       </c>
       <c r="D182" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="E182">
         <v>42806</v>
@@ -11654,19 +12200,22 @@
       <c r="P182">
         <v>1669</v>
       </c>
-    </row>
-    <row r="183" spans="1:16">
+      <c r="Q182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:17">
       <c r="A183">
         <v>175</v>
       </c>
       <c r="B183" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C183">
         <v>385</v>
       </c>
       <c r="D183" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="E183">
         <v>47094</v>
@@ -11704,19 +12253,22 @@
       <c r="P183">
         <v>116</v>
       </c>
-    </row>
-    <row r="184" spans="1:16">
+      <c r="Q183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:17">
       <c r="A184">
         <v>174</v>
       </c>
       <c r="B184" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C184">
         <v>386</v>
       </c>
       <c r="D184" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="E184">
         <v>41785</v>
@@ -11754,19 +12306,22 @@
       <c r="P184">
         <v>39</v>
       </c>
-    </row>
-    <row r="185" spans="1:16">
+      <c r="Q184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:17">
       <c r="A185">
         <v>173</v>
       </c>
       <c r="B185" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C185">
         <v>387</v>
       </c>
       <c r="D185" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="E185">
         <v>40545</v>
@@ -11804,19 +12359,22 @@
       <c r="P185">
         <v>75</v>
       </c>
-    </row>
-    <row r="186" spans="1:16">
+      <c r="Q185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:17">
       <c r="A186">
         <v>172</v>
       </c>
       <c r="B186" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C186">
         <v>388</v>
       </c>
       <c r="D186" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="E186">
         <v>46910</v>
@@ -11854,19 +12412,22 @@
       <c r="P186">
         <v>1851</v>
       </c>
-    </row>
-    <row r="187" spans="1:16">
+      <c r="Q186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:17">
       <c r="A187">
         <v>171</v>
       </c>
       <c r="B187" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C187">
         <v>389</v>
       </c>
       <c r="D187" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="E187">
         <v>46246</v>
@@ -11904,19 +12465,22 @@
       <c r="P187">
         <v>14</v>
       </c>
-    </row>
-    <row r="188" spans="1:16">
+      <c r="Q187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:17">
       <c r="A188">
         <v>170</v>
       </c>
       <c r="B188" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C188">
         <v>390</v>
       </c>
       <c r="D188" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="E188">
         <v>40549</v>
@@ -11954,19 +12518,22 @@
       <c r="P188">
         <v>54</v>
       </c>
-    </row>
-    <row r="189" spans="1:16">
+      <c r="Q188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:17">
       <c r="A189">
         <v>169</v>
       </c>
       <c r="B189" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C189">
         <v>391</v>
       </c>
       <c r="D189" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="E189">
         <v>39234</v>
@@ -12004,19 +12571,22 @@
       <c r="P189">
         <v>37</v>
       </c>
-    </row>
-    <row r="190" spans="1:16">
+      <c r="Q189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:17">
       <c r="A190">
         <v>168</v>
       </c>
       <c r="B190" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C190">
         <v>392</v>
       </c>
       <c r="D190" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="E190">
         <v>38769</v>
@@ -12054,19 +12624,22 @@
       <c r="P190">
         <v>2</v>
       </c>
-    </row>
-    <row r="191" spans="1:16">
+      <c r="Q190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:17">
       <c r="A191">
         <v>167</v>
       </c>
       <c r="B191" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C191">
         <v>393</v>
       </c>
       <c r="D191" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E191">
         <v>39611</v>
@@ -12104,19 +12677,22 @@
       <c r="P191">
         <v>9</v>
       </c>
-    </row>
-    <row r="192" spans="1:16">
+      <c r="Q191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:17">
       <c r="A192">
         <v>166</v>
       </c>
       <c r="B192" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C192">
         <v>394</v>
       </c>
       <c r="D192" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="E192">
         <v>42574</v>
@@ -12154,19 +12730,22 @@
       <c r="P192">
         <v>214</v>
       </c>
-    </row>
-    <row r="193" spans="1:16">
+      <c r="Q192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:17">
       <c r="A193">
         <v>165</v>
       </c>
       <c r="B193" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C193">
         <v>395</v>
       </c>
       <c r="D193" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="E193">
         <v>39667</v>
@@ -12204,19 +12783,22 @@
       <c r="P193">
         <v>245</v>
       </c>
-    </row>
-    <row r="194" spans="1:16">
+      <c r="Q193">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="194" spans="1:17">
       <c r="A194">
         <v>164</v>
       </c>
       <c r="B194" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C194">
         <v>396</v>
       </c>
       <c r="D194" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="E194">
         <v>42237</v>
@@ -12254,19 +12836,22 @@
       <c r="P194">
         <v>7</v>
       </c>
-    </row>
-    <row r="195" spans="1:16">
+      <c r="Q194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:17">
       <c r="A195">
         <v>163</v>
       </c>
       <c r="B195" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C195">
         <v>397</v>
       </c>
       <c r="D195" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="E195">
         <v>39086</v>
@@ -12304,19 +12889,22 @@
       <c r="P195">
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="1:16">
+      <c r="Q195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:17">
       <c r="A196">
         <v>162</v>
       </c>
       <c r="B196" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C196">
         <v>398</v>
       </c>
       <c r="D196" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="E196">
         <v>43099</v>
@@ -12354,19 +12942,22 @@
       <c r="P196">
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:16">
+      <c r="Q196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:17">
       <c r="A197">
         <v>161</v>
       </c>
       <c r="B197" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C197">
         <v>399</v>
       </c>
       <c r="D197" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="E197">
         <v>36769</v>
@@ -12404,19 +12995,22 @@
       <c r="P197">
         <v>1</v>
       </c>
-    </row>
-    <row r="198" spans="1:16">
+      <c r="Q197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:17">
       <c r="A198">
         <v>160</v>
       </c>
       <c r="B198" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C198">
         <v>400</v>
       </c>
       <c r="D198" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="E198">
         <v>39813</v>
@@ -12454,19 +13048,22 @@
       <c r="P198">
         <v>1081</v>
       </c>
-    </row>
-    <row r="199" spans="1:16">
+      <c r="Q198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:17">
       <c r="A199">
         <v>159</v>
       </c>
       <c r="B199" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C199">
         <v>401</v>
       </c>
       <c r="D199" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="E199">
         <v>39228</v>
@@ -12504,19 +13101,22 @@
       <c r="P199">
         <v>0</v>
       </c>
-    </row>
-    <row r="200" spans="1:16">
+      <c r="Q199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:17">
       <c r="A200">
         <v>158</v>
       </c>
       <c r="B200" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C200">
         <v>402</v>
       </c>
       <c r="D200" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="E200">
         <v>39171</v>
@@ -12554,19 +13154,22 @@
       <c r="P200">
         <v>6</v>
       </c>
-    </row>
-    <row r="201" spans="1:16">
+      <c r="Q200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:17">
       <c r="A201">
         <v>157</v>
       </c>
       <c r="B201" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C201">
         <v>403</v>
       </c>
       <c r="D201" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="E201">
         <v>38384</v>
@@ -12604,19 +13207,22 @@
       <c r="P201">
         <v>18</v>
       </c>
-    </row>
-    <row r="202" spans="1:16">
+      <c r="Q201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:17">
       <c r="A202">
         <v>156</v>
       </c>
       <c r="B202" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C202">
         <v>404</v>
       </c>
       <c r="D202" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="E202">
         <v>40650</v>
@@ -12654,19 +13260,22 @@
       <c r="P202">
         <v>5</v>
       </c>
-    </row>
-    <row r="203" spans="1:16">
+      <c r="Q202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:17">
       <c r="A203">
         <v>155</v>
       </c>
       <c r="B203" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C203">
         <v>405</v>
       </c>
       <c r="D203" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="E203">
         <v>37791</v>
@@ -12704,19 +13313,22 @@
       <c r="P203">
         <v>92</v>
       </c>
-    </row>
-    <row r="204" spans="1:16">
+      <c r="Q203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:17">
       <c r="A204">
         <v>154</v>
       </c>
       <c r="B204" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C204">
         <v>406</v>
       </c>
       <c r="D204" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="E204">
         <v>37353</v>
@@ -12754,19 +13366,22 @@
       <c r="P204">
         <v>22</v>
       </c>
-    </row>
-    <row r="205" spans="1:16">
+      <c r="Q204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:17">
       <c r="A205">
         <v>153</v>
       </c>
       <c r="B205" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C205">
         <v>407</v>
       </c>
       <c r="D205" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="E205">
         <v>39250</v>
@@ -12804,19 +13419,22 @@
       <c r="P205">
         <v>9</v>
       </c>
-    </row>
-    <row r="206" spans="1:16">
+      <c r="Q205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:17">
       <c r="A206">
         <v>152</v>
       </c>
       <c r="B206" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C206">
         <v>408</v>
       </c>
       <c r="D206" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="E206">
         <v>36662</v>
@@ -12854,19 +13472,22 @@
       <c r="P206">
         <v>8</v>
       </c>
-    </row>
-    <row r="207" spans="1:16">
+      <c r="Q206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:17">
       <c r="A207">
         <v>151</v>
       </c>
       <c r="B207" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C207">
         <v>409</v>
       </c>
       <c r="D207" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="E207">
         <v>34909</v>
@@ -12904,19 +13525,22 @@
       <c r="P207">
         <v>1</v>
       </c>
-    </row>
-    <row r="208" spans="1:16">
+      <c r="Q207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:17">
       <c r="A208">
         <v>150</v>
       </c>
       <c r="B208" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C208">
         <v>410</v>
       </c>
       <c r="D208" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="E208">
         <v>38381</v>
@@ -12954,19 +13578,22 @@
       <c r="P208">
         <v>622</v>
       </c>
-    </row>
-    <row r="209" spans="1:16">
+      <c r="Q208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:17">
       <c r="A209">
         <v>149</v>
       </c>
       <c r="B209" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C209">
         <v>411</v>
       </c>
       <c r="D209" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="E209">
         <v>37229</v>
@@ -13004,19 +13631,22 @@
       <c r="P209">
         <v>18</v>
       </c>
-    </row>
-    <row r="210" spans="1:16">
+      <c r="Q209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:17">
       <c r="A210">
         <v>148</v>
       </c>
       <c r="B210" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C210">
         <v>412</v>
       </c>
       <c r="D210" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="E210">
         <v>37350</v>
@@ -13054,19 +13684,22 @@
       <c r="P210">
         <v>11</v>
       </c>
-    </row>
-    <row r="211" spans="1:16">
+      <c r="Q210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:17">
       <c r="A211">
         <v>147</v>
       </c>
       <c r="B211" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C211">
         <v>413</v>
       </c>
       <c r="D211" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="E211">
         <v>38841</v>
@@ -13104,19 +13737,22 @@
       <c r="P211">
         <v>71</v>
       </c>
-    </row>
-    <row r="212" spans="1:16">
+      <c r="Q211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:17">
       <c r="A212">
         <v>146</v>
       </c>
       <c r="B212" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C212">
         <v>414</v>
       </c>
       <c r="D212" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="E212">
         <v>36223</v>
@@ -13154,19 +13790,22 @@
       <c r="P212">
         <v>17</v>
       </c>
-    </row>
-    <row r="213" spans="1:16">
+      <c r="Q212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:17">
       <c r="A213">
         <v>145</v>
       </c>
       <c r="B213" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C213">
         <v>415</v>
       </c>
       <c r="D213" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="E213">
         <v>35516</v>
@@ -13204,19 +13843,22 @@
       <c r="P213">
         <v>18</v>
       </c>
-    </row>
-    <row r="214" spans="1:16">
+      <c r="Q213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:17">
       <c r="A214">
         <v>144</v>
       </c>
       <c r="B214" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C214">
         <v>416</v>
       </c>
       <c r="D214" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="E214">
         <v>36223</v>
@@ -13254,19 +13896,22 @@
       <c r="P214">
         <v>0</v>
       </c>
-    </row>
-    <row r="215" spans="1:16">
+      <c r="Q214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:17">
       <c r="A215">
         <v>143</v>
       </c>
       <c r="B215" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C215">
         <v>417</v>
       </c>
       <c r="D215" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="E215">
         <v>37654</v>
@@ -13304,19 +13949,22 @@
       <c r="P215">
         <v>36</v>
       </c>
-    </row>
-    <row r="216" spans="1:16">
+      <c r="Q215">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="216" spans="1:17">
       <c r="A216">
         <v>142</v>
       </c>
       <c r="B216" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C216">
         <v>418</v>
       </c>
       <c r="D216" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="E216">
         <v>37301</v>
@@ -13354,19 +14002,22 @@
       <c r="P216">
         <v>22</v>
       </c>
-    </row>
-    <row r="217" spans="1:16">
+      <c r="Q216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:17">
       <c r="A217">
         <v>141</v>
       </c>
       <c r="B217" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C217">
         <v>419</v>
       </c>
       <c r="D217" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="E217">
         <v>34198</v>
@@ -13404,19 +14055,22 @@
       <c r="P217">
         <v>87</v>
       </c>
-    </row>
-    <row r="218" spans="1:16">
+      <c r="Q217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:17">
       <c r="A218">
         <v>140</v>
       </c>
       <c r="B218" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C218">
         <v>420</v>
       </c>
       <c r="D218" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E218">
         <v>35276</v>
@@ -13454,19 +14108,22 @@
       <c r="P218">
         <v>1</v>
       </c>
-    </row>
-    <row r="219" spans="1:16">
+      <c r="Q218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:17">
       <c r="A219">
         <v>139</v>
       </c>
       <c r="B219" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C219">
         <v>421</v>
       </c>
       <c r="D219" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="E219">
         <v>31652</v>
@@ -13504,19 +14161,22 @@
       <c r="P219">
         <v>2</v>
       </c>
-    </row>
-    <row r="220" spans="1:16">
+      <c r="Q219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:17">
       <c r="A220">
         <v>138</v>
       </c>
       <c r="B220" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C220">
         <v>422</v>
       </c>
       <c r="D220" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="E220">
         <v>35376</v>
@@ -13554,19 +14214,22 @@
       <c r="P220">
         <v>7</v>
       </c>
-    </row>
-    <row r="221" spans="1:16">
+      <c r="Q220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:17">
       <c r="A221">
         <v>137</v>
       </c>
       <c r="B221" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C221">
         <v>423</v>
       </c>
       <c r="D221" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="E221">
         <v>35105</v>
@@ -13604,19 +14267,22 @@
       <c r="P221">
         <v>9</v>
       </c>
-    </row>
-    <row r="222" spans="1:16">
+      <c r="Q221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:17">
       <c r="A222">
         <v>136</v>
       </c>
       <c r="B222" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C222">
         <v>424</v>
       </c>
       <c r="D222" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="E222">
         <v>35815</v>
@@ -13654,19 +14320,22 @@
       <c r="P222">
         <v>243</v>
       </c>
-    </row>
-    <row r="223" spans="1:16">
+      <c r="Q222">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="223" spans="1:17">
       <c r="A223">
         <v>135</v>
       </c>
       <c r="B223" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C223">
         <v>425</v>
       </c>
       <c r="D223" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="E223">
         <v>34938</v>
@@ -13704,19 +14373,22 @@
       <c r="P223">
         <v>5</v>
       </c>
-    </row>
-    <row r="224" spans="1:16">
+      <c r="Q223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:17">
       <c r="A224">
         <v>134</v>
       </c>
       <c r="B224" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C224">
         <v>426</v>
       </c>
       <c r="D224" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="E224">
         <v>33965</v>
@@ -13754,19 +14426,22 @@
       <c r="P224">
         <v>16</v>
       </c>
-    </row>
-    <row r="225" spans="1:16">
+      <c r="Q224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:17">
       <c r="A225">
         <v>133</v>
       </c>
       <c r="B225" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C225">
         <v>427</v>
       </c>
       <c r="D225" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="E225">
         <v>38245</v>
@@ -13804,19 +14479,22 @@
       <c r="P225">
         <v>218</v>
       </c>
-    </row>
-    <row r="226" spans="1:16">
+      <c r="Q225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:17">
       <c r="A226">
         <v>132</v>
       </c>
       <c r="B226" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C226">
         <v>428</v>
       </c>
       <c r="D226" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="E226">
         <v>35617</v>
@@ -13854,19 +14532,22 @@
       <c r="P226">
         <v>202</v>
       </c>
-    </row>
-    <row r="227" spans="1:16">
+      <c r="Q226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:17">
       <c r="A227">
         <v>131</v>
       </c>
       <c r="B227" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C227">
         <v>429</v>
       </c>
       <c r="D227" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="E227">
         <v>35888</v>
@@ -13904,19 +14585,22 @@
       <c r="P227">
         <v>129</v>
       </c>
-    </row>
-    <row r="228" spans="1:16">
+      <c r="Q227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:17">
       <c r="A228">
         <v>130</v>
       </c>
       <c r="B228" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C228">
         <v>430</v>
       </c>
       <c r="D228" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="E228">
         <v>33549</v>
@@ -13954,19 +14638,22 @@
       <c r="P228">
         <v>40</v>
       </c>
-    </row>
-    <row r="229" spans="1:16">
+      <c r="Q228">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="229" spans="1:17">
       <c r="A229">
         <v>129</v>
       </c>
       <c r="B229" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C229">
         <v>431</v>
       </c>
       <c r="D229" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="E229">
         <v>33700</v>
@@ -14004,19 +14691,22 @@
       <c r="P229">
         <v>46</v>
       </c>
-    </row>
-    <row r="230" spans="1:16">
+      <c r="Q229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:17">
       <c r="A230">
         <v>128</v>
       </c>
       <c r="B230" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C230">
         <v>432</v>
       </c>
       <c r="D230" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="E230">
         <v>36737</v>
@@ -14054,19 +14744,22 @@
       <c r="P230">
         <v>21</v>
       </c>
-    </row>
-    <row r="231" spans="1:16">
+      <c r="Q230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:17">
       <c r="A231">
         <v>127</v>
       </c>
       <c r="B231" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C231">
         <v>433</v>
       </c>
       <c r="D231" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="E231">
         <v>34716</v>
@@ -14104,19 +14797,22 @@
       <c r="P231">
         <v>44</v>
       </c>
-    </row>
-    <row r="232" spans="1:16">
+      <c r="Q231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:17">
       <c r="A232">
         <v>126</v>
       </c>
       <c r="B232" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C232">
         <v>434</v>
       </c>
       <c r="D232" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="E232">
         <v>31241</v>
@@ -14154,19 +14850,22 @@
       <c r="P232">
         <v>20</v>
       </c>
-    </row>
-    <row r="233" spans="1:16">
+      <c r="Q232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:17">
       <c r="A233">
         <v>125</v>
       </c>
       <c r="B233" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C233">
         <v>435</v>
       </c>
       <c r="D233" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E233">
         <v>30214</v>
@@ -14204,19 +14903,22 @@
       <c r="P233">
         <v>2</v>
       </c>
-    </row>
-    <row r="234" spans="1:16">
+      <c r="Q233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:17">
       <c r="A234">
         <v>124</v>
       </c>
       <c r="B234" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C234">
         <v>436</v>
       </c>
       <c r="D234" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E234">
         <v>34281</v>
@@ -14254,19 +14956,22 @@
       <c r="P234">
         <v>603</v>
       </c>
-    </row>
-    <row r="235" spans="1:16">
+      <c r="Q234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:17">
       <c r="A235">
         <v>123</v>
       </c>
       <c r="B235" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C235">
         <v>437</v>
       </c>
       <c r="D235" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="E235">
         <v>33660</v>
@@ -14304,19 +15009,22 @@
       <c r="P235">
         <v>86</v>
       </c>
-    </row>
-    <row r="236" spans="1:16">
+      <c r="Q235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:17">
       <c r="A236">
         <v>122</v>
       </c>
       <c r="B236" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C236">
         <v>438</v>
       </c>
       <c r="D236" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E236">
         <v>35343</v>
@@ -14354,19 +15062,22 @@
       <c r="P236">
         <v>138</v>
       </c>
-    </row>
-    <row r="237" spans="1:16">
+      <c r="Q236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:17">
       <c r="A237">
         <v>121</v>
       </c>
       <c r="B237" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C237">
         <v>439</v>
       </c>
       <c r="D237" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E237">
         <v>31903</v>
@@ -14404,19 +15115,22 @@
       <c r="P237">
         <v>1</v>
       </c>
-    </row>
-    <row r="238" spans="1:16">
+      <c r="Q237">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="238" spans="1:17">
       <c r="A238">
         <v>120</v>
       </c>
       <c r="B238" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C238">
         <v>440</v>
       </c>
       <c r="D238" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="E238">
         <v>35724</v>
@@ -14454,19 +15168,22 @@
       <c r="P238">
         <v>102</v>
       </c>
-    </row>
-    <row r="239" spans="1:16">
+      <c r="Q238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:17">
       <c r="A239">
         <v>119</v>
       </c>
       <c r="B239" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C239">
         <v>441</v>
       </c>
       <c r="D239" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E239">
         <v>31191</v>
@@ -14504,19 +15221,22 @@
       <c r="P239">
         <v>7</v>
       </c>
-    </row>
-    <row r="240" spans="1:16">
+      <c r="Q239">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="240" spans="1:17">
       <c r="A240">
         <v>118</v>
       </c>
       <c r="B240" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C240">
         <v>442</v>
       </c>
       <c r="D240" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="E240">
         <v>32018</v>
@@ -14554,19 +15274,22 @@
       <c r="P240">
         <v>16</v>
       </c>
-    </row>
-    <row r="241" spans="1:16">
+      <c r="Q240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:17">
       <c r="A241">
         <v>117</v>
       </c>
       <c r="B241" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C241">
         <v>443</v>
       </c>
       <c r="D241" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="E241">
         <v>32733</v>
@@ -14604,19 +15327,22 @@
       <c r="P241">
         <v>7</v>
       </c>
-    </row>
-    <row r="242" spans="1:16">
+      <c r="Q241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:17">
       <c r="A242">
         <v>116</v>
       </c>
       <c r="B242" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C242">
         <v>444</v>
       </c>
       <c r="D242" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E242">
         <v>32734</v>
@@ -14654,19 +15380,22 @@
       <c r="P242">
         <v>22</v>
       </c>
-    </row>
-    <row r="243" spans="1:16">
+      <c r="Q242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:17">
       <c r="A243">
         <v>115</v>
       </c>
       <c r="B243" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C243">
         <v>445</v>
       </c>
       <c r="D243" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="E243">
         <v>30992</v>
@@ -14704,19 +15433,22 @@
       <c r="P243">
         <v>4</v>
       </c>
-    </row>
-    <row r="244" spans="1:16">
+      <c r="Q243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:17">
       <c r="A244">
         <v>114</v>
       </c>
       <c r="B244" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C244">
         <v>446</v>
       </c>
       <c r="D244" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="E244">
         <v>31962</v>
@@ -14754,19 +15486,22 @@
       <c r="P244">
         <v>424</v>
       </c>
-    </row>
-    <row r="245" spans="1:16">
+      <c r="Q244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:17">
       <c r="A245">
         <v>113</v>
       </c>
       <c r="B245" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C245">
         <v>447</v>
       </c>
       <c r="D245" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="E245">
         <v>32172</v>
@@ -14804,19 +15539,22 @@
       <c r="P245">
         <v>303</v>
       </c>
-    </row>
-    <row r="246" spans="1:16">
+      <c r="Q245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:17">
       <c r="A246">
         <v>112</v>
       </c>
       <c r="B246" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C246">
         <v>448</v>
       </c>
       <c r="D246" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="E246">
         <v>29237</v>
@@ -14854,19 +15592,22 @@
       <c r="P246">
         <v>55</v>
       </c>
-    </row>
-    <row r="247" spans="1:16">
+      <c r="Q246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:17">
       <c r="A247">
         <v>111</v>
       </c>
       <c r="B247" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C247">
         <v>449</v>
       </c>
       <c r="D247" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="E247">
         <v>27887</v>
@@ -14904,19 +15645,22 @@
       <c r="P247">
         <v>1</v>
       </c>
-    </row>
-    <row r="248" spans="1:16">
+      <c r="Q247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:17">
       <c r="A248">
         <v>110</v>
       </c>
       <c r="B248" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C248">
         <v>450</v>
       </c>
       <c r="D248" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="E248">
         <v>29147</v>
@@ -14954,19 +15698,22 @@
       <c r="P248">
         <v>29</v>
       </c>
-    </row>
-    <row r="249" spans="1:16">
+      <c r="Q248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:17">
       <c r="A249">
         <v>109</v>
       </c>
       <c r="B249" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C249">
         <v>451</v>
       </c>
       <c r="D249" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="E249">
         <v>29497</v>
@@ -15004,19 +15751,22 @@
       <c r="P249">
         <v>4</v>
       </c>
-    </row>
-    <row r="250" spans="1:16">
+      <c r="Q249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:17">
       <c r="A250">
         <v>108</v>
       </c>
       <c r="B250" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C250">
         <v>452</v>
       </c>
       <c r="D250" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="E250">
         <v>32142</v>
@@ -15054,19 +15804,22 @@
       <c r="P250">
         <v>0</v>
       </c>
-    </row>
-    <row r="251" spans="1:16">
+      <c r="Q250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:17">
       <c r="A251">
         <v>107</v>
       </c>
       <c r="B251" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C251">
         <v>453</v>
       </c>
       <c r="D251" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="E251">
         <v>33344</v>
@@ -15104,19 +15857,22 @@
       <c r="P251">
         <v>532</v>
       </c>
-    </row>
-    <row r="252" spans="1:16">
+      <c r="Q251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:17">
       <c r="A252">
         <v>106</v>
       </c>
       <c r="B252" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C252">
         <v>454</v>
       </c>
       <c r="D252" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="E252">
         <v>37309</v>
@@ -15154,19 +15910,22 @@
       <c r="P252">
         <v>0</v>
       </c>
-    </row>
-    <row r="253" spans="1:16">
+      <c r="Q252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:17">
       <c r="A253">
         <v>105</v>
       </c>
       <c r="B253" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C253">
         <v>455</v>
       </c>
       <c r="D253" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="E253">
         <v>33418</v>
@@ -15204,19 +15963,22 @@
       <c r="P253">
         <v>6</v>
       </c>
-    </row>
-    <row r="254" spans="1:16">
+      <c r="Q253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:17">
       <c r="A254">
         <v>104</v>
       </c>
       <c r="B254" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C254">
         <v>456</v>
       </c>
       <c r="D254" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="E254">
         <v>33102</v>
@@ -15254,19 +16016,22 @@
       <c r="P254">
         <v>282</v>
       </c>
-    </row>
-    <row r="255" spans="1:16">
+      <c r="Q254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:17">
       <c r="A255">
         <v>103</v>
       </c>
       <c r="B255" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C255">
         <v>457</v>
       </c>
       <c r="D255" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="E255">
         <v>35050</v>
@@ -15304,19 +16069,22 @@
       <c r="P255">
         <v>29</v>
       </c>
-    </row>
-    <row r="256" spans="1:16">
+      <c r="Q255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:17">
       <c r="A256">
         <v>102</v>
       </c>
       <c r="B256" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C256">
         <v>458</v>
       </c>
       <c r="D256" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="E256">
         <v>31277</v>
@@ -15354,19 +16122,22 @@
       <c r="P256">
         <v>113</v>
       </c>
-    </row>
-    <row r="257" spans="1:16">
+      <c r="Q256">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="257" spans="1:17">
       <c r="A257">
         <v>101</v>
       </c>
       <c r="B257" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C257">
         <v>459</v>
       </c>
       <c r="D257" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="E257">
         <v>31976</v>
@@ -15404,19 +16175,22 @@
       <c r="P257">
         <v>2</v>
       </c>
-    </row>
-    <row r="258" spans="1:16">
+      <c r="Q257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:17">
       <c r="A258">
         <v>100</v>
       </c>
       <c r="B258" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C258">
         <v>460</v>
       </c>
       <c r="D258" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="E258">
         <v>34455</v>
@@ -15454,19 +16228,22 @@
       <c r="P258">
         <v>34</v>
       </c>
-    </row>
-    <row r="259" spans="1:16">
+      <c r="Q258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:17">
       <c r="A259">
         <v>99</v>
       </c>
       <c r="B259" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C259">
         <v>461</v>
       </c>
       <c r="D259" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="E259">
         <v>31509</v>
@@ -15504,19 +16281,22 @@
       <c r="P259">
         <v>553</v>
       </c>
-    </row>
-    <row r="260" spans="1:16">
+      <c r="Q259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:17">
       <c r="A260">
         <v>98</v>
       </c>
       <c r="B260" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C260">
         <v>462</v>
       </c>
       <c r="D260" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="E260">
         <v>32777</v>
@@ -15554,19 +16334,22 @@
       <c r="P260">
         <v>23</v>
       </c>
-    </row>
-    <row r="261" spans="1:16">
+      <c r="Q260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:17">
       <c r="A261">
         <v>97</v>
       </c>
       <c r="B261" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C261">
         <v>463</v>
       </c>
       <c r="D261" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="E261">
         <v>28994</v>
@@ -15604,19 +16387,22 @@
       <c r="P261">
         <v>200</v>
       </c>
-    </row>
-    <row r="262" spans="1:16">
+      <c r="Q261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:17">
       <c r="A262">
         <v>96</v>
       </c>
       <c r="B262" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C262">
         <v>464</v>
       </c>
       <c r="D262" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="E262">
         <v>31706</v>
@@ -15654,19 +16440,22 @@
       <c r="P262">
         <v>29</v>
       </c>
-    </row>
-    <row r="263" spans="1:16">
+      <c r="Q262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:17">
       <c r="A263">
         <v>95</v>
       </c>
       <c r="B263" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C263">
         <v>465</v>
       </c>
       <c r="D263" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="E263">
         <v>30985</v>
@@ -15704,19 +16493,22 @@
       <c r="P263">
         <v>13</v>
       </c>
-    </row>
-    <row r="264" spans="1:16">
+      <c r="Q263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:17">
       <c r="A264">
         <v>94</v>
       </c>
       <c r="B264" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C264">
         <v>466</v>
       </c>
       <c r="D264" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="E264">
         <v>31355</v>
@@ -15754,19 +16546,22 @@
       <c r="P264">
         <v>19</v>
       </c>
-    </row>
-    <row r="265" spans="1:16">
+      <c r="Q264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:17">
       <c r="A265">
         <v>93</v>
       </c>
       <c r="B265" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C265">
         <v>467</v>
       </c>
       <c r="D265" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="E265">
         <v>30477</v>
@@ -15804,19 +16599,22 @@
       <c r="P265">
         <v>1</v>
       </c>
-    </row>
-    <row r="266" spans="1:16">
+      <c r="Q265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:17">
       <c r="A266">
         <v>92</v>
       </c>
       <c r="B266" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C266">
         <v>468</v>
       </c>
       <c r="D266" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="E266">
         <v>31223</v>
@@ -15854,19 +16652,22 @@
       <c r="P266">
         <v>94</v>
       </c>
-    </row>
-    <row r="267" spans="1:16">
+      <c r="Q266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:17">
       <c r="A267">
         <v>91</v>
       </c>
       <c r="B267" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C267">
         <v>469</v>
       </c>
       <c r="D267" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="E267">
         <v>28202</v>
@@ -15904,19 +16705,22 @@
       <c r="P267">
         <v>1315</v>
       </c>
-    </row>
-    <row r="268" spans="1:16">
+      <c r="Q267">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="268" spans="1:17">
       <c r="A268">
         <v>90</v>
       </c>
       <c r="B268" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C268">
         <v>470</v>
       </c>
       <c r="D268" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="E268">
         <v>30088</v>
@@ -15954,19 +16758,22 @@
       <c r="P268">
         <v>35</v>
       </c>
-    </row>
-    <row r="269" spans="1:16">
+      <c r="Q268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:17">
       <c r="A269">
         <v>89</v>
       </c>
       <c r="B269" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C269">
         <v>471</v>
       </c>
       <c r="D269" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="E269">
         <v>32288</v>
@@ -16004,19 +16811,22 @@
       <c r="P269">
         <v>37</v>
       </c>
-    </row>
-    <row r="270" spans="1:16">
+      <c r="Q269">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="270" spans="1:17">
       <c r="A270">
         <v>88</v>
       </c>
       <c r="B270" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C270">
         <v>472</v>
       </c>
       <c r="D270" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="E270">
         <v>32014</v>
@@ -16054,19 +16864,22 @@
       <c r="P270">
         <v>24</v>
       </c>
-    </row>
-    <row r="271" spans="1:16">
+      <c r="Q270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:17">
       <c r="A271">
         <v>87</v>
       </c>
       <c r="B271" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C271">
         <v>473</v>
       </c>
       <c r="D271" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="E271">
         <v>30935</v>
@@ -16104,19 +16917,22 @@
       <c r="P271">
         <v>0</v>
       </c>
-    </row>
-    <row r="272" spans="1:16">
+      <c r="Q271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:17">
       <c r="A272">
         <v>86</v>
       </c>
       <c r="B272" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C272">
         <v>474</v>
       </c>
       <c r="D272" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="E272">
         <v>32522</v>
@@ -16154,19 +16970,22 @@
       <c r="P272">
         <v>3</v>
       </c>
-    </row>
-    <row r="273" spans="1:16">
+      <c r="Q272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:17">
       <c r="A273">
         <v>85</v>
       </c>
       <c r="B273" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C273">
         <v>475</v>
       </c>
       <c r="D273" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="E273">
         <v>29026</v>
@@ -16204,19 +17023,22 @@
       <c r="P273">
         <v>18</v>
       </c>
-    </row>
-    <row r="274" spans="1:16">
+      <c r="Q273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:17">
       <c r="A274">
         <v>84</v>
       </c>
       <c r="B274" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C274">
         <v>476</v>
       </c>
       <c r="D274" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="E274">
         <v>26905</v>
@@ -16254,19 +17076,22 @@
       <c r="P274">
         <v>29</v>
       </c>
-    </row>
-    <row r="275" spans="1:16">
+      <c r="Q274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:17">
       <c r="A275">
         <v>83</v>
       </c>
       <c r="B275" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C275">
         <v>477</v>
       </c>
       <c r="D275" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="E275">
         <v>28408</v>
@@ -16304,19 +17129,22 @@
       <c r="P275">
         <v>2</v>
       </c>
-    </row>
-    <row r="276" spans="1:16">
+      <c r="Q275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:17">
       <c r="A276">
         <v>82</v>
       </c>
       <c r="B276" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C276">
         <v>478</v>
       </c>
       <c r="D276" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="E276">
         <v>26878</v>
@@ -16354,19 +17182,22 @@
       <c r="P276">
         <v>279</v>
       </c>
-    </row>
-    <row r="277" spans="1:16">
+      <c r="Q276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:17">
       <c r="A277">
         <v>81</v>
       </c>
       <c r="B277" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C277">
         <v>479</v>
       </c>
       <c r="D277" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="E277">
         <v>28575</v>
@@ -16404,19 +17235,22 @@
       <c r="P277">
         <v>39</v>
       </c>
-    </row>
-    <row r="278" spans="1:16">
+      <c r="Q277">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="278" spans="1:17">
       <c r="A278">
         <v>80</v>
       </c>
       <c r="B278" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C278">
         <v>480</v>
       </c>
       <c r="D278" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="E278">
         <v>29151</v>
@@ -16454,19 +17288,22 @@
       <c r="P278">
         <v>7</v>
       </c>
-    </row>
-    <row r="279" spans="1:16">
+      <c r="Q278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:17">
       <c r="A279">
         <v>79</v>
       </c>
       <c r="B279" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C279">
         <v>481</v>
       </c>
       <c r="D279" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="E279">
         <v>27197</v>
@@ -16504,19 +17341,22 @@
       <c r="P279">
         <v>646</v>
       </c>
-    </row>
-    <row r="280" spans="1:16">
+      <c r="Q279">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="280" spans="1:17">
       <c r="A280">
         <v>78</v>
       </c>
       <c r="B280" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C280">
         <v>482</v>
       </c>
       <c r="D280" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="E280">
         <v>28906</v>
@@ -16554,19 +17394,22 @@
       <c r="P280">
         <v>372</v>
       </c>
-    </row>
-    <row r="281" spans="1:16">
+      <c r="Q280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:17">
       <c r="A281">
         <v>77</v>
       </c>
       <c r="B281" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C281">
         <v>483</v>
       </c>
       <c r="D281" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="E281">
         <v>30403</v>
@@ -16604,19 +17447,22 @@
       <c r="P281">
         <v>428</v>
       </c>
-    </row>
-    <row r="282" spans="1:16">
+      <c r="Q281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:17">
       <c r="A282">
         <v>76</v>
       </c>
       <c r="B282" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C282">
         <v>484</v>
       </c>
       <c r="D282" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="E282">
         <v>30459</v>
@@ -16654,19 +17500,22 @@
       <c r="P282">
         <v>53</v>
       </c>
-    </row>
-    <row r="283" spans="1:16">
+      <c r="Q282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:17">
       <c r="A283">
         <v>75</v>
       </c>
       <c r="B283" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C283">
         <v>485</v>
       </c>
       <c r="D283" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="E283">
         <v>31269</v>
@@ -16704,19 +17553,22 @@
       <c r="P283">
         <v>3</v>
       </c>
-    </row>
-    <row r="284" spans="1:16">
+      <c r="Q283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:17">
       <c r="A284">
         <v>74</v>
       </c>
       <c r="B284" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C284">
         <v>486</v>
       </c>
       <c r="D284" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="E284">
         <v>28612</v>
@@ -16754,19 +17606,22 @@
       <c r="P284">
         <v>944</v>
       </c>
-    </row>
-    <row r="285" spans="1:16">
+      <c r="Q284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:17">
       <c r="A285">
         <v>73</v>
       </c>
       <c r="B285" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C285">
         <v>487</v>
       </c>
       <c r="D285" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="E285">
         <v>28322</v>
@@ -16804,19 +17659,22 @@
       <c r="P285">
         <v>4</v>
       </c>
-    </row>
-    <row r="286" spans="1:16">
+      <c r="Q285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:17">
       <c r="A286">
         <v>72</v>
       </c>
       <c r="B286" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C286">
         <v>488</v>
       </c>
       <c r="D286" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="E286">
         <v>28741</v>
@@ -16854,19 +17712,22 @@
       <c r="P286">
         <v>0</v>
       </c>
-    </row>
-    <row r="287" spans="1:16">
+      <c r="Q286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:17">
       <c r="A287">
         <v>71</v>
       </c>
       <c r="B287" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C287">
         <v>489</v>
       </c>
       <c r="D287" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="E287">
         <v>28637</v>
@@ -16904,19 +17765,22 @@
       <c r="P287">
         <v>55</v>
       </c>
-    </row>
-    <row r="288" spans="1:16">
+      <c r="Q287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:17">
       <c r="A288">
         <v>70</v>
       </c>
       <c r="B288" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C288">
         <v>490</v>
       </c>
       <c r="D288" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="E288">
         <v>29084</v>
@@ -16954,19 +17818,22 @@
       <c r="P288">
         <v>16</v>
       </c>
-    </row>
-    <row r="289" spans="1:16">
+      <c r="Q288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:17">
       <c r="A289">
         <v>69</v>
       </c>
       <c r="B289" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C289">
         <v>491</v>
       </c>
       <c r="D289" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="E289">
         <v>29279</v>
@@ -17004,19 +17871,22 @@
       <c r="P289">
         <v>31</v>
       </c>
-    </row>
-    <row r="290" spans="1:16">
+      <c r="Q289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:17">
       <c r="A290">
         <v>68</v>
       </c>
       <c r="B290" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C290">
         <v>492</v>
       </c>
       <c r="D290" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="E290">
         <v>28947</v>
@@ -17054,19 +17924,22 @@
       <c r="P290">
         <v>201</v>
       </c>
-    </row>
-    <row r="291" spans="1:16">
+      <c r="Q290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:17">
       <c r="A291">
         <v>67</v>
       </c>
       <c r="B291" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C291">
         <v>493</v>
       </c>
       <c r="D291" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="E291">
         <v>28953</v>
@@ -17104,19 +17977,22 @@
       <c r="P291">
         <v>16</v>
       </c>
-    </row>
-    <row r="292" spans="1:16">
+      <c r="Q291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:17">
       <c r="A292">
         <v>66</v>
       </c>
       <c r="B292" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C292">
         <v>494</v>
       </c>
       <c r="D292" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="E292">
         <v>30063</v>
@@ -17154,19 +18030,22 @@
       <c r="P292">
         <v>9</v>
       </c>
-    </row>
-    <row r="293" spans="1:16">
+      <c r="Q292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:17">
       <c r="A293">
         <v>65</v>
       </c>
       <c r="B293" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C293">
         <v>495</v>
       </c>
       <c r="D293" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="E293">
         <v>27609</v>
@@ -17204,19 +18083,22 @@
       <c r="P293">
         <v>581</v>
       </c>
-    </row>
-    <row r="294" spans="1:16">
+      <c r="Q293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:17">
       <c r="A294">
         <v>64</v>
       </c>
       <c r="B294" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C294">
         <v>496</v>
       </c>
       <c r="D294" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="E294">
         <v>27905</v>
@@ -17254,19 +18136,22 @@
       <c r="P294">
         <v>21</v>
       </c>
-    </row>
-    <row r="295" spans="1:16">
+      <c r="Q294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:17">
       <c r="A295">
         <v>63</v>
       </c>
       <c r="B295" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C295">
         <v>497</v>
       </c>
       <c r="D295" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E295">
         <v>25156</v>
@@ -17304,19 +18189,22 @@
       <c r="P295">
         <v>2</v>
       </c>
-    </row>
-    <row r="296" spans="1:16">
+      <c r="Q295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:17">
       <c r="A296">
         <v>62</v>
       </c>
       <c r="B296" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C296">
         <v>498</v>
       </c>
       <c r="D296" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="E296">
         <v>24672</v>
@@ -17354,19 +18242,22 @@
       <c r="P296">
         <v>7</v>
       </c>
-    </row>
-    <row r="297" spans="1:16">
+      <c r="Q296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:17">
       <c r="A297">
         <v>61</v>
       </c>
       <c r="B297" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C297">
         <v>499</v>
       </c>
       <c r="D297" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="E297">
         <v>26498</v>
@@ -17404,19 +18295,22 @@
       <c r="P297">
         <v>8</v>
       </c>
-    </row>
-    <row r="298" spans="1:16">
+      <c r="Q297">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="298" spans="1:17">
       <c r="A298">
         <v>60</v>
       </c>
       <c r="B298" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C298">
         <v>500</v>
       </c>
       <c r="D298" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="E298">
         <v>27502</v>
@@ -17454,19 +18348,22 @@
       <c r="P298">
         <v>3</v>
       </c>
-    </row>
-    <row r="299" spans="1:16">
+      <c r="Q298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:17">
       <c r="A299">
         <v>59</v>
       </c>
       <c r="B299" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C299">
         <v>501</v>
       </c>
       <c r="D299" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="E299">
         <v>27670</v>
@@ -17504,19 +18401,22 @@
       <c r="P299">
         <v>5</v>
       </c>
-    </row>
-    <row r="300" spans="1:16">
+      <c r="Q299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:17">
       <c r="A300">
         <v>58</v>
       </c>
       <c r="B300" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C300">
         <v>502</v>
       </c>
       <c r="D300" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="E300">
         <v>29554</v>
@@ -17554,19 +18454,22 @@
       <c r="P300">
         <v>104</v>
       </c>
-    </row>
-    <row r="301" spans="1:16">
+      <c r="Q300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:17">
       <c r="A301">
         <v>57</v>
       </c>
       <c r="B301" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C301">
         <v>503</v>
       </c>
       <c r="D301" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="E301">
         <v>27330</v>
@@ -17604,19 +18507,22 @@
       <c r="P301">
         <v>32</v>
       </c>
-    </row>
-    <row r="302" spans="1:16">
+      <c r="Q301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:17">
       <c r="A302">
         <v>56</v>
       </c>
       <c r="B302" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C302">
         <v>504</v>
       </c>
       <c r="D302" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="E302">
         <v>29743</v>
@@ -17654,19 +18560,22 @@
       <c r="P302">
         <v>351</v>
       </c>
-    </row>
-    <row r="303" spans="1:16">
+      <c r="Q302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:17">
       <c r="A303">
         <v>55</v>
       </c>
       <c r="B303" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C303">
         <v>505</v>
       </c>
       <c r="D303" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="E303">
         <v>31068</v>
@@ -17704,19 +18613,22 @@
       <c r="P303">
         <v>14</v>
       </c>
-    </row>
-    <row r="304" spans="1:16">
+      <c r="Q303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:17">
       <c r="A304">
         <v>54</v>
       </c>
       <c r="B304" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C304">
         <v>506</v>
       </c>
       <c r="D304" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="E304">
         <v>26096</v>
@@ -17754,19 +18666,22 @@
       <c r="P304">
         <v>985</v>
       </c>
-    </row>
-    <row r="305" spans="1:16">
+      <c r="Q304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:17">
       <c r="A305">
         <v>53</v>
       </c>
       <c r="B305" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C305">
         <v>507</v>
       </c>
       <c r="D305" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="E305">
         <v>27213</v>
@@ -17804,19 +18719,22 @@
       <c r="P305">
         <v>89</v>
       </c>
-    </row>
-    <row r="306" spans="1:16">
+      <c r="Q305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:17">
       <c r="A306">
         <v>52</v>
       </c>
       <c r="B306" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C306">
         <v>508</v>
       </c>
       <c r="D306" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="E306">
         <v>28984</v>
@@ -17854,19 +18772,22 @@
       <c r="P306">
         <v>8</v>
       </c>
-    </row>
-    <row r="307" spans="1:16">
+      <c r="Q306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:17">
       <c r="A307">
         <v>51</v>
       </c>
       <c r="B307" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C307">
         <v>509</v>
       </c>
       <c r="D307" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="E307">
         <v>27467</v>
@@ -17904,19 +18825,22 @@
       <c r="P307">
         <v>75</v>
       </c>
-    </row>
-    <row r="308" spans="1:16">
+      <c r="Q307">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="308" spans="1:17">
       <c r="A308">
         <v>50</v>
       </c>
       <c r="B308" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C308">
         <v>510</v>
       </c>
       <c r="D308" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="E308">
         <v>25993</v>
@@ -17954,19 +18878,22 @@
       <c r="P308">
         <v>9</v>
       </c>
-    </row>
-    <row r="309" spans="1:16">
+      <c r="Q308">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:17">
       <c r="A309">
         <v>49</v>
       </c>
       <c r="B309" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C309">
         <v>511</v>
       </c>
       <c r="D309" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="E309">
         <v>24660</v>
@@ -18004,19 +18931,22 @@
       <c r="P309">
         <v>12</v>
       </c>
-    </row>
-    <row r="310" spans="1:16">
+      <c r="Q309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:17">
       <c r="A310">
         <v>48</v>
       </c>
       <c r="B310" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C310">
         <v>512</v>
       </c>
       <c r="D310" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="E310">
         <v>25085</v>
@@ -18054,19 +18984,22 @@
       <c r="P310">
         <v>2</v>
       </c>
-    </row>
-    <row r="311" spans="1:16">
+      <c r="Q310">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:17">
       <c r="A311">
         <v>47</v>
       </c>
       <c r="B311" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C311">
         <v>513</v>
       </c>
       <c r="D311" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="E311">
         <v>26536</v>
@@ -18104,19 +19037,22 @@
       <c r="P311">
         <v>11</v>
       </c>
-    </row>
-    <row r="312" spans="1:16">
+      <c r="Q311">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:17">
       <c r="A312">
         <v>46</v>
       </c>
       <c r="B312" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C312">
         <v>514</v>
       </c>
       <c r="D312" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="E312">
         <v>27475</v>
@@ -18154,19 +19090,22 @@
       <c r="P312">
         <v>18</v>
       </c>
-    </row>
-    <row r="313" spans="1:16">
+      <c r="Q312">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:17">
       <c r="A313">
         <v>45</v>
       </c>
       <c r="B313" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C313">
         <v>515</v>
       </c>
       <c r="D313" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="E313">
         <v>25576</v>
@@ -18204,19 +19143,22 @@
       <c r="P313">
         <v>24</v>
       </c>
-    </row>
-    <row r="314" spans="1:16">
+      <c r="Q313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:17">
       <c r="A314">
         <v>44</v>
       </c>
       <c r="B314" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C314">
         <v>516</v>
       </c>
       <c r="D314" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="E314">
         <v>27465</v>
@@ -18254,19 +19196,22 @@
       <c r="P314">
         <v>7923</v>
       </c>
-    </row>
-    <row r="315" spans="1:16">
+      <c r="Q314">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="315" spans="1:17">
       <c r="A315">
         <v>43</v>
       </c>
       <c r="B315" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C315">
         <v>517</v>
       </c>
       <c r="D315" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="E315">
         <v>29208</v>
@@ -18304,19 +19249,22 @@
       <c r="P315">
         <v>0</v>
       </c>
-    </row>
-    <row r="316" spans="1:16">
+      <c r="Q315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:17">
       <c r="A316">
         <v>42</v>
       </c>
       <c r="B316" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C316">
         <v>518</v>
       </c>
       <c r="D316" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="E316">
         <v>24749</v>
@@ -18354,19 +19302,22 @@
       <c r="P316">
         <v>41</v>
       </c>
-    </row>
-    <row r="317" spans="1:16">
+      <c r="Q316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:17">
       <c r="A317">
         <v>41</v>
       </c>
       <c r="B317" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C317">
         <v>519</v>
       </c>
       <c r="D317" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="E317">
         <v>24991</v>
@@ -18404,19 +19355,22 @@
       <c r="P317">
         <v>116</v>
       </c>
-    </row>
-    <row r="318" spans="1:16">
+      <c r="Q317">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:17">
       <c r="A318">
         <v>40</v>
       </c>
       <c r="B318" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C318">
         <v>520</v>
       </c>
       <c r="D318" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="E318">
         <v>24288</v>
@@ -18454,19 +19408,22 @@
       <c r="P318">
         <v>3</v>
       </c>
-    </row>
-    <row r="319" spans="1:16">
+      <c r="Q318">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:17">
       <c r="A319">
         <v>39</v>
       </c>
       <c r="B319" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C319">
         <v>521</v>
       </c>
       <c r="D319" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="E319">
         <v>27437</v>
@@ -18504,19 +19461,22 @@
       <c r="P319">
         <v>94</v>
       </c>
-    </row>
-    <row r="320" spans="1:16">
+      <c r="Q319">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:17">
       <c r="A320">
         <v>38</v>
       </c>
       <c r="B320" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C320">
         <v>522</v>
       </c>
       <c r="D320" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="E320">
         <v>26663</v>
@@ -18554,19 +19514,22 @@
       <c r="P320">
         <v>452</v>
       </c>
-    </row>
-    <row r="321" spans="1:16">
+      <c r="Q320">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:17">
       <c r="A321">
         <v>37</v>
       </c>
       <c r="B321" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C321">
         <v>523</v>
       </c>
       <c r="D321" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="E321">
         <v>27705</v>
@@ -18604,19 +19567,22 @@
       <c r="P321">
         <v>165</v>
       </c>
-    </row>
-    <row r="322" spans="1:16">
+      <c r="Q321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:17">
       <c r="A322">
         <v>36</v>
       </c>
       <c r="B322" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C322">
         <v>524</v>
       </c>
       <c r="D322" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="E322">
         <v>24197</v>
@@ -18654,19 +19620,22 @@
       <c r="P322">
         <v>0</v>
       </c>
-    </row>
-    <row r="323" spans="1:16">
+      <c r="Q322">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:17">
       <c r="A323">
         <v>34</v>
       </c>
       <c r="B323" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C323">
         <v>526</v>
       </c>
       <c r="D323" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="E323">
         <v>25206</v>
@@ -18704,19 +19673,22 @@
       <c r="P323">
         <v>707</v>
       </c>
-    </row>
-    <row r="324" spans="1:16">
+      <c r="Q323">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="324" spans="1:17">
       <c r="A324">
         <v>33</v>
       </c>
       <c r="B324" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C324">
         <v>527</v>
       </c>
       <c r="D324" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="E324">
         <v>26051</v>
@@ -18754,19 +19726,22 @@
       <c r="P324">
         <v>8</v>
       </c>
-    </row>
-    <row r="325" spans="1:16">
+      <c r="Q324">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:17">
       <c r="A325">
         <v>32</v>
       </c>
       <c r="B325" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C325">
         <v>528</v>
       </c>
       <c r="D325" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="E325">
         <v>23739</v>
@@ -18804,19 +19779,22 @@
       <c r="P325">
         <v>27</v>
       </c>
-    </row>
-    <row r="326" spans="1:16">
+      <c r="Q325">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="326" spans="1:17">
       <c r="A326">
         <v>31</v>
       </c>
       <c r="B326" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C326">
         <v>529</v>
       </c>
       <c r="D326" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="E326">
         <v>2569</v>
@@ -18854,19 +19832,22 @@
       <c r="P326">
         <v>783</v>
       </c>
-    </row>
-    <row r="327" spans="1:16">
+      <c r="Q326">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:17">
       <c r="A327">
         <v>30</v>
       </c>
       <c r="B327" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C327">
         <v>530</v>
       </c>
       <c r="D327" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="E327">
         <v>22628</v>
@@ -18904,19 +19885,22 @@
       <c r="P327">
         <v>10</v>
       </c>
-    </row>
-    <row r="328" spans="1:16">
+      <c r="Q327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:17">
       <c r="A328">
         <v>29</v>
       </c>
       <c r="B328" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C328">
         <v>531</v>
       </c>
       <c r="D328" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="E328">
         <v>24646</v>
@@ -18954,19 +19938,22 @@
       <c r="P328">
         <v>40</v>
       </c>
-    </row>
-    <row r="329" spans="1:16">
+      <c r="Q328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:17">
       <c r="A329">
         <v>28</v>
       </c>
       <c r="B329" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C329">
         <v>532</v>
       </c>
       <c r="D329" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="E329">
         <v>23873</v>
@@ -19004,19 +19991,22 @@
       <c r="P329">
         <v>21</v>
       </c>
-    </row>
-    <row r="330" spans="1:16">
+      <c r="Q329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:17">
       <c r="A330">
         <v>27</v>
       </c>
       <c r="B330" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C330">
         <v>533</v>
       </c>
       <c r="D330" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="E330">
         <v>25577</v>
@@ -19054,19 +20044,22 @@
       <c r="P330">
         <v>17</v>
       </c>
-    </row>
-    <row r="331" spans="1:16">
+      <c r="Q330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:17">
       <c r="A331">
         <v>26</v>
       </c>
       <c r="B331" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C331">
         <v>534</v>
       </c>
       <c r="D331" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="E331">
         <v>23153</v>
@@ -19104,19 +20097,22 @@
       <c r="P331">
         <v>58</v>
       </c>
-    </row>
-    <row r="332" spans="1:16">
+      <c r="Q331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:17">
       <c r="A332">
         <v>25</v>
       </c>
       <c r="B332" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C332">
         <v>535</v>
       </c>
       <c r="D332" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="E332">
         <v>23509</v>
@@ -19154,19 +20150,22 @@
       <c r="P332">
         <v>27</v>
       </c>
-    </row>
-    <row r="333" spans="1:16">
+      <c r="Q332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:17">
       <c r="A333">
         <v>24</v>
       </c>
       <c r="B333" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C333">
         <v>536</v>
       </c>
       <c r="D333" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="E333">
         <v>24899</v>
@@ -19204,19 +20203,22 @@
       <c r="P333">
         <v>3</v>
       </c>
-    </row>
-    <row r="334" spans="1:16">
+      <c r="Q333">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:17">
       <c r="A334">
         <v>23</v>
       </c>
       <c r="B334" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C334">
         <v>537</v>
       </c>
       <c r="D334" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="E334">
         <v>21199</v>
@@ -19254,19 +20256,22 @@
       <c r="P334">
         <v>59</v>
       </c>
-    </row>
-    <row r="335" spans="1:16">
+      <c r="Q334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:17">
       <c r="A335">
         <v>22</v>
       </c>
       <c r="B335" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C335">
         <v>538</v>
       </c>
       <c r="D335" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="E335">
         <v>23640</v>
@@ -19304,19 +20309,22 @@
       <c r="P335">
         <v>4</v>
       </c>
-    </row>
-    <row r="336" spans="1:16">
+      <c r="Q335">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:17">
       <c r="A336">
         <v>21</v>
       </c>
       <c r="B336" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C336">
         <v>539</v>
       </c>
       <c r="D336" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="E336">
         <v>21157</v>
@@ -19354,19 +20362,22 @@
       <c r="P336">
         <v>100</v>
       </c>
-    </row>
-    <row r="337" spans="1:16">
+      <c r="Q336">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:17">
       <c r="A337">
         <v>20</v>
       </c>
       <c r="B337" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C337">
         <v>540</v>
       </c>
       <c r="D337" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="E337">
         <v>21947</v>
@@ -19404,19 +20415,22 @@
       <c r="P337">
         <v>0</v>
       </c>
-    </row>
-    <row r="338" spans="1:16">
+      <c r="Q337">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:17">
       <c r="A338">
         <v>19</v>
       </c>
       <c r="B338" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C338">
         <v>541</v>
       </c>
       <c r="D338" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="E338">
         <v>22873</v>
@@ -19454,19 +20468,22 @@
       <c r="P338">
         <v>886</v>
       </c>
-    </row>
-    <row r="339" spans="1:16">
+      <c r="Q338">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="339" spans="1:17">
       <c r="A339">
         <v>18</v>
       </c>
       <c r="B339" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C339">
         <v>542</v>
       </c>
       <c r="D339" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="E339">
         <v>24101</v>
@@ -19504,19 +20521,22 @@
       <c r="P339">
         <v>709</v>
       </c>
-    </row>
-    <row r="340" spans="1:16">
+      <c r="Q339">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:17">
       <c r="A340">
         <v>17</v>
       </c>
       <c r="B340" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C340">
         <v>543</v>
       </c>
       <c r="D340" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="E340">
         <v>20824</v>
@@ -19554,19 +20574,22 @@
       <c r="P340">
         <v>329</v>
       </c>
-    </row>
-    <row r="341" spans="1:16">
+      <c r="Q340">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="341" spans="1:17">
       <c r="A341">
         <v>16</v>
       </c>
       <c r="B341" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C341">
         <v>544</v>
       </c>
       <c r="D341" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="E341">
         <v>22176</v>
@@ -19604,19 +20627,22 @@
       <c r="P341">
         <v>58</v>
       </c>
-    </row>
-    <row r="342" spans="1:16">
+      <c r="Q341">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:17">
       <c r="A342">
         <v>14</v>
       </c>
       <c r="B342" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C342">
         <v>546</v>
       </c>
       <c r="D342" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="E342">
         <v>22336</v>
@@ -19654,19 +20680,22 @@
       <c r="P342">
         <v>20</v>
       </c>
-    </row>
-    <row r="343" spans="1:16">
+      <c r="Q342">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:17">
       <c r="A343">
         <v>13</v>
       </c>
       <c r="B343" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C343">
         <v>547</v>
       </c>
       <c r="D343" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="E343">
         <v>22166</v>
@@ -19704,19 +20733,22 @@
       <c r="P343">
         <v>9</v>
       </c>
-    </row>
-    <row r="344" spans="1:16">
+      <c r="Q343">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:17">
       <c r="A344">
         <v>12</v>
       </c>
       <c r="B344" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C344">
         <v>548</v>
       </c>
       <c r="D344" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="E344">
         <v>26010</v>
@@ -19754,19 +20786,22 @@
       <c r="P344">
         <v>20</v>
       </c>
-    </row>
-    <row r="345" spans="1:16">
+      <c r="Q344">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:17">
       <c r="A345">
         <v>11</v>
       </c>
       <c r="B345" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C345">
         <v>549</v>
       </c>
       <c r="D345" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="E345">
         <v>24137</v>
@@ -19804,19 +20839,22 @@
       <c r="P345">
         <v>632</v>
       </c>
-    </row>
-    <row r="346" spans="1:16">
+      <c r="Q345">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="346" spans="1:17">
       <c r="A346">
         <v>10</v>
       </c>
       <c r="B346" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C346">
         <v>550</v>
       </c>
       <c r="D346" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="E346">
         <v>22180</v>
@@ -19854,19 +20892,22 @@
       <c r="P346">
         <v>20</v>
       </c>
-    </row>
-    <row r="347" spans="1:16">
+      <c r="Q346">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:17">
       <c r="A347">
         <v>9</v>
       </c>
       <c r="B347" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C347">
         <v>551</v>
       </c>
       <c r="D347" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="E347">
         <v>20490</v>
@@ -19904,19 +20945,22 @@
       <c r="P347">
         <v>20</v>
       </c>
-    </row>
-    <row r="348" spans="1:16">
+      <c r="Q347">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:17">
       <c r="A348">
         <v>8</v>
       </c>
       <c r="B348" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C348">
         <v>552</v>
       </c>
       <c r="D348" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="E348">
         <v>21937</v>
@@ -19954,19 +20998,22 @@
       <c r="P348">
         <v>7</v>
       </c>
-    </row>
-    <row r="349" spans="1:16">
+      <c r="Q348">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:17">
       <c r="A349">
         <v>7</v>
       </c>
       <c r="B349" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C349">
         <v>553</v>
       </c>
       <c r="D349" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="E349">
         <v>20281</v>
@@ -20004,19 +21051,22 @@
       <c r="P349">
         <v>26</v>
       </c>
-    </row>
-    <row r="350" spans="1:16">
+      <c r="Q349">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:17">
       <c r="A350">
         <v>6</v>
       </c>
       <c r="B350" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C350">
         <v>554</v>
       </c>
       <c r="D350" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="E350">
         <v>15554</v>
@@ -20054,19 +21104,22 @@
       <c r="P350">
         <v>121</v>
       </c>
-    </row>
-    <row r="351" spans="1:16">
+      <c r="Q350">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="351" spans="1:17">
       <c r="A351">
         <v>5</v>
       </c>
       <c r="B351" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C351">
         <v>555</v>
       </c>
       <c r="D351" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="E351">
         <v>20011</v>
@@ -20104,19 +21157,22 @@
       <c r="P351">
         <v>435</v>
       </c>
-    </row>
-    <row r="352" spans="1:16">
+      <c r="Q351">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:17">
       <c r="A352">
         <v>4</v>
       </c>
       <c r="B352" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C352">
         <v>556</v>
       </c>
       <c r="D352" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="E352">
         <v>20879</v>
@@ -20154,19 +21210,22 @@
       <c r="P352">
         <v>0</v>
       </c>
-    </row>
-    <row r="353" spans="1:16">
+      <c r="Q352">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:17">
       <c r="A353">
         <v>3</v>
       </c>
       <c r="B353" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C353">
         <v>557</v>
       </c>
       <c r="D353" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="E353">
         <v>20160</v>
@@ -20204,19 +21263,22 @@
       <c r="P353">
         <v>23</v>
       </c>
-    </row>
-    <row r="354" spans="1:16">
+      <c r="Q353">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:17">
       <c r="A354">
         <v>2</v>
       </c>
       <c r="B354" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C354">
         <v>558</v>
       </c>
       <c r="D354" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="E354">
         <v>20001</v>
@@ -20254,19 +21316,22 @@
       <c r="P354">
         <v>10</v>
       </c>
-    </row>
-    <row r="355" spans="1:16">
+      <c r="Q354">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:17">
       <c r="A355">
         <v>1</v>
       </c>
       <c r="B355" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C355">
         <v>559</v>
       </c>
       <c r="D355" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="E355">
         <v>21204</v>
@@ -20304,19 +21369,22 @@
       <c r="P355">
         <v>1</v>
       </c>
-    </row>
-    <row r="356" spans="1:16">
+      <c r="Q355">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:17">
       <c r="A356">
         <v>0</v>
       </c>
       <c r="B356" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C356">
         <v>560</v>
       </c>
       <c r="D356" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="E356">
         <v>20380</v>
@@ -20353,6 +21421,9 @@
       </c>
       <c r="P356">
         <v>35</v>
+      </c>
+      <c r="Q356">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/xk/excel/Problem_C_Data_Wordle.xlsx
+++ b/xk/excel/Problem_C_Data_Wordle.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P356"/>
+  <dimension ref="A1:R356"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -451,6 +451,12 @@
       <c r="P1" t="str">
         <v>characters</v>
       </c>
+      <c r="Q1" t="str">
+        <v>AgglomerativeClustering_cluster</v>
+      </c>
+      <c r="R1" t="str">
+        <v>root</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -501,6 +507,12 @@
       <c r="P2" t="str">
         <v>0</v>
       </c>
+      <c r="Q2" t="str">
+        <v>1</v>
+      </c>
+      <c r="R2" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -551,6 +563,12 @@
       <c r="P3" t="str">
         <v>0</v>
       </c>
+      <c r="Q3" t="str">
+        <v>1</v>
+      </c>
+      <c r="R3" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -601,6 +619,12 @@
       <c r="P4" t="str">
         <v>0</v>
       </c>
+      <c r="Q4" t="str">
+        <v>2</v>
+      </c>
+      <c r="R4" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -651,6 +675,12 @@
       <c r="P5" t="str">
         <v>0</v>
       </c>
+      <c r="Q5" t="str">
+        <v>1</v>
+      </c>
+      <c r="R5" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -701,6 +731,12 @@
       <c r="P6" t="str">
         <v>0</v>
       </c>
+      <c r="Q6" t="str">
+        <v>1</v>
+      </c>
+      <c r="R6" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -751,6 +787,12 @@
       <c r="P7" t="str">
         <v>0</v>
       </c>
+      <c r="Q7" t="str">
+        <v>2</v>
+      </c>
+      <c r="R7" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -801,6 +843,12 @@
       <c r="P8" t="str">
         <v>0</v>
       </c>
+      <c r="Q8" t="str">
+        <v>1</v>
+      </c>
+      <c r="R8" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -851,6 +899,12 @@
       <c r="P9" t="str">
         <v>0</v>
       </c>
+      <c r="Q9" t="str">
+        <v>1</v>
+      </c>
+      <c r="R9" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -901,6 +955,12 @@
       <c r="P10" t="str">
         <v>0</v>
       </c>
+      <c r="Q10" t="str">
+        <v>1</v>
+      </c>
+      <c r="R10" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -951,6 +1011,12 @@
       <c r="P11" t="str">
         <v>0</v>
       </c>
+      <c r="Q11" t="str">
+        <v>1</v>
+      </c>
+      <c r="R11" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -1001,6 +1067,12 @@
       <c r="P12" t="str">
         <v>0</v>
       </c>
+      <c r="Q12" t="str">
+        <v>1</v>
+      </c>
+      <c r="R12" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -1051,6 +1123,12 @@
       <c r="P13" t="str">
         <v>0</v>
       </c>
+      <c r="Q13" t="str">
+        <v>1</v>
+      </c>
+      <c r="R13" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -1101,6 +1179,12 @@
       <c r="P14" t="str">
         <v>0</v>
       </c>
+      <c r="Q14" t="str">
+        <v>2</v>
+      </c>
+      <c r="R14" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -1151,6 +1235,12 @@
       <c r="P15" t="str">
         <v>0</v>
       </c>
+      <c r="Q15" t="str">
+        <v>1</v>
+      </c>
+      <c r="R15" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -1201,6 +1291,12 @@
       <c r="P16" t="str">
         <v>0</v>
       </c>
+      <c r="Q16" t="str">
+        <v>1</v>
+      </c>
+      <c r="R16" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -1251,6 +1347,12 @@
       <c r="P17" t="str">
         <v>0</v>
       </c>
+      <c r="Q17" t="str">
+        <v>1</v>
+      </c>
+      <c r="R17" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -1301,6 +1403,12 @@
       <c r="P18" t="str">
         <v>0</v>
       </c>
+      <c r="Q18" t="str">
+        <v>2</v>
+      </c>
+      <c r="R18" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -1351,6 +1459,12 @@
       <c r="P19" t="str">
         <v>0</v>
       </c>
+      <c r="Q19" t="str">
+        <v>1</v>
+      </c>
+      <c r="R19" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -1401,6 +1515,12 @@
       <c r="P20" t="str">
         <v>0</v>
       </c>
+      <c r="Q20" t="str">
+        <v>1</v>
+      </c>
+      <c r="R20" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -1451,6 +1571,12 @@
       <c r="P21" t="str">
         <v>0</v>
       </c>
+      <c r="Q21" t="str">
+        <v>1</v>
+      </c>
+      <c r="R21" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -1501,6 +1627,12 @@
       <c r="P22" t="str">
         <v>0</v>
       </c>
+      <c r="Q22" t="str">
+        <v>1</v>
+      </c>
+      <c r="R22" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
@@ -1551,6 +1683,12 @@
       <c r="P23" t="str">
         <v>1</v>
       </c>
+      <c r="Q23" t="str">
+        <v>0</v>
+      </c>
+      <c r="R23" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
@@ -1601,6 +1739,12 @@
       <c r="P24" t="str">
         <v>0</v>
       </c>
+      <c r="Q24" t="str">
+        <v>1</v>
+      </c>
+      <c r="R24" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
@@ -1651,6 +1795,12 @@
       <c r="P25" t="str">
         <v>0</v>
       </c>
+      <c r="Q25" t="str">
+        <v>1</v>
+      </c>
+      <c r="R25" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
@@ -1701,6 +1851,12 @@
       <c r="P26" t="str">
         <v>2</v>
       </c>
+      <c r="Q26" t="str">
+        <v>0</v>
+      </c>
+      <c r="R26" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
@@ -1751,6 +1907,12 @@
       <c r="P27" t="str">
         <v>0</v>
       </c>
+      <c r="Q27" t="str">
+        <v>1</v>
+      </c>
+      <c r="R27" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
@@ -1801,6 +1963,12 @@
       <c r="P28" t="str">
         <v>0</v>
       </c>
+      <c r="Q28" t="str">
+        <v>1</v>
+      </c>
+      <c r="R28" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
@@ -1851,6 +2019,12 @@
       <c r="P29" t="str">
         <v>0</v>
       </c>
+      <c r="Q29" t="str">
+        <v>1</v>
+      </c>
+      <c r="R29" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
@@ -1901,6 +2075,12 @@
       <c r="P30" t="str">
         <v>3</v>
       </c>
+      <c r="Q30" t="str">
+        <v>0</v>
+      </c>
+      <c r="R30" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
@@ -1951,6 +2131,12 @@
       <c r="P31" t="str">
         <v>0</v>
       </c>
+      <c r="Q31" t="str">
+        <v>2</v>
+      </c>
+      <c r="R31" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
@@ -2001,6 +2187,12 @@
       <c r="P32" t="str">
         <v>0</v>
       </c>
+      <c r="Q32" t="str">
+        <v>2</v>
+      </c>
+      <c r="R32" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
@@ -2051,6 +2243,12 @@
       <c r="P33" t="str">
         <v>0</v>
       </c>
+      <c r="Q33" t="str">
+        <v>1</v>
+      </c>
+      <c r="R33" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
@@ -2101,6 +2299,12 @@
       <c r="P34" t="str">
         <v>0</v>
       </c>
+      <c r="Q34" t="str">
+        <v>1</v>
+      </c>
+      <c r="R34" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
@@ -2151,6 +2355,12 @@
       <c r="P35" t="str">
         <v>0</v>
       </c>
+      <c r="Q35" t="str">
+        <v>1</v>
+      </c>
+      <c r="R35" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
@@ -2201,6 +2411,12 @@
       <c r="P36" t="str">
         <v>0</v>
       </c>
+      <c r="Q36" t="str">
+        <v>1</v>
+      </c>
+      <c r="R36" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
@@ -2251,6 +2467,12 @@
       <c r="P37" t="str">
         <v>4</v>
       </c>
+      <c r="Q37" t="str">
+        <v>0</v>
+      </c>
+      <c r="R37" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
@@ -2301,6 +2523,12 @@
       <c r="P38" t="str">
         <v>0</v>
       </c>
+      <c r="Q38" t="str">
+        <v>1</v>
+      </c>
+      <c r="R38" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
@@ -2351,6 +2579,12 @@
       <c r="P39" t="str">
         <v>0</v>
       </c>
+      <c r="Q39" t="str">
+        <v>2</v>
+      </c>
+      <c r="R39" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
@@ -2401,6 +2635,12 @@
       <c r="P40" t="str">
         <v>0</v>
       </c>
+      <c r="Q40" t="str">
+        <v>2</v>
+      </c>
+      <c r="R40" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
@@ -2451,6 +2691,12 @@
       <c r="P41" t="str">
         <v>0</v>
       </c>
+      <c r="Q41" t="str">
+        <v>1</v>
+      </c>
+      <c r="R41" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
@@ -2501,6 +2747,12 @@
       <c r="P42" t="str">
         <v>0</v>
       </c>
+      <c r="Q42" t="str">
+        <v>1</v>
+      </c>
+      <c r="R42" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
@@ -2551,6 +2803,12 @@
       <c r="P43" t="str">
         <v>0</v>
       </c>
+      <c r="Q43" t="str">
+        <v>2</v>
+      </c>
+      <c r="R43" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
@@ -2601,6 +2859,12 @@
       <c r="P44" t="str">
         <v>0</v>
       </c>
+      <c r="Q44" t="str">
+        <v>2</v>
+      </c>
+      <c r="R44" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
@@ -2651,6 +2915,12 @@
       <c r="P45" t="str">
         <v>0</v>
       </c>
+      <c r="Q45" t="str">
+        <v>2</v>
+      </c>
+      <c r="R45" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
@@ -2701,6 +2971,12 @@
       <c r="P46" t="str">
         <v>4</v>
       </c>
+      <c r="Q46" t="str">
+        <v>0</v>
+      </c>
+      <c r="R46" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
@@ -2751,6 +3027,12 @@
       <c r="P47" t="str">
         <v>0</v>
       </c>
+      <c r="Q47" t="str">
+        <v>1</v>
+      </c>
+      <c r="R47" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
@@ -2801,6 +3083,12 @@
       <c r="P48" t="str">
         <v>0</v>
       </c>
+      <c r="Q48" t="str">
+        <v>1</v>
+      </c>
+      <c r="R48" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
@@ -2851,6 +3139,12 @@
       <c r="P49" t="str">
         <v>0</v>
       </c>
+      <c r="Q49" t="str">
+        <v>1</v>
+      </c>
+      <c r="R49" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
@@ -2901,6 +3195,12 @@
       <c r="P50" t="str">
         <v>0</v>
       </c>
+      <c r="Q50" t="str">
+        <v>2</v>
+      </c>
+      <c r="R50" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
@@ -2951,6 +3251,12 @@
       <c r="P51" t="str">
         <v>0</v>
       </c>
+      <c r="Q51" t="str">
+        <v>2</v>
+      </c>
+      <c r="R51" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
@@ -3001,6 +3307,12 @@
       <c r="P52" t="str">
         <v>0</v>
       </c>
+      <c r="Q52" t="str">
+        <v>1</v>
+      </c>
+      <c r="R52" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
@@ -3051,6 +3363,12 @@
       <c r="P53" t="str">
         <v>0</v>
       </c>
+      <c r="Q53" t="str">
+        <v>1</v>
+      </c>
+      <c r="R53" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
@@ -3101,6 +3419,12 @@
       <c r="P54" t="str">
         <v>0</v>
       </c>
+      <c r="Q54" t="str">
+        <v>2</v>
+      </c>
+      <c r="R54" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
@@ -3151,6 +3475,12 @@
       <c r="P55" t="str">
         <v>4</v>
       </c>
+      <c r="Q55" t="str">
+        <v>0</v>
+      </c>
+      <c r="R55" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
@@ -3201,6 +3531,12 @@
       <c r="P56" t="str">
         <v>0</v>
       </c>
+      <c r="Q56" t="str">
+        <v>1</v>
+      </c>
+      <c r="R56" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
@@ -3251,6 +3587,12 @@
       <c r="P57" t="str">
         <v>3</v>
       </c>
+      <c r="Q57" t="str">
+        <v>0</v>
+      </c>
+      <c r="R57" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
@@ -3301,6 +3643,12 @@
       <c r="P58" t="str">
         <v>0</v>
       </c>
+      <c r="Q58" t="str">
+        <v>1</v>
+      </c>
+      <c r="R58" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
@@ -3351,6 +3699,12 @@
       <c r="P59" t="str">
         <v>0</v>
       </c>
+      <c r="Q59" t="str">
+        <v>1</v>
+      </c>
+      <c r="R59" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
@@ -3401,6 +3755,12 @@
       <c r="P60" t="str">
         <v>0</v>
       </c>
+      <c r="Q60" t="str">
+        <v>1</v>
+      </c>
+      <c r="R60" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
@@ -3451,6 +3811,12 @@
       <c r="P61" t="str">
         <v>0</v>
       </c>
+      <c r="Q61" t="str">
+        <v>2</v>
+      </c>
+      <c r="R61" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
@@ -3501,6 +3867,12 @@
       <c r="P62" t="str">
         <v>0</v>
       </c>
+      <c r="Q62" t="str">
+        <v>1</v>
+      </c>
+      <c r="R62" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
@@ -3551,6 +3923,12 @@
       <c r="P63" t="str">
         <v>0</v>
       </c>
+      <c r="Q63" t="str">
+        <v>1</v>
+      </c>
+      <c r="R63" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
@@ -3601,6 +3979,12 @@
       <c r="P64" t="str">
         <v>0</v>
       </c>
+      <c r="Q64" t="str">
+        <v>1</v>
+      </c>
+      <c r="R64" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
@@ -3651,6 +4035,12 @@
       <c r="P65" t="str">
         <v>0</v>
       </c>
+      <c r="Q65" t="str">
+        <v>1</v>
+      </c>
+      <c r="R65" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
@@ -3701,6 +4091,12 @@
       <c r="P66" t="str">
         <v>0</v>
       </c>
+      <c r="Q66" t="str">
+        <v>1</v>
+      </c>
+      <c r="R66" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
@@ -3751,6 +4147,12 @@
       <c r="P67" t="str">
         <v>0</v>
       </c>
+      <c r="Q67" t="str">
+        <v>1</v>
+      </c>
+      <c r="R67" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
@@ -3801,6 +4203,12 @@
       <c r="P68" t="str">
         <v>0</v>
       </c>
+      <c r="Q68" t="str">
+        <v>2</v>
+      </c>
+      <c r="R68" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
@@ -3851,6 +4259,12 @@
       <c r="P69" t="str">
         <v>0</v>
       </c>
+      <c r="Q69" t="str">
+        <v>1</v>
+      </c>
+      <c r="R69" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
@@ -3901,6 +4315,12 @@
       <c r="P70" t="str">
         <v>0</v>
       </c>
+      <c r="Q70" t="str">
+        <v>1</v>
+      </c>
+      <c r="R70" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
@@ -3951,6 +4371,12 @@
       <c r="P71" t="str">
         <v>0</v>
       </c>
+      <c r="Q71" t="str">
+        <v>1</v>
+      </c>
+      <c r="R71" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
@@ -4001,6 +4427,12 @@
       <c r="P72" t="str">
         <v>5</v>
       </c>
+      <c r="Q72" t="str">
+        <v>0</v>
+      </c>
+      <c r="R72" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
@@ -4051,6 +4483,12 @@
       <c r="P73" t="str">
         <v>0</v>
       </c>
+      <c r="Q73" t="str">
+        <v>2</v>
+      </c>
+      <c r="R73" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
@@ -4101,6 +4539,12 @@
       <c r="P74" t="str">
         <v>6</v>
       </c>
+      <c r="Q74" t="str">
+        <v>0</v>
+      </c>
+      <c r="R74" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
@@ -4151,6 +4595,12 @@
       <c r="P75" t="str">
         <v>0</v>
       </c>
+      <c r="Q75" t="str">
+        <v>2</v>
+      </c>
+      <c r="R75" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
@@ -4201,6 +4651,12 @@
       <c r="P76" t="str">
         <v>0</v>
       </c>
+      <c r="Q76" t="str">
+        <v>1</v>
+      </c>
+      <c r="R76" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
@@ -4251,6 +4707,12 @@
       <c r="P77" t="str">
         <v>0</v>
       </c>
+      <c r="Q77" t="str">
+        <v>1</v>
+      </c>
+      <c r="R77" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
@@ -4301,6 +4763,12 @@
       <c r="P78" t="str">
         <v>0</v>
       </c>
+      <c r="Q78" t="str">
+        <v>1</v>
+      </c>
+      <c r="R78" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
@@ -4351,6 +4819,12 @@
       <c r="P79" t="str">
         <v>0</v>
       </c>
+      <c r="Q79" t="str">
+        <v>1</v>
+      </c>
+      <c r="R79" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
@@ -4401,6 +4875,12 @@
       <c r="P80" t="str">
         <v>0</v>
       </c>
+      <c r="Q80" t="str">
+        <v>1</v>
+      </c>
+      <c r="R80" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
@@ -4451,6 +4931,12 @@
       <c r="P81" t="str">
         <v>0</v>
       </c>
+      <c r="Q81" t="str">
+        <v>0</v>
+      </c>
+      <c r="R81" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
@@ -4501,6 +4987,12 @@
       <c r="P82" t="str">
         <v>1</v>
       </c>
+      <c r="Q82" t="str">
+        <v>0</v>
+      </c>
+      <c r="R82" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
@@ -4551,6 +5043,12 @@
       <c r="P83" t="str">
         <v>0</v>
       </c>
+      <c r="Q83" t="str">
+        <v>1</v>
+      </c>
+      <c r="R83" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
@@ -4601,6 +5099,12 @@
       <c r="P84" t="str">
         <v>3</v>
       </c>
+      <c r="Q84" t="str">
+        <v>0</v>
+      </c>
+      <c r="R84" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
@@ -4651,6 +5155,12 @@
       <c r="P85" t="str">
         <v>0</v>
       </c>
+      <c r="Q85" t="str">
+        <v>1</v>
+      </c>
+      <c r="R85" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
@@ -4701,6 +5211,12 @@
       <c r="P86" t="str">
         <v>0</v>
       </c>
+      <c r="Q86" t="str">
+        <v>1</v>
+      </c>
+      <c r="R86" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
@@ -4751,6 +5267,12 @@
       <c r="P87" t="str">
         <v>7</v>
       </c>
+      <c r="Q87" t="str">
+        <v>0</v>
+      </c>
+      <c r="R87" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
@@ -4801,6 +5323,12 @@
       <c r="P88" t="str">
         <v>0</v>
       </c>
+      <c r="Q88" t="str">
+        <v>1</v>
+      </c>
+      <c r="R88" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
@@ -4851,6 +5379,12 @@
       <c r="P89" t="str">
         <v>4</v>
       </c>
+      <c r="Q89" t="str">
+        <v>0</v>
+      </c>
+      <c r="R89" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
@@ -4901,6 +5435,12 @@
       <c r="P90" t="str">
         <v>0</v>
       </c>
+      <c r="Q90" t="str">
+        <v>2</v>
+      </c>
+      <c r="R90" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
@@ -4951,6 +5491,12 @@
       <c r="P91" t="str">
         <v>0</v>
       </c>
+      <c r="Q91" t="str">
+        <v>1</v>
+      </c>
+      <c r="R91" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
@@ -5001,6 +5547,12 @@
       <c r="P92" t="str">
         <v>0</v>
       </c>
+      <c r="Q92" t="str">
+        <v>1</v>
+      </c>
+      <c r="R92" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
@@ -5051,6 +5603,12 @@
       <c r="P93" t="str">
         <v>0</v>
       </c>
+      <c r="Q93" t="str">
+        <v>1</v>
+      </c>
+      <c r="R93" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
@@ -5101,6 +5659,12 @@
       <c r="P94" t="str">
         <v>4</v>
       </c>
+      <c r="Q94" t="str">
+        <v>0</v>
+      </c>
+      <c r="R94" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
@@ -5151,6 +5715,12 @@
       <c r="P95" t="str">
         <v>0</v>
       </c>
+      <c r="Q95" t="str">
+        <v>1</v>
+      </c>
+      <c r="R95" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
@@ -5201,6 +5771,12 @@
       <c r="P96" t="str">
         <v>0</v>
       </c>
+      <c r="Q96" t="str">
+        <v>1</v>
+      </c>
+      <c r="R96" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
@@ -5251,6 +5827,12 @@
       <c r="P97" t="str">
         <v>0</v>
       </c>
+      <c r="Q97" t="str">
+        <v>1</v>
+      </c>
+      <c r="R97" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
@@ -5301,6 +5883,12 @@
       <c r="P98" t="str">
         <v>0</v>
       </c>
+      <c r="Q98" t="str">
+        <v>1</v>
+      </c>
+      <c r="R98" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
@@ -5351,6 +5939,12 @@
       <c r="P99" t="str">
         <v>0</v>
       </c>
+      <c r="Q99" t="str">
+        <v>1</v>
+      </c>
+      <c r="R99" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
@@ -5401,6 +5995,12 @@
       <c r="P100" t="str">
         <v>0</v>
       </c>
+      <c r="Q100" t="str">
+        <v>2</v>
+      </c>
+      <c r="R100" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
@@ -5451,6 +6051,12 @@
       <c r="P101" t="str">
         <v>0</v>
       </c>
+      <c r="Q101" t="str">
+        <v>1</v>
+      </c>
+      <c r="R101" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
@@ -5501,6 +6107,12 @@
       <c r="P102" t="str">
         <v>0</v>
       </c>
+      <c r="Q102" t="str">
+        <v>1</v>
+      </c>
+      <c r="R102" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
@@ -5551,6 +6163,12 @@
       <c r="P103" t="str">
         <v>0</v>
       </c>
+      <c r="Q103" t="str">
+        <v>1</v>
+      </c>
+      <c r="R103" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
@@ -5601,6 +6219,12 @@
       <c r="P104" t="str">
         <v>0</v>
       </c>
+      <c r="Q104" t="str">
+        <v>1</v>
+      </c>
+      <c r="R104" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
@@ -5651,6 +6275,12 @@
       <c r="P105" t="str">
         <v>0</v>
       </c>
+      <c r="Q105" t="str">
+        <v>1</v>
+      </c>
+      <c r="R105" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
@@ -5701,6 +6331,12 @@
       <c r="P106" t="str">
         <v>0</v>
       </c>
+      <c r="Q106" t="str">
+        <v>1</v>
+      </c>
+      <c r="R106" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
@@ -5751,6 +6387,12 @@
       <c r="P107" t="str">
         <v>4</v>
       </c>
+      <c r="Q107" t="str">
+        <v>0</v>
+      </c>
+      <c r="R107" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
@@ -5801,6 +6443,12 @@
       <c r="P108" t="str">
         <v>0</v>
       </c>
+      <c r="Q108" t="str">
+        <v>1</v>
+      </c>
+      <c r="R108" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
@@ -5851,6 +6499,12 @@
       <c r="P109" t="str">
         <v>0</v>
       </c>
+      <c r="Q109" t="str">
+        <v>1</v>
+      </c>
+      <c r="R109" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
@@ -5901,6 +6555,12 @@
       <c r="P110" t="str">
         <v>0</v>
       </c>
+      <c r="Q110" t="str">
+        <v>1</v>
+      </c>
+      <c r="R110" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
@@ -5951,6 +6611,12 @@
       <c r="P111" t="str">
         <v>8</v>
       </c>
+      <c r="Q111" t="str">
+        <v>0</v>
+      </c>
+      <c r="R111" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
@@ -6001,6 +6667,12 @@
       <c r="P112" t="str">
         <v>0</v>
       </c>
+      <c r="Q112" t="str">
+        <v>1</v>
+      </c>
+      <c r="R112" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
@@ -6051,6 +6723,12 @@
       <c r="P113" t="str">
         <v>0</v>
       </c>
+      <c r="Q113" t="str">
+        <v>2</v>
+      </c>
+      <c r="R113" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
@@ -6101,6 +6779,12 @@
       <c r="P114" t="str">
         <v>0</v>
       </c>
+      <c r="Q114" t="str">
+        <v>2</v>
+      </c>
+      <c r="R114" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
@@ -6151,6 +6835,12 @@
       <c r="P115" t="str">
         <v>0</v>
       </c>
+      <c r="Q115" t="str">
+        <v>1</v>
+      </c>
+      <c r="R115" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
@@ -6201,6 +6891,12 @@
       <c r="P116" t="str">
         <v>0</v>
       </c>
+      <c r="Q116" t="str">
+        <v>1</v>
+      </c>
+      <c r="R116" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
@@ -6251,6 +6947,12 @@
       <c r="P117" t="str">
         <v>0</v>
       </c>
+      <c r="Q117" t="str">
+        <v>1</v>
+      </c>
+      <c r="R117" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
@@ -6301,6 +7003,12 @@
       <c r="P118" t="str">
         <v>0</v>
       </c>
+      <c r="Q118" t="str">
+        <v>1</v>
+      </c>
+      <c r="R118" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
@@ -6351,6 +7059,12 @@
       <c r="P119" t="str">
         <v>0</v>
       </c>
+      <c r="Q119" t="str">
+        <v>1</v>
+      </c>
+      <c r="R119" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
@@ -6401,6 +7115,12 @@
       <c r="P120" t="str">
         <v>0</v>
       </c>
+      <c r="Q120" t="str">
+        <v>1</v>
+      </c>
+      <c r="R120" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
@@ -6451,6 +7171,12 @@
       <c r="P121" t="str">
         <v>0</v>
       </c>
+      <c r="Q121" t="str">
+        <v>2</v>
+      </c>
+      <c r="R121" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
@@ -6501,6 +7227,12 @@
       <c r="P122" t="str">
         <v>0</v>
       </c>
+      <c r="Q122" t="str">
+        <v>1</v>
+      </c>
+      <c r="R122" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
@@ -6551,6 +7283,12 @@
       <c r="P123" t="str">
         <v>0</v>
       </c>
+      <c r="Q123" t="str">
+        <v>1</v>
+      </c>
+      <c r="R123" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
@@ -6601,6 +7339,12 @@
       <c r="P124" t="str">
         <v>0</v>
       </c>
+      <c r="Q124" t="str">
+        <v>1</v>
+      </c>
+      <c r="R124" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
@@ -6651,6 +7395,12 @@
       <c r="P125" t="str">
         <v>0</v>
       </c>
+      <c r="Q125" t="str">
+        <v>1</v>
+      </c>
+      <c r="R125" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
@@ -6701,6 +7451,12 @@
       <c r="P126" t="str">
         <v>0</v>
       </c>
+      <c r="Q126" t="str">
+        <v>1</v>
+      </c>
+      <c r="R126" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
@@ -6751,6 +7507,12 @@
       <c r="P127" t="str">
         <v>0</v>
       </c>
+      <c r="Q127" t="str">
+        <v>1</v>
+      </c>
+      <c r="R127" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
@@ -6801,6 +7563,12 @@
       <c r="P128" t="str">
         <v>0</v>
       </c>
+      <c r="Q128" t="str">
+        <v>1</v>
+      </c>
+      <c r="R128" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
@@ -6851,6 +7619,12 @@
       <c r="P129" t="str">
         <v>0</v>
       </c>
+      <c r="Q129" t="str">
+        <v>2</v>
+      </c>
+      <c r="R129" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
@@ -6901,6 +7675,12 @@
       <c r="P130" t="str">
         <v>9</v>
       </c>
+      <c r="Q130" t="str">
+        <v>0</v>
+      </c>
+      <c r="R130" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
@@ -6951,6 +7731,12 @@
       <c r="P131" t="str">
         <v>0</v>
       </c>
+      <c r="Q131" t="str">
+        <v>1</v>
+      </c>
+      <c r="R131" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
@@ -7001,6 +7787,12 @@
       <c r="P132" t="str">
         <v>0</v>
       </c>
+      <c r="Q132" t="str">
+        <v>2</v>
+      </c>
+      <c r="R132" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
@@ -7051,6 +7843,12 @@
       <c r="P133" t="str">
         <v>0</v>
       </c>
+      <c r="Q133" t="str">
+        <v>1</v>
+      </c>
+      <c r="R133" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
@@ -7101,6 +7899,12 @@
       <c r="P134" t="str">
         <v>0</v>
       </c>
+      <c r="Q134" t="str">
+        <v>1</v>
+      </c>
+      <c r="R134" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
@@ -7151,6 +7955,12 @@
       <c r="P135" t="str">
         <v>0</v>
       </c>
+      <c r="Q135" t="str">
+        <v>1</v>
+      </c>
+      <c r="R135" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
@@ -7201,6 +8011,12 @@
       <c r="P136" t="str">
         <v>0</v>
       </c>
+      <c r="Q136" t="str">
+        <v>1</v>
+      </c>
+      <c r="R136" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
@@ -7251,6 +8067,12 @@
       <c r="P137" t="str">
         <v>0</v>
       </c>
+      <c r="Q137" t="str">
+        <v>1</v>
+      </c>
+      <c r="R137" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
@@ -7301,6 +8123,12 @@
       <c r="P138" t="str">
         <v>4</v>
       </c>
+      <c r="Q138" t="str">
+        <v>0</v>
+      </c>
+      <c r="R138" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
@@ -7351,6 +8179,12 @@
       <c r="P139" t="str">
         <v>0</v>
       </c>
+      <c r="Q139" t="str">
+        <v>2</v>
+      </c>
+      <c r="R139" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
@@ -7401,6 +8235,12 @@
       <c r="P140" t="str">
         <v>0</v>
       </c>
+      <c r="Q140" t="str">
+        <v>2</v>
+      </c>
+      <c r="R140" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
@@ -7451,6 +8291,12 @@
       <c r="P141" t="str">
         <v>0</v>
       </c>
+      <c r="Q141" t="str">
+        <v>1</v>
+      </c>
+      <c r="R141" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
@@ -7501,6 +8347,12 @@
       <c r="P142" t="str">
         <v>0</v>
       </c>
+      <c r="Q142" t="str">
+        <v>1</v>
+      </c>
+      <c r="R142" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
@@ -7551,6 +8403,12 @@
       <c r="P143" t="str">
         <v>0</v>
       </c>
+      <c r="Q143" t="str">
+        <v>2</v>
+      </c>
+      <c r="R143" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
@@ -7601,6 +8459,12 @@
       <c r="P144" t="str">
         <v>0</v>
       </c>
+      <c r="Q144" t="str">
+        <v>1</v>
+      </c>
+      <c r="R144" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
@@ -7651,6 +8515,12 @@
       <c r="P145" t="str">
         <v>0</v>
       </c>
+      <c r="Q145" t="str">
+        <v>1</v>
+      </c>
+      <c r="R145" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
@@ -7701,6 +8571,12 @@
       <c r="P146" t="str">
         <v>0</v>
       </c>
+      <c r="Q146" t="str">
+        <v>1</v>
+      </c>
+      <c r="R146" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
@@ -7751,6 +8627,12 @@
       <c r="P147" t="str">
         <v>0</v>
       </c>
+      <c r="Q147" t="str">
+        <v>1</v>
+      </c>
+      <c r="R147" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
@@ -7801,6 +8683,12 @@
       <c r="P148" t="str">
         <v>0</v>
       </c>
+      <c r="Q148" t="str">
+        <v>1</v>
+      </c>
+      <c r="R148" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
@@ -7851,6 +8739,12 @@
       <c r="P149" t="str">
         <v>0</v>
       </c>
+      <c r="Q149" t="str">
+        <v>1</v>
+      </c>
+      <c r="R149" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
@@ -7901,6 +8795,12 @@
       <c r="P150" t="str">
         <v>0</v>
       </c>
+      <c r="Q150" t="str">
+        <v>2</v>
+      </c>
+      <c r="R150" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
@@ -7951,6 +8851,12 @@
       <c r="P151" t="str">
         <v>0</v>
       </c>
+      <c r="Q151" t="str">
+        <v>2</v>
+      </c>
+      <c r="R151" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
@@ -8001,6 +8907,12 @@
       <c r="P152" t="str">
         <v>0</v>
       </c>
+      <c r="Q152" t="str">
+        <v>2</v>
+      </c>
+      <c r="R152" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
@@ -8051,6 +8963,12 @@
       <c r="P153" t="str">
         <v>0</v>
       </c>
+      <c r="Q153" t="str">
+        <v>1</v>
+      </c>
+      <c r="R153" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
@@ -8101,6 +9019,12 @@
       <c r="P154" t="str">
         <v>0</v>
       </c>
+      <c r="Q154" t="str">
+        <v>1</v>
+      </c>
+      <c r="R154" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
@@ -8151,6 +9075,12 @@
       <c r="P155" t="str">
         <v>0</v>
       </c>
+      <c r="Q155" t="str">
+        <v>2</v>
+      </c>
+      <c r="R155" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
@@ -8201,6 +9131,12 @@
       <c r="P156" t="str">
         <v>0</v>
       </c>
+      <c r="Q156" t="str">
+        <v>1</v>
+      </c>
+      <c r="R156" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
@@ -8251,6 +9187,12 @@
       <c r="P157" t="str">
         <v>0</v>
       </c>
+      <c r="Q157" t="str">
+        <v>2</v>
+      </c>
+      <c r="R157" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
@@ -8301,6 +9243,12 @@
       <c r="P158" t="str">
         <v>0</v>
       </c>
+      <c r="Q158" t="str">
+        <v>1</v>
+      </c>
+      <c r="R158" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
@@ -8351,6 +9299,12 @@
       <c r="P159" t="str">
         <v>0</v>
       </c>
+      <c r="Q159" t="str">
+        <v>1</v>
+      </c>
+      <c r="R159" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
@@ -8401,6 +9355,12 @@
       <c r="P160" t="str">
         <v>0</v>
       </c>
+      <c r="Q160" t="str">
+        <v>1</v>
+      </c>
+      <c r="R160" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
@@ -8451,6 +9411,12 @@
       <c r="P161" t="str">
         <v>0</v>
       </c>
+      <c r="Q161" t="str">
+        <v>1</v>
+      </c>
+      <c r="R161" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
@@ -8501,6 +9467,12 @@
       <c r="P162" t="str">
         <v>0</v>
       </c>
+      <c r="Q162" t="str">
+        <v>2</v>
+      </c>
+      <c r="R162" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
@@ -8551,6 +9523,12 @@
       <c r="P163" t="str">
         <v>0</v>
       </c>
+      <c r="Q163" t="str">
+        <v>1</v>
+      </c>
+      <c r="R163" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
@@ -8601,6 +9579,12 @@
       <c r="P164" t="str">
         <v>0</v>
       </c>
+      <c r="Q164" t="str">
+        <v>1</v>
+      </c>
+      <c r="R164" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
@@ -8651,6 +9635,12 @@
       <c r="P165" t="str">
         <v>0</v>
       </c>
+      <c r="Q165" t="str">
+        <v>1</v>
+      </c>
+      <c r="R165" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
@@ -8701,6 +9691,12 @@
       <c r="P166" t="str">
         <v>0</v>
       </c>
+      <c r="Q166" t="str">
+        <v>1</v>
+      </c>
+      <c r="R166" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
@@ -8751,6 +9747,12 @@
       <c r="P167" t="str">
         <v>0</v>
       </c>
+      <c r="Q167" t="str">
+        <v>1</v>
+      </c>
+      <c r="R167" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
@@ -8801,6 +9803,12 @@
       <c r="P168" t="str">
         <v>0</v>
       </c>
+      <c r="Q168" t="str">
+        <v>1</v>
+      </c>
+      <c r="R168" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
@@ -8851,6 +9859,12 @@
       <c r="P169" t="str">
         <v>0</v>
       </c>
+      <c r="Q169" t="str">
+        <v>1</v>
+      </c>
+      <c r="R169" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
@@ -8901,6 +9915,12 @@
       <c r="P170" t="str">
         <v>0</v>
       </c>
+      <c r="Q170" t="str">
+        <v>1</v>
+      </c>
+      <c r="R170" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="str">
@@ -8951,6 +9971,12 @@
       <c r="P171" t="str">
         <v>0</v>
       </c>
+      <c r="Q171" t="str">
+        <v>2</v>
+      </c>
+      <c r="R171" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="str">
@@ -9001,6 +10027,12 @@
       <c r="P172" t="str">
         <v>0</v>
       </c>
+      <c r="Q172" t="str">
+        <v>2</v>
+      </c>
+      <c r="R172" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="str">
@@ -9051,6 +10083,12 @@
       <c r="P173" t="str">
         <v>0</v>
       </c>
+      <c r="Q173" t="str">
+        <v>1</v>
+      </c>
+      <c r="R173" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="str">
@@ -9101,6 +10139,12 @@
       <c r="P174" t="str">
         <v>0</v>
       </c>
+      <c r="Q174" t="str">
+        <v>2</v>
+      </c>
+      <c r="R174" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="str">
@@ -9151,6 +10195,12 @@
       <c r="P175" t="str">
         <v>0</v>
       </c>
+      <c r="Q175" t="str">
+        <v>1</v>
+      </c>
+      <c r="R175" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="str">
@@ -9201,6 +10251,12 @@
       <c r="P176" t="str">
         <v>0</v>
       </c>
+      <c r="Q176" t="str">
+        <v>2</v>
+      </c>
+      <c r="R176" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="str">
@@ -9251,6 +10307,12 @@
       <c r="P177" t="str">
         <v>0</v>
       </c>
+      <c r="Q177" t="str">
+        <v>2</v>
+      </c>
+      <c r="R177" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="str">
@@ -9301,6 +10363,12 @@
       <c r="P178" t="str">
         <v>0</v>
       </c>
+      <c r="Q178" t="str">
+        <v>2</v>
+      </c>
+      <c r="R178" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="str">
@@ -9351,6 +10419,12 @@
       <c r="P179" t="str">
         <v>0</v>
       </c>
+      <c r="Q179" t="str">
+        <v>1</v>
+      </c>
+      <c r="R179" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="str">
@@ -9401,6 +10475,12 @@
       <c r="P180" t="str">
         <v>0</v>
       </c>
+      <c r="Q180" t="str">
+        <v>2</v>
+      </c>
+      <c r="R180" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="str">
@@ -9451,6 +10531,12 @@
       <c r="P181" t="str">
         <v>0</v>
       </c>
+      <c r="Q181" t="str">
+        <v>2</v>
+      </c>
+      <c r="R181" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="str">
@@ -9501,6 +10587,12 @@
       <c r="P182" t="str">
         <v>0</v>
       </c>
+      <c r="Q182" t="str">
+        <v>1</v>
+      </c>
+      <c r="R182" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="str">
@@ -9551,6 +10643,12 @@
       <c r="P183" t="str">
         <v>0</v>
       </c>
+      <c r="Q183" t="str">
+        <v>1</v>
+      </c>
+      <c r="R183" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="str">
@@ -9601,6 +10699,12 @@
       <c r="P184" t="str">
         <v>0</v>
       </c>
+      <c r="Q184" t="str">
+        <v>1</v>
+      </c>
+      <c r="R184" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="str">
@@ -9651,6 +10755,12 @@
       <c r="P185" t="str">
         <v>0</v>
       </c>
+      <c r="Q185" t="str">
+        <v>2</v>
+      </c>
+      <c r="R185" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="str">
@@ -9701,6 +10811,12 @@
       <c r="P186" t="str">
         <v>0</v>
       </c>
+      <c r="Q186" t="str">
+        <v>1</v>
+      </c>
+      <c r="R186" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="str">
@@ -9751,6 +10867,12 @@
       <c r="P187" t="str">
         <v>0</v>
       </c>
+      <c r="Q187" t="str">
+        <v>1</v>
+      </c>
+      <c r="R187" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="str">
@@ -9801,6 +10923,12 @@
       <c r="P188" t="str">
         <v>0</v>
       </c>
+      <c r="Q188" t="str">
+        <v>1</v>
+      </c>
+      <c r="R188" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="str">
@@ -9851,6 +10979,12 @@
       <c r="P189" t="str">
         <v>0</v>
       </c>
+      <c r="Q189" t="str">
+        <v>2</v>
+      </c>
+      <c r="R189" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="str">
@@ -9901,6 +11035,12 @@
       <c r="P190" t="str">
         <v>0</v>
       </c>
+      <c r="Q190" t="str">
+        <v>2</v>
+      </c>
+      <c r="R190" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="str">
@@ -9951,6 +11091,12 @@
       <c r="P191" t="str">
         <v>0</v>
       </c>
+      <c r="Q191" t="str">
+        <v>1</v>
+      </c>
+      <c r="R191" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="str">
@@ -10001,6 +11147,12 @@
       <c r="P192" t="str">
         <v>0</v>
       </c>
+      <c r="Q192" t="str">
+        <v>1</v>
+      </c>
+      <c r="R192" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="str">
@@ -10051,6 +11203,12 @@
       <c r="P193" t="str">
         <v>4</v>
       </c>
+      <c r="Q193" t="str">
+        <v>0</v>
+      </c>
+      <c r="R193" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="str">
@@ -10101,6 +11259,12 @@
       <c r="P194" t="str">
         <v>0</v>
       </c>
+      <c r="Q194" t="str">
+        <v>2</v>
+      </c>
+      <c r="R194" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="str">
@@ -10151,6 +11315,12 @@
       <c r="P195" t="str">
         <v>0</v>
       </c>
+      <c r="Q195" t="str">
+        <v>1</v>
+      </c>
+      <c r="R195" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="str">
@@ -10201,6 +11371,12 @@
       <c r="P196" t="str">
         <v>0</v>
       </c>
+      <c r="Q196" t="str">
+        <v>2</v>
+      </c>
+      <c r="R196" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="str">
@@ -10251,6 +11427,12 @@
       <c r="P197" t="str">
         <v>0</v>
       </c>
+      <c r="Q197" t="str">
+        <v>1</v>
+      </c>
+      <c r="R197" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="str">
@@ -10301,6 +11483,12 @@
       <c r="P198" t="str">
         <v>0</v>
       </c>
+      <c r="Q198" t="str">
+        <v>1</v>
+      </c>
+      <c r="R198" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="str">
@@ -10351,6 +11539,12 @@
       <c r="P199" t="str">
         <v>0</v>
       </c>
+      <c r="Q199" t="str">
+        <v>2</v>
+      </c>
+      <c r="R199" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="str">
@@ -10401,6 +11595,12 @@
       <c r="P200" t="str">
         <v>0</v>
       </c>
+      <c r="Q200" t="str">
+        <v>2</v>
+      </c>
+      <c r="R200" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="str">
@@ -10451,6 +11651,12 @@
       <c r="P201" t="str">
         <v>0</v>
       </c>
+      <c r="Q201" t="str">
+        <v>2</v>
+      </c>
+      <c r="R201" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="str">
@@ -10501,6 +11707,12 @@
       <c r="P202" t="str">
         <v>0</v>
       </c>
+      <c r="Q202" t="str">
+        <v>1</v>
+      </c>
+      <c r="R202" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="str">
@@ -10551,6 +11763,12 @@
       <c r="P203" t="str">
         <v>0</v>
       </c>
+      <c r="Q203" t="str">
+        <v>1</v>
+      </c>
+      <c r="R203" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="str">
@@ -10601,6 +11819,12 @@
       <c r="P204" t="str">
         <v>0</v>
       </c>
+      <c r="Q204" t="str">
+        <v>2</v>
+      </c>
+      <c r="R204" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="str">
@@ -10651,6 +11875,12 @@
       <c r="P205" t="str">
         <v>0</v>
       </c>
+      <c r="Q205" t="str">
+        <v>1</v>
+      </c>
+      <c r="R205" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="str">
@@ -10701,6 +11931,12 @@
       <c r="P206" t="str">
         <v>0</v>
       </c>
+      <c r="Q206" t="str">
+        <v>1</v>
+      </c>
+      <c r="R206" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="str">
@@ -10751,6 +11987,12 @@
       <c r="P207" t="str">
         <v>0</v>
       </c>
+      <c r="Q207" t="str">
+        <v>2</v>
+      </c>
+      <c r="R207" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="str">
@@ -10801,6 +12043,12 @@
       <c r="P208" t="str">
         <v>0</v>
       </c>
+      <c r="Q208" t="str">
+        <v>1</v>
+      </c>
+      <c r="R208" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="str">
@@ -10851,6 +12099,12 @@
       <c r="P209" t="str">
         <v>0</v>
       </c>
+      <c r="Q209" t="str">
+        <v>1</v>
+      </c>
+      <c r="R209" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="str">
@@ -10901,6 +12155,12 @@
       <c r="P210" t="str">
         <v>0</v>
       </c>
+      <c r="Q210" t="str">
+        <v>2</v>
+      </c>
+      <c r="R210" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="str">
@@ -10951,6 +12211,12 @@
       <c r="P211" t="str">
         <v>0</v>
       </c>
+      <c r="Q211" t="str">
+        <v>1</v>
+      </c>
+      <c r="R211" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="str">
@@ -11001,6 +12267,12 @@
       <c r="P212" t="str">
         <v>0</v>
       </c>
+      <c r="Q212" t="str">
+        <v>1</v>
+      </c>
+      <c r="R212" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="str">
@@ -11051,6 +12323,12 @@
       <c r="P213" t="str">
         <v>0</v>
       </c>
+      <c r="Q213" t="str">
+        <v>1</v>
+      </c>
+      <c r="R213" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="str">
@@ -11101,6 +12379,12 @@
       <c r="P214" t="str">
         <v>0</v>
       </c>
+      <c r="Q214" t="str">
+        <v>2</v>
+      </c>
+      <c r="R214" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="str">
@@ -11151,6 +12435,12 @@
       <c r="P215" t="str">
         <v>9</v>
       </c>
+      <c r="Q215" t="str">
+        <v>0</v>
+      </c>
+      <c r="R215" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="str">
@@ -11201,6 +12491,12 @@
       <c r="P216" t="str">
         <v>0</v>
       </c>
+      <c r="Q216" t="str">
+        <v>1</v>
+      </c>
+      <c r="R216" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="str">
@@ -11251,6 +12547,12 @@
       <c r="P217" t="str">
         <v>0</v>
       </c>
+      <c r="Q217" t="str">
+        <v>2</v>
+      </c>
+      <c r="R217" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="str">
@@ -11301,6 +12603,12 @@
       <c r="P218" t="str">
         <v>0</v>
       </c>
+      <c r="Q218" t="str">
+        <v>1</v>
+      </c>
+      <c r="R218" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="str">
@@ -11351,6 +12659,12 @@
       <c r="P219" t="str">
         <v>0</v>
       </c>
+      <c r="Q219" t="str">
+        <v>2</v>
+      </c>
+      <c r="R219" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="str">
@@ -11401,6 +12715,12 @@
       <c r="P220" t="str">
         <v>0</v>
       </c>
+      <c r="Q220" t="str">
+        <v>1</v>
+      </c>
+      <c r="R220" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="str">
@@ -11451,6 +12771,12 @@
       <c r="P221" t="str">
         <v>0</v>
       </c>
+      <c r="Q221" t="str">
+        <v>1</v>
+      </c>
+      <c r="R221" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="str">
@@ -11501,6 +12827,12 @@
       <c r="P222" t="str">
         <v>3</v>
       </c>
+      <c r="Q222" t="str">
+        <v>0</v>
+      </c>
+      <c r="R222" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="str">
@@ -11551,6 +12883,12 @@
       <c r="P223" t="str">
         <v>0</v>
       </c>
+      <c r="Q223" t="str">
+        <v>1</v>
+      </c>
+      <c r="R223" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="str">
@@ -11601,6 +12939,12 @@
       <c r="P224" t="str">
         <v>0</v>
       </c>
+      <c r="Q224" t="str">
+        <v>1</v>
+      </c>
+      <c r="R224" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="str">
@@ -11651,6 +12995,12 @@
       <c r="P225" t="str">
         <v>0</v>
       </c>
+      <c r="Q225" t="str">
+        <v>2</v>
+      </c>
+      <c r="R225" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="str">
@@ -11701,6 +13051,12 @@
       <c r="P226" t="str">
         <v>0</v>
       </c>
+      <c r="Q226" t="str">
+        <v>1</v>
+      </c>
+      <c r="R226" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="str">
@@ -11751,6 +13107,12 @@
       <c r="P227" t="str">
         <v>0</v>
       </c>
+      <c r="Q227" t="str">
+        <v>1</v>
+      </c>
+      <c r="R227" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="str">
@@ -11801,6 +13163,12 @@
       <c r="P228" t="str">
         <v>3</v>
       </c>
+      <c r="Q228" t="str">
+        <v>0</v>
+      </c>
+      <c r="R228" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="str">
@@ -11851,6 +13219,12 @@
       <c r="P229" t="str">
         <v>0</v>
       </c>
+      <c r="Q229" t="str">
+        <v>2</v>
+      </c>
+      <c r="R229" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="str">
@@ -11901,6 +13275,12 @@
       <c r="P230" t="str">
         <v>0</v>
       </c>
+      <c r="Q230" t="str">
+        <v>1</v>
+      </c>
+      <c r="R230" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="str">
@@ -11951,6 +13331,12 @@
       <c r="P231" t="str">
         <v>0</v>
       </c>
+      <c r="Q231" t="str">
+        <v>1</v>
+      </c>
+      <c r="R231" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="str">
@@ -12001,6 +13387,12 @@
       <c r="P232" t="str">
         <v>0</v>
       </c>
+      <c r="Q232" t="str">
+        <v>2</v>
+      </c>
+      <c r="R232" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="str">
@@ -12051,6 +13443,12 @@
       <c r="P233" t="str">
         <v>0</v>
       </c>
+      <c r="Q233" t="str">
+        <v>1</v>
+      </c>
+      <c r="R233" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="str">
@@ -12101,6 +13499,12 @@
       <c r="P234" t="str">
         <v>0</v>
       </c>
+      <c r="Q234" t="str">
+        <v>1</v>
+      </c>
+      <c r="R234" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="str">
@@ -12151,6 +13555,12 @@
       <c r="P235" t="str">
         <v>0</v>
       </c>
+      <c r="Q235" t="str">
+        <v>1</v>
+      </c>
+      <c r="R235" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="str">
@@ -12201,6 +13611,12 @@
       <c r="P236" t="str">
         <v>0</v>
       </c>
+      <c r="Q236" t="str">
+        <v>1</v>
+      </c>
+      <c r="R236" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="str">
@@ -12251,6 +13667,12 @@
       <c r="P237" t="str">
         <v>10</v>
       </c>
+      <c r="Q237" t="str">
+        <v>0</v>
+      </c>
+      <c r="R237" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="str">
@@ -12301,6 +13723,12 @@
       <c r="P238" t="str">
         <v>0</v>
       </c>
+      <c r="Q238" t="str">
+        <v>1</v>
+      </c>
+      <c r="R238" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="str">
@@ -12351,6 +13779,12 @@
       <c r="P239" t="str">
         <v>3</v>
       </c>
+      <c r="Q239" t="str">
+        <v>0</v>
+      </c>
+      <c r="R239" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="str">
@@ -12401,6 +13835,12 @@
       <c r="P240" t="str">
         <v>0</v>
       </c>
+      <c r="Q240" t="str">
+        <v>1</v>
+      </c>
+      <c r="R240" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="str">
@@ -12451,6 +13891,12 @@
       <c r="P241" t="str">
         <v>0</v>
       </c>
+      <c r="Q241" t="str">
+        <v>2</v>
+      </c>
+      <c r="R241" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="str">
@@ -12501,6 +13947,12 @@
       <c r="P242" t="str">
         <v>0</v>
       </c>
+      <c r="Q242" t="str">
+        <v>2</v>
+      </c>
+      <c r="R242" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="str">
@@ -12551,6 +14003,12 @@
       <c r="P243" t="str">
         <v>0</v>
       </c>
+      <c r="Q243" t="str">
+        <v>2</v>
+      </c>
+      <c r="R243" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="str">
@@ -12601,6 +14059,12 @@
       <c r="P244" t="str">
         <v>0</v>
       </c>
+      <c r="Q244" t="str">
+        <v>2</v>
+      </c>
+      <c r="R244" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="str">
@@ -12651,6 +14115,12 @@
       <c r="P245" t="str">
         <v>0</v>
       </c>
+      <c r="Q245" t="str">
+        <v>2</v>
+      </c>
+      <c r="R245" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="str">
@@ -12701,6 +14171,12 @@
       <c r="P246" t="str">
         <v>0</v>
       </c>
+      <c r="Q246" t="str">
+        <v>1</v>
+      </c>
+      <c r="R246" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="str">
@@ -12751,6 +14227,12 @@
       <c r="P247" t="str">
         <v>0</v>
       </c>
+      <c r="Q247" t="str">
+        <v>2</v>
+      </c>
+      <c r="R247" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="str">
@@ -12801,6 +14283,12 @@
       <c r="P248" t="str">
         <v>0</v>
       </c>
+      <c r="Q248" t="str">
+        <v>2</v>
+      </c>
+      <c r="R248" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="str">
@@ -12851,6 +14339,12 @@
       <c r="P249" t="str">
         <v>0</v>
       </c>
+      <c r="Q249" t="str">
+        <v>2</v>
+      </c>
+      <c r="R249" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="str">
@@ -12901,6 +14395,12 @@
       <c r="P250" t="str">
         <v>0</v>
       </c>
+      <c r="Q250" t="str">
+        <v>1</v>
+      </c>
+      <c r="R250" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="str">
@@ -12951,6 +14451,12 @@
       <c r="P251" t="str">
         <v>0</v>
       </c>
+      <c r="Q251" t="str">
+        <v>1</v>
+      </c>
+      <c r="R251" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="str">
@@ -13001,6 +14507,12 @@
       <c r="P252" t="str">
         <v>0</v>
       </c>
+      <c r="Q252" t="str">
+        <v>2</v>
+      </c>
+      <c r="R252" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="str">
@@ -13051,6 +14563,12 @@
       <c r="P253" t="str">
         <v>0</v>
       </c>
+      <c r="Q253" t="str">
+        <v>1</v>
+      </c>
+      <c r="R253" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="str">
@@ -13101,6 +14619,12 @@
       <c r="P254" t="str">
         <v>0</v>
       </c>
+      <c r="Q254" t="str">
+        <v>1</v>
+      </c>
+      <c r="R254" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="str">
@@ -13151,6 +14675,12 @@
       <c r="P255" t="str">
         <v>0</v>
       </c>
+      <c r="Q255" t="str">
+        <v>1</v>
+      </c>
+      <c r="R255" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="str">
@@ -13201,6 +14731,12 @@
       <c r="P256" t="str">
         <v>3</v>
       </c>
+      <c r="Q256" t="str">
+        <v>0</v>
+      </c>
+      <c r="R256" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="str">
@@ -13251,6 +14787,12 @@
       <c r="P257" t="str">
         <v>0</v>
       </c>
+      <c r="Q257" t="str">
+        <v>1</v>
+      </c>
+      <c r="R257" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="str">
@@ -13301,6 +14843,12 @@
       <c r="P258" t="str">
         <v>0</v>
       </c>
+      <c r="Q258" t="str">
+        <v>1</v>
+      </c>
+      <c r="R258" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="str">
@@ -13351,6 +14899,12 @@
       <c r="P259" t="str">
         <v>0</v>
       </c>
+      <c r="Q259" t="str">
+        <v>1</v>
+      </c>
+      <c r="R259" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="str">
@@ -13401,6 +14955,12 @@
       <c r="P260" t="str">
         <v>0</v>
       </c>
+      <c r="Q260" t="str">
+        <v>1</v>
+      </c>
+      <c r="R260" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="str">
@@ -13451,6 +15011,12 @@
       <c r="P261" t="str">
         <v>0</v>
       </c>
+      <c r="Q261" t="str">
+        <v>1</v>
+      </c>
+      <c r="R261" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="str">
@@ -13501,6 +15067,12 @@
       <c r="P262" t="str">
         <v>0</v>
       </c>
+      <c r="Q262" t="str">
+        <v>1</v>
+      </c>
+      <c r="R262" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="str">
@@ -13551,6 +15123,12 @@
       <c r="P263" t="str">
         <v>0</v>
       </c>
+      <c r="Q263" t="str">
+        <v>2</v>
+      </c>
+      <c r="R263" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="str">
@@ -13601,6 +15179,12 @@
       <c r="P264" t="str">
         <v>0</v>
       </c>
+      <c r="Q264" t="str">
+        <v>2</v>
+      </c>
+      <c r="R264" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="str">
@@ -13651,6 +15235,12 @@
       <c r="P265" t="str">
         <v>0</v>
       </c>
+      <c r="Q265" t="str">
+        <v>1</v>
+      </c>
+      <c r="R265" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="str">
@@ -13701,6 +15291,12 @@
       <c r="P266" t="str">
         <v>0</v>
       </c>
+      <c r="Q266" t="str">
+        <v>1</v>
+      </c>
+      <c r="R266" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="str">
@@ -13751,6 +15347,12 @@
       <c r="P267" t="str">
         <v>5</v>
       </c>
+      <c r="Q267" t="str">
+        <v>0</v>
+      </c>
+      <c r="R267" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="str">
@@ -13801,6 +15403,12 @@
       <c r="P268" t="str">
         <v>0</v>
       </c>
+      <c r="Q268" t="str">
+        <v>1</v>
+      </c>
+      <c r="R268" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="str">
@@ -13851,6 +15459,12 @@
       <c r="P269" t="str">
         <v>9</v>
       </c>
+      <c r="Q269" t="str">
+        <v>0</v>
+      </c>
+      <c r="R269" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="str">
@@ -13901,6 +15515,12 @@
       <c r="P270" t="str">
         <v>0</v>
       </c>
+      <c r="Q270" t="str">
+        <v>1</v>
+      </c>
+      <c r="R270" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="str">
@@ -13951,6 +15571,12 @@
       <c r="P271" t="str">
         <v>0</v>
       </c>
+      <c r="Q271" t="str">
+        <v>1</v>
+      </c>
+      <c r="R271" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="str">
@@ -14001,6 +15627,12 @@
       <c r="P272" t="str">
         <v>0</v>
       </c>
+      <c r="Q272" t="str">
+        <v>1</v>
+      </c>
+      <c r="R272" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="str">
@@ -14051,6 +15683,12 @@
       <c r="P273" t="str">
         <v>0</v>
       </c>
+      <c r="Q273" t="str">
+        <v>2</v>
+      </c>
+      <c r="R273" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="str">
@@ -14101,6 +15739,12 @@
       <c r="P274" t="str">
         <v>0</v>
       </c>
+      <c r="Q274" t="str">
+        <v>1</v>
+      </c>
+      <c r="R274" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="str">
@@ -14151,6 +15795,12 @@
       <c r="P275" t="str">
         <v>0</v>
       </c>
+      <c r="Q275" t="str">
+        <v>1</v>
+      </c>
+      <c r="R275" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="str">
@@ -14201,6 +15851,12 @@
       <c r="P276" t="str">
         <v>0</v>
       </c>
+      <c r="Q276" t="str">
+        <v>1</v>
+      </c>
+      <c r="R276" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="str">
@@ -14251,6 +15907,12 @@
       <c r="P277" t="str">
         <v>4</v>
       </c>
+      <c r="Q277" t="str">
+        <v>0</v>
+      </c>
+      <c r="R277" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="str">
@@ -14301,6 +15963,12 @@
       <c r="P278" t="str">
         <v>0</v>
       </c>
+      <c r="Q278" t="str">
+        <v>2</v>
+      </c>
+      <c r="R278" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="str">
@@ -14351,6 +16019,12 @@
       <c r="P279" t="str">
         <v>4</v>
       </c>
+      <c r="Q279" t="str">
+        <v>0</v>
+      </c>
+      <c r="R279" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="str">
@@ -14401,6 +16075,12 @@
       <c r="P280" t="str">
         <v>0</v>
       </c>
+      <c r="Q280" t="str">
+        <v>2</v>
+      </c>
+      <c r="R280" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="str">
@@ -14451,6 +16131,12 @@
       <c r="P281" t="str">
         <v>0</v>
       </c>
+      <c r="Q281" t="str">
+        <v>2</v>
+      </c>
+      <c r="R281" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="str">
@@ -14501,6 +16187,12 @@
       <c r="P282" t="str">
         <v>0</v>
       </c>
+      <c r="Q282" t="str">
+        <v>1</v>
+      </c>
+      <c r="R282" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="str">
@@ -14551,6 +16243,12 @@
       <c r="P283" t="str">
         <v>0</v>
       </c>
+      <c r="Q283" t="str">
+        <v>1</v>
+      </c>
+      <c r="R283" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="str">
@@ -14601,6 +16299,12 @@
       <c r="P284" t="str">
         <v>0</v>
       </c>
+      <c r="Q284" t="str">
+        <v>1</v>
+      </c>
+      <c r="R284" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="str">
@@ -14651,6 +16355,12 @@
       <c r="P285" t="str">
         <v>0</v>
       </c>
+      <c r="Q285" t="str">
+        <v>1</v>
+      </c>
+      <c r="R285" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="str">
@@ -14701,6 +16411,12 @@
       <c r="P286" t="str">
         <v>0</v>
       </c>
+      <c r="Q286" t="str">
+        <v>1</v>
+      </c>
+      <c r="R286" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="str">
@@ -14751,6 +16467,12 @@
       <c r="P287" t="str">
         <v>0</v>
       </c>
+      <c r="Q287" t="str">
+        <v>1</v>
+      </c>
+      <c r="R287" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="str">
@@ -14801,6 +16523,12 @@
       <c r="P288" t="str">
         <v>0</v>
       </c>
+      <c r="Q288" t="str">
+        <v>1</v>
+      </c>
+      <c r="R288" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="str">
@@ -14851,6 +16579,12 @@
       <c r="P289" t="str">
         <v>0</v>
       </c>
+      <c r="Q289" t="str">
+        <v>2</v>
+      </c>
+      <c r="R289" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="str">
@@ -14901,6 +16635,12 @@
       <c r="P290" t="str">
         <v>0</v>
       </c>
+      <c r="Q290" t="str">
+        <v>1</v>
+      </c>
+      <c r="R290" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="str">
@@ -14951,6 +16691,12 @@
       <c r="P291" t="str">
         <v>0</v>
       </c>
+      <c r="Q291" t="str">
+        <v>2</v>
+      </c>
+      <c r="R291" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="str">
@@ -15001,6 +16747,12 @@
       <c r="P292" t="str">
         <v>0</v>
       </c>
+      <c r="Q292" t="str">
+        <v>1</v>
+      </c>
+      <c r="R292" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="str">
@@ -15051,6 +16803,12 @@
       <c r="P293" t="str">
         <v>0</v>
       </c>
+      <c r="Q293" t="str">
+        <v>2</v>
+      </c>
+      <c r="R293" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="str">
@@ -15101,6 +16859,12 @@
       <c r="P294" t="str">
         <v>0</v>
       </c>
+      <c r="Q294" t="str">
+        <v>1</v>
+      </c>
+      <c r="R294" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="str">
@@ -15151,6 +16915,12 @@
       <c r="P295" t="str">
         <v>0</v>
       </c>
+      <c r="Q295" t="str">
+        <v>2</v>
+      </c>
+      <c r="R295" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="str">
@@ -15201,6 +16971,12 @@
       <c r="P296" t="str">
         <v>0</v>
       </c>
+      <c r="Q296" t="str">
+        <v>1</v>
+      </c>
+      <c r="R296" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="str">
@@ -15251,6 +17027,12 @@
       <c r="P297" t="str">
         <v>3</v>
       </c>
+      <c r="Q297" t="str">
+        <v>0</v>
+      </c>
+      <c r="R297" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="str">
@@ -15301,6 +17083,12 @@
       <c r="P298" t="str">
         <v>0</v>
       </c>
+      <c r="Q298" t="str">
+        <v>1</v>
+      </c>
+      <c r="R298" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="str">
@@ -15351,6 +17139,12 @@
       <c r="P299" t="str">
         <v>0</v>
       </c>
+      <c r="Q299" t="str">
+        <v>1</v>
+      </c>
+      <c r="R299" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="str">
@@ -15401,6 +17195,12 @@
       <c r="P300" t="str">
         <v>0</v>
       </c>
+      <c r="Q300" t="str">
+        <v>1</v>
+      </c>
+      <c r="R300" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="str">
@@ -15451,6 +17251,12 @@
       <c r="P301" t="str">
         <v>0</v>
       </c>
+      <c r="Q301" t="str">
+        <v>2</v>
+      </c>
+      <c r="R301" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="str">
@@ -15501,6 +17307,12 @@
       <c r="P302" t="str">
         <v>0</v>
       </c>
+      <c r="Q302" t="str">
+        <v>1</v>
+      </c>
+      <c r="R302" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="str">
@@ -15551,6 +17363,12 @@
       <c r="P303" t="str">
         <v>0</v>
       </c>
+      <c r="Q303" t="str">
+        <v>1</v>
+      </c>
+      <c r="R303" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="str">
@@ -15601,6 +17419,12 @@
       <c r="P304" t="str">
         <v>0</v>
       </c>
+      <c r="Q304" t="str">
+        <v>1</v>
+      </c>
+      <c r="R304" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="str">
@@ -15651,6 +17475,12 @@
       <c r="P305" t="str">
         <v>0</v>
       </c>
+      <c r="Q305" t="str">
+        <v>2</v>
+      </c>
+      <c r="R305" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="str">
@@ -15701,6 +17531,12 @@
       <c r="P306" t="str">
         <v>0</v>
       </c>
+      <c r="Q306" t="str">
+        <v>1</v>
+      </c>
+      <c r="R306" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="str">
@@ -15751,6 +17587,12 @@
       <c r="P307" t="str">
         <v>4</v>
       </c>
+      <c r="Q307" t="str">
+        <v>0</v>
+      </c>
+      <c r="R307" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="str">
@@ -15801,6 +17643,12 @@
       <c r="P308" t="str">
         <v>0</v>
       </c>
+      <c r="Q308" t="str">
+        <v>1</v>
+      </c>
+      <c r="R308" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="str">
@@ -15851,6 +17699,12 @@
       <c r="P309" t="str">
         <v>0</v>
       </c>
+      <c r="Q309" t="str">
+        <v>1</v>
+      </c>
+      <c r="R309" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="str">
@@ -15901,6 +17755,12 @@
       <c r="P310" t="str">
         <v>0</v>
       </c>
+      <c r="Q310" t="str">
+        <v>2</v>
+      </c>
+      <c r="R310" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="str">
@@ -15951,6 +17811,12 @@
       <c r="P311" t="str">
         <v>0</v>
       </c>
+      <c r="Q311" t="str">
+        <v>1</v>
+      </c>
+      <c r="R311" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="str">
@@ -16001,6 +17867,12 @@
       <c r="P312" t="str">
         <v>0</v>
       </c>
+      <c r="Q312" t="str">
+        <v>1</v>
+      </c>
+      <c r="R312" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="str">
@@ -16051,6 +17923,12 @@
       <c r="P313" t="str">
         <v>0</v>
       </c>
+      <c r="Q313" t="str">
+        <v>1</v>
+      </c>
+      <c r="R313" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="str">
@@ -16101,6 +17979,12 @@
       <c r="P314" t="str">
         <v>3</v>
       </c>
+      <c r="Q314" t="str">
+        <v>0</v>
+      </c>
+      <c r="R314" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="str">
@@ -16151,6 +18035,12 @@
       <c r="P315" t="str">
         <v>0</v>
       </c>
+      <c r="Q315" t="str">
+        <v>1</v>
+      </c>
+      <c r="R315" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="str">
@@ -16201,6 +18091,12 @@
       <c r="P316" t="str">
         <v>0</v>
       </c>
+      <c r="Q316" t="str">
+        <v>1</v>
+      </c>
+      <c r="R316" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="str">
@@ -16251,6 +18147,12 @@
       <c r="P317" t="str">
         <v>0</v>
       </c>
+      <c r="Q317" t="str">
+        <v>1</v>
+      </c>
+      <c r="R317" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="str">
@@ -16301,6 +18203,12 @@
       <c r="P318" t="str">
         <v>0</v>
       </c>
+      <c r="Q318" t="str">
+        <v>1</v>
+      </c>
+      <c r="R318" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="str">
@@ -16351,6 +18259,12 @@
       <c r="P319" t="str">
         <v>0</v>
       </c>
+      <c r="Q319" t="str">
+        <v>1</v>
+      </c>
+      <c r="R319" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="str">
@@ -16401,6 +18315,12 @@
       <c r="P320" t="str">
         <v>0</v>
       </c>
+      <c r="Q320" t="str">
+        <v>1</v>
+      </c>
+      <c r="R320" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="str">
@@ -16451,6 +18371,12 @@
       <c r="P321" t="str">
         <v>0</v>
       </c>
+      <c r="Q321" t="str">
+        <v>1</v>
+      </c>
+      <c r="R321" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="str">
@@ -16501,6 +18427,12 @@
       <c r="P322" t="str">
         <v>0</v>
       </c>
+      <c r="Q322" t="str">
+        <v>1</v>
+      </c>
+      <c r="R322" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="str">
@@ -16551,6 +18483,12 @@
       <c r="P323" t="str">
         <v>4</v>
       </c>
+      <c r="Q323" t="str">
+        <v>0</v>
+      </c>
+      <c r="R323" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="str">
@@ -16601,6 +18539,12 @@
       <c r="P324" t="str">
         <v>0</v>
       </c>
+      <c r="Q324" t="str">
+        <v>1</v>
+      </c>
+      <c r="R324" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="str">
@@ -16651,6 +18595,12 @@
       <c r="P325" t="str">
         <v>4</v>
       </c>
+      <c r="Q325" t="str">
+        <v>0</v>
+      </c>
+      <c r="R325" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="str">
@@ -16701,6 +18651,12 @@
       <c r="P326" t="str">
         <v>0</v>
       </c>
+      <c r="Q326" t="str">
+        <v>1</v>
+      </c>
+      <c r="R326" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="str">
@@ -16751,6 +18707,12 @@
       <c r="P327" t="str">
         <v>0</v>
       </c>
+      <c r="Q327" t="str">
+        <v>2</v>
+      </c>
+      <c r="R327" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="str">
@@ -16801,6 +18763,12 @@
       <c r="P328" t="str">
         <v>0</v>
       </c>
+      <c r="Q328" t="str">
+        <v>1</v>
+      </c>
+      <c r="R328" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="str">
@@ -16851,6 +18819,12 @@
       <c r="P329" t="str">
         <v>0</v>
       </c>
+      <c r="Q329" t="str">
+        <v>2</v>
+      </c>
+      <c r="R329" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="str">
@@ -16901,6 +18875,12 @@
       <c r="P330" t="str">
         <v>0</v>
       </c>
+      <c r="Q330" t="str">
+        <v>1</v>
+      </c>
+      <c r="R330" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="str">
@@ -16951,6 +18931,12 @@
       <c r="P331" t="str">
         <v>0</v>
       </c>
+      <c r="Q331" t="str">
+        <v>1</v>
+      </c>
+      <c r="R331" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="str">
@@ -17001,6 +18987,12 @@
       <c r="P332" t="str">
         <v>0</v>
       </c>
+      <c r="Q332" t="str">
+        <v>1</v>
+      </c>
+      <c r="R332" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="str">
@@ -17051,6 +19043,12 @@
       <c r="P333" t="str">
         <v>0</v>
       </c>
+      <c r="Q333" t="str">
+        <v>1</v>
+      </c>
+      <c r="R333" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="str">
@@ -17101,6 +19099,12 @@
       <c r="P334" t="str">
         <v>0</v>
       </c>
+      <c r="Q334" t="str">
+        <v>1</v>
+      </c>
+      <c r="R334" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="str">
@@ -17151,6 +19155,12 @@
       <c r="P335" t="str">
         <v>0</v>
       </c>
+      <c r="Q335" t="str">
+        <v>1</v>
+      </c>
+      <c r="R335" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="str">
@@ -17201,6 +19211,12 @@
       <c r="P336" t="str">
         <v>0</v>
       </c>
+      <c r="Q336" t="str">
+        <v>2</v>
+      </c>
+      <c r="R336" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="str">
@@ -17251,6 +19267,12 @@
       <c r="P337" t="str">
         <v>0</v>
       </c>
+      <c r="Q337" t="str">
+        <v>1</v>
+      </c>
+      <c r="R337" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="str">
@@ -17301,6 +19323,12 @@
       <c r="P338" t="str">
         <v>5</v>
       </c>
+      <c r="Q338" t="str">
+        <v>0</v>
+      </c>
+      <c r="R338" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="str">
@@ -17351,6 +19379,12 @@
       <c r="P339" t="str">
         <v>0</v>
       </c>
+      <c r="Q339" t="str">
+        <v>1</v>
+      </c>
+      <c r="R339" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="str">
@@ -17401,6 +19435,12 @@
       <c r="P340" t="str">
         <v>4</v>
       </c>
+      <c r="Q340" t="str">
+        <v>0</v>
+      </c>
+      <c r="R340" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="str">
@@ -17451,6 +19491,12 @@
       <c r="P341" t="str">
         <v>0</v>
       </c>
+      <c r="Q341" t="str">
+        <v>1</v>
+      </c>
+      <c r="R341" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="str">
@@ -17501,6 +19547,12 @@
       <c r="P342" t="str">
         <v>0</v>
       </c>
+      <c r="Q342" t="str">
+        <v>1</v>
+      </c>
+      <c r="R342" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="str">
@@ -17551,6 +19603,12 @@
       <c r="P343" t="str">
         <v>0</v>
       </c>
+      <c r="Q343" t="str">
+        <v>1</v>
+      </c>
+      <c r="R343" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="str">
@@ -17601,6 +19659,12 @@
       <c r="P344" t="str">
         <v>0</v>
       </c>
+      <c r="Q344" t="str">
+        <v>1</v>
+      </c>
+      <c r="R344" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="str">
@@ -17651,6 +19715,12 @@
       <c r="P345" t="str">
         <v>4</v>
       </c>
+      <c r="Q345" t="str">
+        <v>0</v>
+      </c>
+      <c r="R345" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="str">
@@ -17701,6 +19771,12 @@
       <c r="P346" t="str">
         <v>0</v>
       </c>
+      <c r="Q346" t="str">
+        <v>1</v>
+      </c>
+      <c r="R346" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="str">
@@ -17751,6 +19827,12 @@
       <c r="P347" t="str">
         <v>0</v>
       </c>
+      <c r="Q347" t="str">
+        <v>2</v>
+      </c>
+      <c r="R347" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="str">
@@ -17801,6 +19883,12 @@
       <c r="P348" t="str">
         <v>0</v>
       </c>
+      <c r="Q348" t="str">
+        <v>2</v>
+      </c>
+      <c r="R348" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="str">
@@ -17851,6 +19939,12 @@
       <c r="P349" t="str">
         <v>0</v>
       </c>
+      <c r="Q349" t="str">
+        <v>1</v>
+      </c>
+      <c r="R349" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="str">
@@ -17901,6 +19995,12 @@
       <c r="P350" t="str">
         <v>4</v>
       </c>
+      <c r="Q350" t="str">
+        <v>0</v>
+      </c>
+      <c r="R350" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="str">
@@ -17951,6 +20051,12 @@
       <c r="P351" t="str">
         <v>0</v>
       </c>
+      <c r="Q351" t="str">
+        <v>1</v>
+      </c>
+      <c r="R351" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="str">
@@ -18001,6 +20107,12 @@
       <c r="P352" t="str">
         <v>0</v>
       </c>
+      <c r="Q352" t="str">
+        <v>2</v>
+      </c>
+      <c r="R352" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="str">
@@ -18051,6 +20163,12 @@
       <c r="P353" t="str">
         <v>0</v>
       </c>
+      <c r="Q353" t="str">
+        <v>1</v>
+      </c>
+      <c r="R353" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="str">
@@ -18101,6 +20219,12 @@
       <c r="P354" t="str">
         <v>0</v>
       </c>
+      <c r="Q354" t="str">
+        <v>1</v>
+      </c>
+      <c r="R354" t="str">
+        <v>0</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="str">
@@ -18151,6 +20275,12 @@
       <c r="P355" t="str">
         <v>0</v>
       </c>
+      <c r="Q355" t="str">
+        <v>1</v>
+      </c>
+      <c r="R355" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="str">
@@ -18201,10 +20331,16 @@
       <c r="P356" t="str">
         <v>3</v>
       </c>
+      <c r="Q356" t="str">
+        <v>0</v>
+      </c>
+      <c r="R356" t="str">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:P356"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:R356"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/xk/excel/Problem_C_Data_Wordle.xlsx
+++ b/xk/excel/Problem_C_Data_Wordle.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R356"/>
+  <dimension ref="A1:Q356"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -452,9 +452,6 @@
         <v>characters</v>
       </c>
       <c r="Q1" t="str">
-        <v>AgglomerativeClustering_cluster</v>
-      </c>
-      <c r="R1" t="str">
         <v>root</v>
       </c>
     </row>
@@ -508,9 +505,6 @@
         <v>0</v>
       </c>
       <c r="Q2" t="str">
-        <v>1</v>
-      </c>
-      <c r="R2" t="str">
         <v>0</v>
       </c>
     </row>
@@ -566,9 +560,6 @@
       <c r="Q3" t="str">
         <v>1</v>
       </c>
-      <c r="R3" t="str">
-        <v>1</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -620,9 +611,6 @@
         <v>0</v>
       </c>
       <c r="Q4" t="str">
-        <v>2</v>
-      </c>
-      <c r="R4" t="str">
         <v>0</v>
       </c>
     </row>
@@ -678,9 +666,6 @@
       <c r="Q5" t="str">
         <v>1</v>
       </c>
-      <c r="R5" t="str">
-        <v>1</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -732,9 +717,6 @@
         <v>0</v>
       </c>
       <c r="Q6" t="str">
-        <v>1</v>
-      </c>
-      <c r="R6" t="str">
         <v>0</v>
       </c>
     </row>
@@ -788,9 +770,6 @@
         <v>0</v>
       </c>
       <c r="Q7" t="str">
-        <v>2</v>
-      </c>
-      <c r="R7" t="str">
         <v>0</v>
       </c>
     </row>
@@ -846,9 +825,6 @@
       <c r="Q8" t="str">
         <v>1</v>
       </c>
-      <c r="R8" t="str">
-        <v>1</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -902,9 +878,6 @@
       <c r="Q9" t="str">
         <v>1</v>
       </c>
-      <c r="R9" t="str">
-        <v>1</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -958,9 +931,6 @@
       <c r="Q10" t="str">
         <v>1</v>
       </c>
-      <c r="R10" t="str">
-        <v>1</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -1014,9 +984,6 @@
       <c r="Q11" t="str">
         <v>1</v>
       </c>
-      <c r="R11" t="str">
-        <v>1</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -1070,9 +1037,6 @@
       <c r="Q12" t="str">
         <v>1</v>
       </c>
-      <c r="R12" t="str">
-        <v>1</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -1124,9 +1088,6 @@
         <v>0</v>
       </c>
       <c r="Q13" t="str">
-        <v>1</v>
-      </c>
-      <c r="R13" t="str">
         <v>0</v>
       </c>
     </row>
@@ -1180,9 +1141,6 @@
         <v>0</v>
       </c>
       <c r="Q14" t="str">
-        <v>2</v>
-      </c>
-      <c r="R14" t="str">
         <v>0</v>
       </c>
     </row>
@@ -1238,9 +1196,6 @@
       <c r="Q15" t="str">
         <v>1</v>
       </c>
-      <c r="R15" t="str">
-        <v>1</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -1292,9 +1247,6 @@
         <v>0</v>
       </c>
       <c r="Q16" t="str">
-        <v>1</v>
-      </c>
-      <c r="R16" t="str">
         <v>0</v>
       </c>
     </row>
@@ -1348,9 +1300,6 @@
         <v>0</v>
       </c>
       <c r="Q17" t="str">
-        <v>1</v>
-      </c>
-      <c r="R17" t="str">
         <v>0</v>
       </c>
     </row>
@@ -1404,9 +1353,6 @@
         <v>0</v>
       </c>
       <c r="Q18" t="str">
-        <v>2</v>
-      </c>
-      <c r="R18" t="str">
         <v>0</v>
       </c>
     </row>
@@ -1462,9 +1408,6 @@
       <c r="Q19" t="str">
         <v>1</v>
       </c>
-      <c r="R19" t="str">
-        <v>1</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -1516,9 +1459,6 @@
         <v>0</v>
       </c>
       <c r="Q20" t="str">
-        <v>1</v>
-      </c>
-      <c r="R20" t="str">
         <v>0</v>
       </c>
     </row>
@@ -1574,9 +1514,6 @@
       <c r="Q21" t="str">
         <v>1</v>
       </c>
-      <c r="R21" t="str">
-        <v>1</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -1630,9 +1567,6 @@
       <c r="Q22" t="str">
         <v>1</v>
       </c>
-      <c r="R22" t="str">
-        <v>1</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
@@ -1684,9 +1618,6 @@
         <v>1</v>
       </c>
       <c r="Q23" t="str">
-        <v>0</v>
-      </c>
-      <c r="R23" t="str">
         <v>1</v>
       </c>
     </row>
@@ -1742,9 +1673,6 @@
       <c r="Q24" t="str">
         <v>1</v>
       </c>
-      <c r="R24" t="str">
-        <v>1</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
@@ -1796,9 +1724,6 @@
         <v>0</v>
       </c>
       <c r="Q25" t="str">
-        <v>1</v>
-      </c>
-      <c r="R25" t="str">
         <v>0</v>
       </c>
     </row>
@@ -1854,9 +1779,6 @@
       <c r="Q26" t="str">
         <v>0</v>
       </c>
-      <c r="R26" t="str">
-        <v>0</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
@@ -1910,9 +1832,6 @@
       <c r="Q27" t="str">
         <v>1</v>
       </c>
-      <c r="R27" t="str">
-        <v>1</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
@@ -1966,9 +1885,6 @@
       <c r="Q28" t="str">
         <v>1</v>
       </c>
-      <c r="R28" t="str">
-        <v>1</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
@@ -2020,9 +1936,6 @@
         <v>0</v>
       </c>
       <c r="Q29" t="str">
-        <v>1</v>
-      </c>
-      <c r="R29" t="str">
         <v>0</v>
       </c>
     </row>
@@ -2076,9 +1989,6 @@
         <v>3</v>
       </c>
       <c r="Q30" t="str">
-        <v>0</v>
-      </c>
-      <c r="R30" t="str">
         <v>1</v>
       </c>
     </row>
@@ -2132,9 +2042,6 @@
         <v>0</v>
       </c>
       <c r="Q31" t="str">
-        <v>2</v>
-      </c>
-      <c r="R31" t="str">
         <v>0</v>
       </c>
     </row>
@@ -2188,9 +2095,6 @@
         <v>0</v>
       </c>
       <c r="Q32" t="str">
-        <v>2</v>
-      </c>
-      <c r="R32" t="str">
         <v>1</v>
       </c>
     </row>
@@ -2246,9 +2150,6 @@
       <c r="Q33" t="str">
         <v>1</v>
       </c>
-      <c r="R33" t="str">
-        <v>1</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
@@ -2300,9 +2201,6 @@
         <v>0</v>
       </c>
       <c r="Q34" t="str">
-        <v>1</v>
-      </c>
-      <c r="R34" t="str">
         <v>0</v>
       </c>
     </row>
@@ -2356,9 +2254,6 @@
         <v>0</v>
       </c>
       <c r="Q35" t="str">
-        <v>1</v>
-      </c>
-      <c r="R35" t="str">
         <v>0</v>
       </c>
     </row>
@@ -2414,9 +2309,6 @@
       <c r="Q36" t="str">
         <v>1</v>
       </c>
-      <c r="R36" t="str">
-        <v>1</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
@@ -2470,9 +2362,6 @@
       <c r="Q37" t="str">
         <v>0</v>
       </c>
-      <c r="R37" t="str">
-        <v>0</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
@@ -2526,9 +2415,6 @@
       <c r="Q38" t="str">
         <v>1</v>
       </c>
-      <c r="R38" t="str">
-        <v>1</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
@@ -2580,9 +2466,6 @@
         <v>0</v>
       </c>
       <c r="Q39" t="str">
-        <v>2</v>
-      </c>
-      <c r="R39" t="str">
         <v>1</v>
       </c>
     </row>
@@ -2636,9 +2519,6 @@
         <v>0</v>
       </c>
       <c r="Q40" t="str">
-        <v>2</v>
-      </c>
-      <c r="R40" t="str">
         <v>1</v>
       </c>
     </row>
@@ -2692,9 +2572,6 @@
         <v>0</v>
       </c>
       <c r="Q41" t="str">
-        <v>1</v>
-      </c>
-      <c r="R41" t="str">
         <v>0</v>
       </c>
     </row>
@@ -2748,9 +2625,6 @@
         <v>0</v>
       </c>
       <c r="Q42" t="str">
-        <v>1</v>
-      </c>
-      <c r="R42" t="str">
         <v>0</v>
       </c>
     </row>
@@ -2804,9 +2678,6 @@
         <v>0</v>
       </c>
       <c r="Q43" t="str">
-        <v>2</v>
-      </c>
-      <c r="R43" t="str">
         <v>0</v>
       </c>
     </row>
@@ -2860,9 +2731,6 @@
         <v>0</v>
       </c>
       <c r="Q44" t="str">
-        <v>2</v>
-      </c>
-      <c r="R44" t="str">
         <v>0</v>
       </c>
     </row>
@@ -2916,9 +2784,6 @@
         <v>0</v>
       </c>
       <c r="Q45" t="str">
-        <v>2</v>
-      </c>
-      <c r="R45" t="str">
         <v>1</v>
       </c>
     </row>
@@ -2972,9 +2837,6 @@
         <v>4</v>
       </c>
       <c r="Q46" t="str">
-        <v>0</v>
-      </c>
-      <c r="R46" t="str">
         <v>1</v>
       </c>
     </row>
@@ -3028,9 +2890,6 @@
         <v>0</v>
       </c>
       <c r="Q47" t="str">
-        <v>1</v>
-      </c>
-      <c r="R47" t="str">
         <v>0</v>
       </c>
     </row>
@@ -3084,9 +2943,6 @@
         <v>0</v>
       </c>
       <c r="Q48" t="str">
-        <v>1</v>
-      </c>
-      <c r="R48" t="str">
         <v>0</v>
       </c>
     </row>
@@ -3140,9 +2996,6 @@
         <v>0</v>
       </c>
       <c r="Q49" t="str">
-        <v>1</v>
-      </c>
-      <c r="R49" t="str">
         <v>0</v>
       </c>
     </row>
@@ -3196,9 +3049,6 @@
         <v>0</v>
       </c>
       <c r="Q50" t="str">
-        <v>2</v>
-      </c>
-      <c r="R50" t="str">
         <v>1</v>
       </c>
     </row>
@@ -3252,9 +3102,6 @@
         <v>0</v>
       </c>
       <c r="Q51" t="str">
-        <v>2</v>
-      </c>
-      <c r="R51" t="str">
         <v>0</v>
       </c>
     </row>
@@ -3310,9 +3157,6 @@
       <c r="Q52" t="str">
         <v>1</v>
       </c>
-      <c r="R52" t="str">
-        <v>1</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
@@ -3366,9 +3210,6 @@
       <c r="Q53" t="str">
         <v>1</v>
       </c>
-      <c r="R53" t="str">
-        <v>1</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
@@ -3420,9 +3261,6 @@
         <v>0</v>
       </c>
       <c r="Q54" t="str">
-        <v>2</v>
-      </c>
-      <c r="R54" t="str">
         <v>0</v>
       </c>
     </row>
@@ -3476,9 +3314,6 @@
         <v>4</v>
       </c>
       <c r="Q55" t="str">
-        <v>0</v>
-      </c>
-      <c r="R55" t="str">
         <v>1</v>
       </c>
     </row>
@@ -3532,9 +3367,6 @@
         <v>0</v>
       </c>
       <c r="Q56" t="str">
-        <v>1</v>
-      </c>
-      <c r="R56" t="str">
         <v>0</v>
       </c>
     </row>
@@ -3588,9 +3420,6 @@
         <v>3</v>
       </c>
       <c r="Q57" t="str">
-        <v>0</v>
-      </c>
-      <c r="R57" t="str">
         <v>1</v>
       </c>
     </row>
@@ -3644,9 +3473,6 @@
         <v>0</v>
       </c>
       <c r="Q58" t="str">
-        <v>1</v>
-      </c>
-      <c r="R58" t="str">
         <v>0</v>
       </c>
     </row>
@@ -3700,9 +3526,6 @@
         <v>0</v>
       </c>
       <c r="Q59" t="str">
-        <v>1</v>
-      </c>
-      <c r="R59" t="str">
         <v>0</v>
       </c>
     </row>
@@ -3758,9 +3581,6 @@
       <c r="Q60" t="str">
         <v>1</v>
       </c>
-      <c r="R60" t="str">
-        <v>1</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
@@ -3812,9 +3632,6 @@
         <v>0</v>
       </c>
       <c r="Q61" t="str">
-        <v>2</v>
-      </c>
-      <c r="R61" t="str">
         <v>0</v>
       </c>
     </row>
@@ -3870,9 +3687,6 @@
       <c r="Q62" t="str">
         <v>1</v>
       </c>
-      <c r="R62" t="str">
-        <v>1</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
@@ -3924,9 +3738,6 @@
         <v>0</v>
       </c>
       <c r="Q63" t="str">
-        <v>1</v>
-      </c>
-      <c r="R63" t="str">
         <v>0</v>
       </c>
     </row>
@@ -3980,9 +3791,6 @@
         <v>0</v>
       </c>
       <c r="Q64" t="str">
-        <v>1</v>
-      </c>
-      <c r="R64" t="str">
         <v>0</v>
       </c>
     </row>
@@ -4036,9 +3844,6 @@
         <v>0</v>
       </c>
       <c r="Q65" t="str">
-        <v>1</v>
-      </c>
-      <c r="R65" t="str">
         <v>0</v>
       </c>
     </row>
@@ -4092,9 +3897,6 @@
         <v>0</v>
       </c>
       <c r="Q66" t="str">
-        <v>1</v>
-      </c>
-      <c r="R66" t="str">
         <v>0</v>
       </c>
     </row>
@@ -4148,9 +3950,6 @@
         <v>0</v>
       </c>
       <c r="Q67" t="str">
-        <v>1</v>
-      </c>
-      <c r="R67" t="str">
         <v>0</v>
       </c>
     </row>
@@ -4204,9 +4003,6 @@
         <v>0</v>
       </c>
       <c r="Q68" t="str">
-        <v>2</v>
-      </c>
-      <c r="R68" t="str">
         <v>0</v>
       </c>
     </row>
@@ -4262,9 +4058,6 @@
       <c r="Q69" t="str">
         <v>1</v>
       </c>
-      <c r="R69" t="str">
-        <v>1</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
@@ -4318,9 +4111,6 @@
       <c r="Q70" t="str">
         <v>1</v>
       </c>
-      <c r="R70" t="str">
-        <v>1</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
@@ -4372,9 +4162,6 @@
         <v>0</v>
       </c>
       <c r="Q71" t="str">
-        <v>1</v>
-      </c>
-      <c r="R71" t="str">
         <v>0</v>
       </c>
     </row>
@@ -4428,9 +4215,6 @@
         <v>5</v>
       </c>
       <c r="Q72" t="str">
-        <v>0</v>
-      </c>
-      <c r="R72" t="str">
         <v>1</v>
       </c>
     </row>
@@ -4484,9 +4268,6 @@
         <v>0</v>
       </c>
       <c r="Q73" t="str">
-        <v>2</v>
-      </c>
-      <c r="R73" t="str">
         <v>1</v>
       </c>
     </row>
@@ -4542,9 +4323,6 @@
       <c r="Q74" t="str">
         <v>0</v>
       </c>
-      <c r="R74" t="str">
-        <v>0</v>
-      </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
@@ -4596,9 +4374,6 @@
         <v>0</v>
       </c>
       <c r="Q75" t="str">
-        <v>2</v>
-      </c>
-      <c r="R75" t="str">
         <v>0</v>
       </c>
     </row>
@@ -4654,9 +4429,6 @@
       <c r="Q76" t="str">
         <v>1</v>
       </c>
-      <c r="R76" t="str">
-        <v>1</v>
-      </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
@@ -4708,9 +4480,6 @@
         <v>0</v>
       </c>
       <c r="Q77" t="str">
-        <v>1</v>
-      </c>
-      <c r="R77" t="str">
         <v>0</v>
       </c>
     </row>
@@ -4766,9 +4535,6 @@
       <c r="Q78" t="str">
         <v>1</v>
       </c>
-      <c r="R78" t="str">
-        <v>1</v>
-      </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
@@ -4822,9 +4588,6 @@
       <c r="Q79" t="str">
         <v>1</v>
       </c>
-      <c r="R79" t="str">
-        <v>1</v>
-      </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
@@ -4876,9 +4639,6 @@
         <v>0</v>
       </c>
       <c r="Q80" t="str">
-        <v>1</v>
-      </c>
-      <c r="R80" t="str">
         <v>0</v>
       </c>
     </row>
@@ -4932,9 +4692,6 @@
         <v>0</v>
       </c>
       <c r="Q81" t="str">
-        <v>0</v>
-      </c>
-      <c r="R81" t="str">
         <v>1</v>
       </c>
     </row>
@@ -4988,9 +4745,6 @@
         <v>1</v>
       </c>
       <c r="Q82" t="str">
-        <v>0</v>
-      </c>
-      <c r="R82" t="str">
         <v>1</v>
       </c>
     </row>
@@ -5044,9 +4798,6 @@
         <v>0</v>
       </c>
       <c r="Q83" t="str">
-        <v>1</v>
-      </c>
-      <c r="R83" t="str">
         <v>0</v>
       </c>
     </row>
@@ -5102,9 +4853,6 @@
       <c r="Q84" t="str">
         <v>0</v>
       </c>
-      <c r="R84" t="str">
-        <v>0</v>
-      </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
@@ -5156,9 +4904,6 @@
         <v>0</v>
       </c>
       <c r="Q85" t="str">
-        <v>1</v>
-      </c>
-      <c r="R85" t="str">
         <v>0</v>
       </c>
     </row>
@@ -5212,9 +4957,6 @@
         <v>0</v>
       </c>
       <c r="Q86" t="str">
-        <v>1</v>
-      </c>
-      <c r="R86" t="str">
         <v>0</v>
       </c>
     </row>
@@ -5268,9 +5010,6 @@
         <v>7</v>
       </c>
       <c r="Q87" t="str">
-        <v>0</v>
-      </c>
-      <c r="R87" t="str">
         <v>1</v>
       </c>
     </row>
@@ -5324,9 +5063,6 @@
         <v>0</v>
       </c>
       <c r="Q88" t="str">
-        <v>1</v>
-      </c>
-      <c r="R88" t="str">
         <v>0</v>
       </c>
     </row>
@@ -5380,9 +5116,6 @@
         <v>4</v>
       </c>
       <c r="Q89" t="str">
-        <v>0</v>
-      </c>
-      <c r="R89" t="str">
         <v>1</v>
       </c>
     </row>
@@ -5436,9 +5169,6 @@
         <v>0</v>
       </c>
       <c r="Q90" t="str">
-        <v>2</v>
-      </c>
-      <c r="R90" t="str">
         <v>1</v>
       </c>
     </row>
@@ -5492,9 +5222,6 @@
         <v>0</v>
       </c>
       <c r="Q91" t="str">
-        <v>1</v>
-      </c>
-      <c r="R91" t="str">
         <v>0</v>
       </c>
     </row>
@@ -5550,9 +5277,6 @@
       <c r="Q92" t="str">
         <v>1</v>
       </c>
-      <c r="R92" t="str">
-        <v>1</v>
-      </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
@@ -5604,9 +5328,6 @@
         <v>0</v>
       </c>
       <c r="Q93" t="str">
-        <v>1</v>
-      </c>
-      <c r="R93" t="str">
         <v>0</v>
       </c>
     </row>
@@ -5662,9 +5383,6 @@
       <c r="Q94" t="str">
         <v>0</v>
       </c>
-      <c r="R94" t="str">
-        <v>0</v>
-      </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
@@ -5718,9 +5436,6 @@
       <c r="Q95" t="str">
         <v>1</v>
       </c>
-      <c r="R95" t="str">
-        <v>1</v>
-      </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
@@ -5774,9 +5489,6 @@
       <c r="Q96" t="str">
         <v>1</v>
       </c>
-      <c r="R96" t="str">
-        <v>1</v>
-      </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
@@ -5830,9 +5542,6 @@
       <c r="Q97" t="str">
         <v>1</v>
       </c>
-      <c r="R97" t="str">
-        <v>1</v>
-      </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
@@ -5886,9 +5595,6 @@
       <c r="Q98" t="str">
         <v>1</v>
       </c>
-      <c r="R98" t="str">
-        <v>1</v>
-      </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
@@ -5940,9 +5646,6 @@
         <v>0</v>
       </c>
       <c r="Q99" t="str">
-        <v>1</v>
-      </c>
-      <c r="R99" t="str">
         <v>0</v>
       </c>
     </row>
@@ -5996,9 +5699,6 @@
         <v>0</v>
       </c>
       <c r="Q100" t="str">
-        <v>2</v>
-      </c>
-      <c r="R100" t="str">
         <v>0</v>
       </c>
     </row>
@@ -6052,9 +5752,6 @@
         <v>0</v>
       </c>
       <c r="Q101" t="str">
-        <v>1</v>
-      </c>
-      <c r="R101" t="str">
         <v>0</v>
       </c>
     </row>
@@ -6108,9 +5805,6 @@
         <v>0</v>
       </c>
       <c r="Q102" t="str">
-        <v>1</v>
-      </c>
-      <c r="R102" t="str">
         <v>0</v>
       </c>
     </row>
@@ -6166,9 +5860,6 @@
       <c r="Q103" t="str">
         <v>1</v>
       </c>
-      <c r="R103" t="str">
-        <v>1</v>
-      </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
@@ -6222,9 +5913,6 @@
       <c r="Q104" t="str">
         <v>1</v>
       </c>
-      <c r="R104" t="str">
-        <v>1</v>
-      </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
@@ -6278,9 +5966,6 @@
       <c r="Q105" t="str">
         <v>1</v>
       </c>
-      <c r="R105" t="str">
-        <v>1</v>
-      </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
@@ -6334,9 +6019,6 @@
       <c r="Q106" t="str">
         <v>1</v>
       </c>
-      <c r="R106" t="str">
-        <v>1</v>
-      </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
@@ -6390,9 +6072,6 @@
       <c r="Q107" t="str">
         <v>0</v>
       </c>
-      <c r="R107" t="str">
-        <v>0</v>
-      </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
@@ -6446,9 +6125,6 @@
       <c r="Q108" t="str">
         <v>1</v>
       </c>
-      <c r="R108" t="str">
-        <v>1</v>
-      </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
@@ -6500,9 +6176,6 @@
         <v>0</v>
       </c>
       <c r="Q109" t="str">
-        <v>1</v>
-      </c>
-      <c r="R109" t="str">
         <v>0</v>
       </c>
     </row>
@@ -6558,9 +6231,6 @@
       <c r="Q110" t="str">
         <v>1</v>
       </c>
-      <c r="R110" t="str">
-        <v>1</v>
-      </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
@@ -6614,9 +6284,6 @@
       <c r="Q111" t="str">
         <v>0</v>
       </c>
-      <c r="R111" t="str">
-        <v>0</v>
-      </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
@@ -6670,9 +6337,6 @@
       <c r="Q112" t="str">
         <v>1</v>
       </c>
-      <c r="R112" t="str">
-        <v>1</v>
-      </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
@@ -6724,9 +6388,6 @@
         <v>0</v>
       </c>
       <c r="Q113" t="str">
-        <v>2</v>
-      </c>
-      <c r="R113" t="str">
         <v>1</v>
       </c>
     </row>
@@ -6780,9 +6441,6 @@
         <v>0</v>
       </c>
       <c r="Q114" t="str">
-        <v>2</v>
-      </c>
-      <c r="R114" t="str">
         <v>0</v>
       </c>
     </row>
@@ -6836,9 +6494,6 @@
         <v>0</v>
       </c>
       <c r="Q115" t="str">
-        <v>1</v>
-      </c>
-      <c r="R115" t="str">
         <v>0</v>
       </c>
     </row>
@@ -6892,9 +6547,6 @@
         <v>0</v>
       </c>
       <c r="Q116" t="str">
-        <v>1</v>
-      </c>
-      <c r="R116" t="str">
         <v>0</v>
       </c>
     </row>
@@ -6948,9 +6600,6 @@
         <v>0</v>
       </c>
       <c r="Q117" t="str">
-        <v>1</v>
-      </c>
-      <c r="R117" t="str">
         <v>0</v>
       </c>
     </row>
@@ -7006,9 +6655,6 @@
       <c r="Q118" t="str">
         <v>1</v>
       </c>
-      <c r="R118" t="str">
-        <v>1</v>
-      </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
@@ -7062,9 +6708,6 @@
       <c r="Q119" t="str">
         <v>1</v>
       </c>
-      <c r="R119" t="str">
-        <v>1</v>
-      </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
@@ -7116,9 +6759,6 @@
         <v>0</v>
       </c>
       <c r="Q120" t="str">
-        <v>1</v>
-      </c>
-      <c r="R120" t="str">
         <v>0</v>
       </c>
     </row>
@@ -7172,9 +6812,6 @@
         <v>0</v>
       </c>
       <c r="Q121" t="str">
-        <v>2</v>
-      </c>
-      <c r="R121" t="str">
         <v>1</v>
       </c>
     </row>
@@ -7228,9 +6865,6 @@
         <v>0</v>
       </c>
       <c r="Q122" t="str">
-        <v>1</v>
-      </c>
-      <c r="R122" t="str">
         <v>0</v>
       </c>
     </row>
@@ -7284,9 +6918,6 @@
         <v>0</v>
       </c>
       <c r="Q123" t="str">
-        <v>1</v>
-      </c>
-      <c r="R123" t="str">
         <v>0</v>
       </c>
     </row>
@@ -7342,9 +6973,6 @@
       <c r="Q124" t="str">
         <v>1</v>
       </c>
-      <c r="R124" t="str">
-        <v>1</v>
-      </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
@@ -7398,9 +7026,6 @@
       <c r="Q125" t="str">
         <v>1</v>
       </c>
-      <c r="R125" t="str">
-        <v>1</v>
-      </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
@@ -7452,9 +7077,6 @@
         <v>0</v>
       </c>
       <c r="Q126" t="str">
-        <v>1</v>
-      </c>
-      <c r="R126" t="str">
         <v>0</v>
       </c>
     </row>
@@ -7510,9 +7132,6 @@
       <c r="Q127" t="str">
         <v>1</v>
       </c>
-      <c r="R127" t="str">
-        <v>1</v>
-      </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
@@ -7564,9 +7183,6 @@
         <v>0</v>
       </c>
       <c r="Q128" t="str">
-        <v>1</v>
-      </c>
-      <c r="R128" t="str">
         <v>0</v>
       </c>
     </row>
@@ -7620,9 +7236,6 @@
         <v>0</v>
       </c>
       <c r="Q129" t="str">
-        <v>2</v>
-      </c>
-      <c r="R129" t="str">
         <v>1</v>
       </c>
     </row>
@@ -7676,9 +7289,6 @@
         <v>9</v>
       </c>
       <c r="Q130" t="str">
-        <v>0</v>
-      </c>
-      <c r="R130" t="str">
         <v>1</v>
       </c>
     </row>
@@ -7734,9 +7344,6 @@
       <c r="Q131" t="str">
         <v>1</v>
       </c>
-      <c r="R131" t="str">
-        <v>1</v>
-      </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
@@ -7788,9 +7395,6 @@
         <v>0</v>
       </c>
       <c r="Q132" t="str">
-        <v>2</v>
-      </c>
-      <c r="R132" t="str">
         <v>0</v>
       </c>
     </row>
@@ -7846,9 +7450,6 @@
       <c r="Q133" t="str">
         <v>1</v>
       </c>
-      <c r="R133" t="str">
-        <v>1</v>
-      </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
@@ -7902,9 +7503,6 @@
       <c r="Q134" t="str">
         <v>1</v>
       </c>
-      <c r="R134" t="str">
-        <v>1</v>
-      </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
@@ -7958,9 +7556,6 @@
       <c r="Q135" t="str">
         <v>1</v>
       </c>
-      <c r="R135" t="str">
-        <v>1</v>
-      </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
@@ -8014,9 +7609,6 @@
       <c r="Q136" t="str">
         <v>1</v>
       </c>
-      <c r="R136" t="str">
-        <v>1</v>
-      </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
@@ -8070,9 +7662,6 @@
       <c r="Q137" t="str">
         <v>1</v>
       </c>
-      <c r="R137" t="str">
-        <v>1</v>
-      </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
@@ -8126,9 +7715,6 @@
       <c r="Q138" t="str">
         <v>0</v>
       </c>
-      <c r="R138" t="str">
-        <v>0</v>
-      </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
@@ -8180,9 +7766,6 @@
         <v>0</v>
       </c>
       <c r="Q139" t="str">
-        <v>2</v>
-      </c>
-      <c r="R139" t="str">
         <v>0</v>
       </c>
     </row>
@@ -8236,9 +7819,6 @@
         <v>0</v>
       </c>
       <c r="Q140" t="str">
-        <v>2</v>
-      </c>
-      <c r="R140" t="str">
         <v>1</v>
       </c>
     </row>
@@ -8294,9 +7874,6 @@
       <c r="Q141" t="str">
         <v>1</v>
       </c>
-      <c r="R141" t="str">
-        <v>1</v>
-      </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
@@ -8348,9 +7925,6 @@
         <v>0</v>
       </c>
       <c r="Q142" t="str">
-        <v>1</v>
-      </c>
-      <c r="R142" t="str">
         <v>0</v>
       </c>
     </row>
@@ -8404,9 +7978,6 @@
         <v>0</v>
       </c>
       <c r="Q143" t="str">
-        <v>2</v>
-      </c>
-      <c r="R143" t="str">
         <v>0</v>
       </c>
     </row>
@@ -8462,9 +8033,6 @@
       <c r="Q144" t="str">
         <v>1</v>
       </c>
-      <c r="R144" t="str">
-        <v>1</v>
-      </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
@@ -8518,9 +8086,6 @@
       <c r="Q145" t="str">
         <v>1</v>
       </c>
-      <c r="R145" t="str">
-        <v>1</v>
-      </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
@@ -8572,9 +8137,6 @@
         <v>0</v>
       </c>
       <c r="Q146" t="str">
-        <v>1</v>
-      </c>
-      <c r="R146" t="str">
         <v>0</v>
       </c>
     </row>
@@ -8628,9 +8190,6 @@
         <v>0</v>
       </c>
       <c r="Q147" t="str">
-        <v>1</v>
-      </c>
-      <c r="R147" t="str">
         <v>0</v>
       </c>
     </row>
@@ -8684,9 +8243,6 @@
         <v>0</v>
       </c>
       <c r="Q148" t="str">
-        <v>1</v>
-      </c>
-      <c r="R148" t="str">
         <v>0</v>
       </c>
     </row>
@@ -8742,9 +8298,6 @@
       <c r="Q149" t="str">
         <v>1</v>
       </c>
-      <c r="R149" t="str">
-        <v>1</v>
-      </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
@@ -8796,9 +8349,6 @@
         <v>0</v>
       </c>
       <c r="Q150" t="str">
-        <v>2</v>
-      </c>
-      <c r="R150" t="str">
         <v>0</v>
       </c>
     </row>
@@ -8852,9 +8402,6 @@
         <v>0</v>
       </c>
       <c r="Q151" t="str">
-        <v>2</v>
-      </c>
-      <c r="R151" t="str">
         <v>0</v>
       </c>
     </row>
@@ -8908,9 +8455,6 @@
         <v>0</v>
       </c>
       <c r="Q152" t="str">
-        <v>2</v>
-      </c>
-      <c r="R152" t="str">
         <v>1</v>
       </c>
     </row>
@@ -8964,9 +8508,6 @@
         <v>0</v>
       </c>
       <c r="Q153" t="str">
-        <v>1</v>
-      </c>
-      <c r="R153" t="str">
         <v>0</v>
       </c>
     </row>
@@ -9022,9 +8563,6 @@
       <c r="Q154" t="str">
         <v>1</v>
       </c>
-      <c r="R154" t="str">
-        <v>1</v>
-      </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
@@ -9076,9 +8614,6 @@
         <v>0</v>
       </c>
       <c r="Q155" t="str">
-        <v>2</v>
-      </c>
-      <c r="R155" t="str">
         <v>0</v>
       </c>
     </row>
@@ -9132,9 +8667,6 @@
         <v>0</v>
       </c>
       <c r="Q156" t="str">
-        <v>1</v>
-      </c>
-      <c r="R156" t="str">
         <v>0</v>
       </c>
     </row>
@@ -9188,9 +8720,6 @@
         <v>0</v>
       </c>
       <c r="Q157" t="str">
-        <v>2</v>
-      </c>
-      <c r="R157" t="str">
         <v>1</v>
       </c>
     </row>
@@ -9244,9 +8773,6 @@
         <v>0</v>
       </c>
       <c r="Q158" t="str">
-        <v>1</v>
-      </c>
-      <c r="R158" t="str">
         <v>0</v>
       </c>
     </row>
@@ -9302,9 +8828,6 @@
       <c r="Q159" t="str">
         <v>1</v>
       </c>
-      <c r="R159" t="str">
-        <v>1</v>
-      </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
@@ -9358,9 +8881,6 @@
       <c r="Q160" t="str">
         <v>1</v>
       </c>
-      <c r="R160" t="str">
-        <v>1</v>
-      </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
@@ -9412,9 +8932,6 @@
         <v>0</v>
       </c>
       <c r="Q161" t="str">
-        <v>1</v>
-      </c>
-      <c r="R161" t="str">
         <v>0</v>
       </c>
     </row>
@@ -9468,9 +8985,6 @@
         <v>0</v>
       </c>
       <c r="Q162" t="str">
-        <v>2</v>
-      </c>
-      <c r="R162" t="str">
         <v>0</v>
       </c>
     </row>
@@ -9526,9 +9040,6 @@
       <c r="Q163" t="str">
         <v>1</v>
       </c>
-      <c r="R163" t="str">
-        <v>1</v>
-      </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
@@ -9580,9 +9091,6 @@
         <v>0</v>
       </c>
       <c r="Q164" t="str">
-        <v>1</v>
-      </c>
-      <c r="R164" t="str">
         <v>0</v>
       </c>
     </row>
@@ -9636,9 +9144,6 @@
         <v>0</v>
       </c>
       <c r="Q165" t="str">
-        <v>1</v>
-      </c>
-      <c r="R165" t="str">
         <v>0</v>
       </c>
     </row>
@@ -9694,9 +9199,6 @@
       <c r="Q166" t="str">
         <v>1</v>
       </c>
-      <c r="R166" t="str">
-        <v>1</v>
-      </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
@@ -9748,9 +9250,6 @@
         <v>0</v>
       </c>
       <c r="Q167" t="str">
-        <v>1</v>
-      </c>
-      <c r="R167" t="str">
         <v>0</v>
       </c>
     </row>
@@ -9806,9 +9305,6 @@
       <c r="Q168" t="str">
         <v>1</v>
       </c>
-      <c r="R168" t="str">
-        <v>1</v>
-      </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
@@ -9862,9 +9358,6 @@
       <c r="Q169" t="str">
         <v>1</v>
       </c>
-      <c r="R169" t="str">
-        <v>1</v>
-      </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
@@ -9918,9 +9411,6 @@
       <c r="Q170" t="str">
         <v>1</v>
       </c>
-      <c r="R170" t="str">
-        <v>1</v>
-      </c>
     </row>
     <row r="171">
       <c r="A171" t="str">
@@ -9972,9 +9462,6 @@
         <v>0</v>
       </c>
       <c r="Q171" t="str">
-        <v>2</v>
-      </c>
-      <c r="R171" t="str">
         <v>1</v>
       </c>
     </row>
@@ -10028,9 +9515,6 @@
         <v>0</v>
       </c>
       <c r="Q172" t="str">
-        <v>2</v>
-      </c>
-      <c r="R172" t="str">
         <v>0</v>
       </c>
     </row>
@@ -10084,9 +9568,6 @@
         <v>0</v>
       </c>
       <c r="Q173" t="str">
-        <v>1</v>
-      </c>
-      <c r="R173" t="str">
         <v>0</v>
       </c>
     </row>
@@ -10140,9 +9621,6 @@
         <v>0</v>
       </c>
       <c r="Q174" t="str">
-        <v>2</v>
-      </c>
-      <c r="R174" t="str">
         <v>0</v>
       </c>
     </row>
@@ -10196,9 +9674,6 @@
         <v>0</v>
       </c>
       <c r="Q175" t="str">
-        <v>1</v>
-      </c>
-      <c r="R175" t="str">
         <v>0</v>
       </c>
     </row>
@@ -10252,9 +9727,6 @@
         <v>0</v>
       </c>
       <c r="Q176" t="str">
-        <v>2</v>
-      </c>
-      <c r="R176" t="str">
         <v>1</v>
       </c>
     </row>
@@ -10308,9 +9780,6 @@
         <v>0</v>
       </c>
       <c r="Q177" t="str">
-        <v>2</v>
-      </c>
-      <c r="R177" t="str">
         <v>0</v>
       </c>
     </row>
@@ -10364,9 +9833,6 @@
         <v>0</v>
       </c>
       <c r="Q178" t="str">
-        <v>2</v>
-      </c>
-      <c r="R178" t="str">
         <v>1</v>
       </c>
     </row>
@@ -10420,9 +9886,6 @@
         <v>0</v>
       </c>
       <c r="Q179" t="str">
-        <v>1</v>
-      </c>
-      <c r="R179" t="str">
         <v>0</v>
       </c>
     </row>
@@ -10476,9 +9939,6 @@
         <v>0</v>
       </c>
       <c r="Q180" t="str">
-        <v>2</v>
-      </c>
-      <c r="R180" t="str">
         <v>1</v>
       </c>
     </row>
@@ -10532,9 +9992,6 @@
         <v>0</v>
       </c>
       <c r="Q181" t="str">
-        <v>2</v>
-      </c>
-      <c r="R181" t="str">
         <v>1</v>
       </c>
     </row>
@@ -10590,9 +10047,6 @@
       <c r="Q182" t="str">
         <v>1</v>
       </c>
-      <c r="R182" t="str">
-        <v>1</v>
-      </c>
     </row>
     <row r="183">
       <c r="A183" t="str">
@@ -10646,9 +10100,6 @@
       <c r="Q183" t="str">
         <v>1</v>
       </c>
-      <c r="R183" t="str">
-        <v>1</v>
-      </c>
     </row>
     <row r="184">
       <c r="A184" t="str">
@@ -10702,9 +10153,6 @@
       <c r="Q184" t="str">
         <v>1</v>
       </c>
-      <c r="R184" t="str">
-        <v>1</v>
-      </c>
     </row>
     <row r="185">
       <c r="A185" t="str">
@@ -10756,9 +10204,6 @@
         <v>0</v>
       </c>
       <c r="Q185" t="str">
-        <v>2</v>
-      </c>
-      <c r="R185" t="str">
         <v>1</v>
       </c>
     </row>
@@ -10812,9 +10257,6 @@
         <v>0</v>
       </c>
       <c r="Q186" t="str">
-        <v>1</v>
-      </c>
-      <c r="R186" t="str">
         <v>0</v>
       </c>
     </row>
@@ -10868,9 +10310,6 @@
         <v>0</v>
       </c>
       <c r="Q187" t="str">
-        <v>1</v>
-      </c>
-      <c r="R187" t="str">
         <v>0</v>
       </c>
     </row>
@@ -10926,9 +10365,6 @@
       <c r="Q188" t="str">
         <v>1</v>
       </c>
-      <c r="R188" t="str">
-        <v>1</v>
-      </c>
     </row>
     <row r="189">
       <c r="A189" t="str">
@@ -10980,9 +10416,6 @@
         <v>0</v>
       </c>
       <c r="Q189" t="str">
-        <v>2</v>
-      </c>
-      <c r="R189" t="str">
         <v>1</v>
       </c>
     </row>
@@ -11036,9 +10469,6 @@
         <v>0</v>
       </c>
       <c r="Q190" t="str">
-        <v>2</v>
-      </c>
-      <c r="R190" t="str">
         <v>0</v>
       </c>
     </row>
@@ -11092,9 +10522,6 @@
         <v>0</v>
       </c>
       <c r="Q191" t="str">
-        <v>1</v>
-      </c>
-      <c r="R191" t="str">
         <v>0</v>
       </c>
     </row>
@@ -11150,9 +10577,6 @@
       <c r="Q192" t="str">
         <v>1</v>
       </c>
-      <c r="R192" t="str">
-        <v>1</v>
-      </c>
     </row>
     <row r="193">
       <c r="A193" t="str">
@@ -11206,9 +10630,6 @@
       <c r="Q193" t="str">
         <v>0</v>
       </c>
-      <c r="R193" t="str">
-        <v>0</v>
-      </c>
     </row>
     <row r="194">
       <c r="A194" t="str">
@@ -11260,9 +10681,6 @@
         <v>0</v>
       </c>
       <c r="Q194" t="str">
-        <v>2</v>
-      </c>
-      <c r="R194" t="str">
         <v>1</v>
       </c>
     </row>
@@ -11316,9 +10734,6 @@
         <v>0</v>
       </c>
       <c r="Q195" t="str">
-        <v>1</v>
-      </c>
-      <c r="R195" t="str">
         <v>0</v>
       </c>
     </row>
@@ -11372,9 +10787,6 @@
         <v>0</v>
       </c>
       <c r="Q196" t="str">
-        <v>2</v>
-      </c>
-      <c r="R196" t="str">
         <v>0</v>
       </c>
     </row>
@@ -11428,9 +10840,6 @@
         <v>0</v>
       </c>
       <c r="Q197" t="str">
-        <v>1</v>
-      </c>
-      <c r="R197" t="str">
         <v>0</v>
       </c>
     </row>
@@ -11486,9 +10895,6 @@
       <c r="Q198" t="str">
         <v>1</v>
       </c>
-      <c r="R198" t="str">
-        <v>1</v>
-      </c>
     </row>
     <row r="199">
       <c r="A199" t="str">
@@ -11540,9 +10946,6 @@
         <v>0</v>
       </c>
       <c r="Q199" t="str">
-        <v>2</v>
-      </c>
-      <c r="R199" t="str">
         <v>0</v>
       </c>
     </row>
@@ -11596,9 +10999,6 @@
         <v>0</v>
       </c>
       <c r="Q200" t="str">
-        <v>2</v>
-      </c>
-      <c r="R200" t="str">
         <v>0</v>
       </c>
     </row>
@@ -11652,9 +11052,6 @@
         <v>0</v>
       </c>
       <c r="Q201" t="str">
-        <v>2</v>
-      </c>
-      <c r="R201" t="str">
         <v>1</v>
       </c>
     </row>
@@ -11708,9 +11105,6 @@
         <v>0</v>
       </c>
       <c r="Q202" t="str">
-        <v>1</v>
-      </c>
-      <c r="R202" t="str">
         <v>0</v>
       </c>
     </row>
@@ -11764,9 +11158,6 @@
         <v>0</v>
       </c>
       <c r="Q203" t="str">
-        <v>1</v>
-      </c>
-      <c r="R203" t="str">
         <v>0</v>
       </c>
     </row>
@@ -11820,9 +11211,6 @@
         <v>0</v>
       </c>
       <c r="Q204" t="str">
-        <v>2</v>
-      </c>
-      <c r="R204" t="str">
         <v>0</v>
       </c>
     </row>
@@ -11878,9 +11266,6 @@
       <c r="Q205" t="str">
         <v>1</v>
       </c>
-      <c r="R205" t="str">
-        <v>1</v>
-      </c>
     </row>
     <row r="206">
       <c r="A206" t="str">
@@ -11934,9 +11319,6 @@
       <c r="Q206" t="str">
         <v>1</v>
       </c>
-      <c r="R206" t="str">
-        <v>1</v>
-      </c>
     </row>
     <row r="207">
       <c r="A207" t="str">
@@ -11988,9 +11370,6 @@
         <v>0</v>
       </c>
       <c r="Q207" t="str">
-        <v>2</v>
-      </c>
-      <c r="R207" t="str">
         <v>1</v>
       </c>
     </row>
@@ -12044,9 +11423,6 @@
         <v>0</v>
       </c>
       <c r="Q208" t="str">
-        <v>1</v>
-      </c>
-      <c r="R208" t="str">
         <v>0</v>
       </c>
     </row>
@@ -12100,9 +11476,6 @@
         <v>0</v>
       </c>
       <c r="Q209" t="str">
-        <v>1</v>
-      </c>
-      <c r="R209" t="str">
         <v>0</v>
       </c>
     </row>
@@ -12156,9 +11529,6 @@
         <v>0</v>
       </c>
       <c r="Q210" t="str">
-        <v>2</v>
-      </c>
-      <c r="R210" t="str">
         <v>0</v>
       </c>
     </row>
@@ -12214,9 +11584,6 @@
       <c r="Q211" t="str">
         <v>1</v>
       </c>
-      <c r="R211" t="str">
-        <v>1</v>
-      </c>
     </row>
     <row r="212">
       <c r="A212" t="str">
@@ -12270,9 +11637,6 @@
       <c r="Q212" t="str">
         <v>1</v>
       </c>
-      <c r="R212" t="str">
-        <v>1</v>
-      </c>
     </row>
     <row r="213">
       <c r="A213" t="str">
@@ -12326,9 +11690,6 @@
       <c r="Q213" t="str">
         <v>1</v>
       </c>
-      <c r="R213" t="str">
-        <v>1</v>
-      </c>
     </row>
     <row r="214">
       <c r="A214" t="str">
@@ -12380,9 +11741,6 @@
         <v>0</v>
       </c>
       <c r="Q214" t="str">
-        <v>2</v>
-      </c>
-      <c r="R214" t="str">
         <v>1</v>
       </c>
     </row>
@@ -12436,9 +11794,6 @@
         <v>9</v>
       </c>
       <c r="Q215" t="str">
-        <v>0</v>
-      </c>
-      <c r="R215" t="str">
         <v>1</v>
       </c>
     </row>
@@ -12492,9 +11847,6 @@
         <v>0</v>
       </c>
       <c r="Q216" t="str">
-        <v>1</v>
-      </c>
-      <c r="R216" t="str">
         <v>0</v>
       </c>
     </row>
@@ -12548,9 +11900,6 @@
         <v>0</v>
       </c>
       <c r="Q217" t="str">
-        <v>2</v>
-      </c>
-      <c r="R217" t="str">
         <v>0</v>
       </c>
     </row>
@@ -12606,9 +11955,6 @@
       <c r="Q218" t="str">
         <v>1</v>
       </c>
-      <c r="R218" t="str">
-        <v>1</v>
-      </c>
     </row>
     <row r="219">
       <c r="A219" t="str">
@@ -12660,9 +12006,6 @@
         <v>0</v>
       </c>
       <c r="Q219" t="str">
-        <v>2</v>
-      </c>
-      <c r="R219" t="str">
         <v>0</v>
       </c>
     </row>
@@ -12718,9 +12061,6 @@
       <c r="Q220" t="str">
         <v>1</v>
       </c>
-      <c r="R220" t="str">
-        <v>1</v>
-      </c>
     </row>
     <row r="221">
       <c r="A221" t="str">
@@ -12772,9 +12112,6 @@
         <v>0</v>
       </c>
       <c r="Q221" t="str">
-        <v>1</v>
-      </c>
-      <c r="R221" t="str">
         <v>0</v>
       </c>
     </row>
@@ -12828,9 +12165,6 @@
         <v>3</v>
       </c>
       <c r="Q222" t="str">
-        <v>0</v>
-      </c>
-      <c r="R222" t="str">
         <v>1</v>
       </c>
     </row>
@@ -12884,9 +12218,6 @@
         <v>0</v>
       </c>
       <c r="Q223" t="str">
-        <v>1</v>
-      </c>
-      <c r="R223" t="str">
         <v>0</v>
       </c>
     </row>
@@ -12940,9 +12271,6 @@
         <v>0</v>
       </c>
       <c r="Q224" t="str">
-        <v>1</v>
-      </c>
-      <c r="R224" t="str">
         <v>0</v>
       </c>
     </row>
@@ -12996,9 +12324,6 @@
         <v>0</v>
       </c>
       <c r="Q225" t="str">
-        <v>2</v>
-      </c>
-      <c r="R225" t="str">
         <v>1</v>
       </c>
     </row>
@@ -13052,9 +12377,6 @@
         <v>0</v>
       </c>
       <c r="Q226" t="str">
-        <v>1</v>
-      </c>
-      <c r="R226" t="str">
         <v>0</v>
       </c>
     </row>
@@ -13110,9 +12432,6 @@
       <c r="Q227" t="str">
         <v>1</v>
       </c>
-      <c r="R227" t="str">
-        <v>1</v>
-      </c>
     </row>
     <row r="228">
       <c r="A228" t="str">
@@ -13164,9 +12483,6 @@
         <v>3</v>
       </c>
       <c r="Q228" t="str">
-        <v>0</v>
-      </c>
-      <c r="R228" t="str">
         <v>1</v>
       </c>
     </row>
@@ -13220,9 +12536,6 @@
         <v>0</v>
       </c>
       <c r="Q229" t="str">
-        <v>2</v>
-      </c>
-      <c r="R229" t="str">
         <v>1</v>
       </c>
     </row>
@@ -13276,9 +12589,6 @@
         <v>0</v>
       </c>
       <c r="Q230" t="str">
-        <v>1</v>
-      </c>
-      <c r="R230" t="str">
         <v>0</v>
       </c>
     </row>
@@ -13332,9 +12642,6 @@
         <v>0</v>
       </c>
       <c r="Q231" t="str">
-        <v>1</v>
-      </c>
-      <c r="R231" t="str">
         <v>0</v>
       </c>
     </row>
@@ -13388,9 +12695,6 @@
         <v>0</v>
       </c>
       <c r="Q232" t="str">
-        <v>2</v>
-      </c>
-      <c r="R232" t="str">
         <v>1</v>
       </c>
     </row>
@@ -13444,9 +12748,6 @@
         <v>0</v>
       </c>
       <c r="Q233" t="str">
-        <v>1</v>
-      </c>
-      <c r="R233" t="str">
         <v>0</v>
       </c>
     </row>
@@ -13500,9 +12801,6 @@
         <v>0</v>
       </c>
       <c r="Q234" t="str">
-        <v>1</v>
-      </c>
-      <c r="R234" t="str">
         <v>0</v>
       </c>
     </row>
@@ -13556,9 +12854,6 @@
         <v>0</v>
       </c>
       <c r="Q235" t="str">
-        <v>1</v>
-      </c>
-      <c r="R235" t="str">
         <v>0</v>
       </c>
     </row>
@@ -13614,9 +12909,6 @@
       <c r="Q236" t="str">
         <v>1</v>
       </c>
-      <c r="R236" t="str">
-        <v>1</v>
-      </c>
     </row>
     <row r="237">
       <c r="A237" t="str">
@@ -13668,9 +12960,6 @@
         <v>10</v>
       </c>
       <c r="Q237" t="str">
-        <v>0</v>
-      </c>
-      <c r="R237" t="str">
         <v>1</v>
       </c>
     </row>
@@ -13726,9 +13015,6 @@
       <c r="Q238" t="str">
         <v>1</v>
       </c>
-      <c r="R238" t="str">
-        <v>1</v>
-      </c>
     </row>
     <row r="239">
       <c r="A239" t="str">
@@ -13782,9 +13068,6 @@
       <c r="Q239" t="str">
         <v>0</v>
       </c>
-      <c r="R239" t="str">
-        <v>0</v>
-      </c>
     </row>
     <row r="240">
       <c r="A240" t="str">
@@ -13838,9 +13121,6 @@
       <c r="Q240" t="str">
         <v>1</v>
       </c>
-      <c r="R240" t="str">
-        <v>1</v>
-      </c>
     </row>
     <row r="241">
       <c r="A241" t="str">
@@ -13892,9 +13172,6 @@
         <v>0</v>
       </c>
       <c r="Q241" t="str">
-        <v>2</v>
-      </c>
-      <c r="R241" t="str">
         <v>0</v>
       </c>
     </row>
@@ -13948,9 +13225,6 @@
         <v>0</v>
       </c>
       <c r="Q242" t="str">
-        <v>2</v>
-      </c>
-      <c r="R242" t="str">
         <v>1</v>
       </c>
     </row>
@@ -14004,9 +13278,6 @@
         <v>0</v>
       </c>
       <c r="Q243" t="str">
-        <v>2</v>
-      </c>
-      <c r="R243" t="str">
         <v>1</v>
       </c>
     </row>
@@ -14060,9 +13331,6 @@
         <v>0</v>
       </c>
       <c r="Q244" t="str">
-        <v>2</v>
-      </c>
-      <c r="R244" t="str">
         <v>0</v>
       </c>
     </row>
@@ -14116,9 +13384,6 @@
         <v>0</v>
       </c>
       <c r="Q245" t="str">
-        <v>2</v>
-      </c>
-      <c r="R245" t="str">
         <v>0</v>
       </c>
     </row>
@@ -14174,9 +13439,6 @@
       <c r="Q246" t="str">
         <v>1</v>
       </c>
-      <c r="R246" t="str">
-        <v>1</v>
-      </c>
     </row>
     <row r="247">
       <c r="A247" t="str">
@@ -14228,9 +13490,6 @@
         <v>0</v>
       </c>
       <c r="Q247" t="str">
-        <v>2</v>
-      </c>
-      <c r="R247" t="str">
         <v>1</v>
       </c>
     </row>
@@ -14284,9 +13543,6 @@
         <v>0</v>
       </c>
       <c r="Q248" t="str">
-        <v>2</v>
-      </c>
-      <c r="R248" t="str">
         <v>0</v>
       </c>
     </row>
@@ -14340,9 +13596,6 @@
         <v>0</v>
       </c>
       <c r="Q249" t="str">
-        <v>2</v>
-      </c>
-      <c r="R249" t="str">
         <v>1</v>
       </c>
     </row>
@@ -14396,9 +13649,6 @@
         <v>0</v>
       </c>
       <c r="Q250" t="str">
-        <v>1</v>
-      </c>
-      <c r="R250" t="str">
         <v>0</v>
       </c>
     </row>
@@ -14452,9 +13702,6 @@
         <v>0</v>
       </c>
       <c r="Q251" t="str">
-        <v>1</v>
-      </c>
-      <c r="R251" t="str">
         <v>0</v>
       </c>
     </row>
@@ -14508,9 +13755,6 @@
         <v>0</v>
       </c>
       <c r="Q252" t="str">
-        <v>2</v>
-      </c>
-      <c r="R252" t="str">
         <v>1</v>
       </c>
     </row>
@@ -14564,9 +13808,6 @@
         <v>0</v>
       </c>
       <c r="Q253" t="str">
-        <v>1</v>
-      </c>
-      <c r="R253" t="str">
         <v>0</v>
       </c>
     </row>
@@ -14622,9 +13863,6 @@
       <c r="Q254" t="str">
         <v>1</v>
       </c>
-      <c r="R254" t="str">
-        <v>1</v>
-      </c>
     </row>
     <row r="255">
       <c r="A255" t="str">
@@ -14678,9 +13916,6 @@
       <c r="Q255" t="str">
         <v>1</v>
       </c>
-      <c r="R255" t="str">
-        <v>1</v>
-      </c>
     </row>
     <row r="256">
       <c r="A256" t="str">
@@ -14732,9 +13967,6 @@
         <v>3</v>
       </c>
       <c r="Q256" t="str">
-        <v>0</v>
-      </c>
-      <c r="R256" t="str">
         <v>1</v>
       </c>
     </row>
@@ -14790,9 +14022,6 @@
       <c r="Q257" t="str">
         <v>1</v>
       </c>
-      <c r="R257" t="str">
-        <v>1</v>
-      </c>
     </row>
     <row r="258">
       <c r="A258" t="str">
@@ -14844,9 +14073,6 @@
         <v>0</v>
       </c>
       <c r="Q258" t="str">
-        <v>1</v>
-      </c>
-      <c r="R258" t="str">
         <v>0</v>
       </c>
     </row>
@@ -14900,9 +14126,6 @@
         <v>0</v>
       </c>
       <c r="Q259" t="str">
-        <v>1</v>
-      </c>
-      <c r="R259" t="str">
         <v>0</v>
       </c>
     </row>
@@ -14958,9 +14181,6 @@
       <c r="Q260" t="str">
         <v>1</v>
       </c>
-      <c r="R260" t="str">
-        <v>1</v>
-      </c>
     </row>
     <row r="261">
       <c r="A261" t="str">
@@ -15014,9 +14234,6 @@
       <c r="Q261" t="str">
         <v>1</v>
       </c>
-      <c r="R261" t="str">
-        <v>1</v>
-      </c>
     </row>
     <row r="262">
       <c r="A262" t="str">
@@ -15068,9 +14285,6 @@
         <v>0</v>
       </c>
       <c r="Q262" t="str">
-        <v>1</v>
-      </c>
-      <c r="R262" t="str">
         <v>0</v>
       </c>
     </row>
@@ -15124,9 +14338,6 @@
         <v>0</v>
       </c>
       <c r="Q263" t="str">
-        <v>2</v>
-      </c>
-      <c r="R263" t="str">
         <v>0</v>
       </c>
     </row>
@@ -15180,9 +14391,6 @@
         <v>0</v>
       </c>
       <c r="Q264" t="str">
-        <v>2</v>
-      </c>
-      <c r="R264" t="str">
         <v>0</v>
       </c>
     </row>
@@ -15238,9 +14446,6 @@
       <c r="Q265" t="str">
         <v>1</v>
       </c>
-      <c r="R265" t="str">
-        <v>1</v>
-      </c>
     </row>
     <row r="266">
       <c r="A266" t="str">
@@ -15294,9 +14499,6 @@
       <c r="Q266" t="str">
         <v>1</v>
       </c>
-      <c r="R266" t="str">
-        <v>1</v>
-      </c>
     </row>
     <row r="267">
       <c r="A267" t="str">
@@ -15350,9 +14552,6 @@
       <c r="Q267" t="str">
         <v>0</v>
       </c>
-      <c r="R267" t="str">
-        <v>0</v>
-      </c>
     </row>
     <row r="268">
       <c r="A268" t="str">
@@ -15404,9 +14603,6 @@
         <v>0</v>
       </c>
       <c r="Q268" t="str">
-        <v>1</v>
-      </c>
-      <c r="R268" t="str">
         <v>0</v>
       </c>
     </row>
@@ -15460,9 +14656,6 @@
         <v>9</v>
       </c>
       <c r="Q269" t="str">
-        <v>0</v>
-      </c>
-      <c r="R269" t="str">
         <v>1</v>
       </c>
     </row>
@@ -15516,9 +14709,6 @@
         <v>0</v>
       </c>
       <c r="Q270" t="str">
-        <v>1</v>
-      </c>
-      <c r="R270" t="str">
         <v>0</v>
       </c>
     </row>
@@ -15574,9 +14764,6 @@
       <c r="Q271" t="str">
         <v>1</v>
       </c>
-      <c r="R271" t="str">
-        <v>1</v>
-      </c>
     </row>
     <row r="272">
       <c r="A272" t="str">
@@ -15628,9 +14815,6 @@
         <v>0</v>
       </c>
       <c r="Q272" t="str">
-        <v>1</v>
-      </c>
-      <c r="R272" t="str">
         <v>0</v>
       </c>
     </row>
@@ -15684,9 +14868,6 @@
         <v>0</v>
       </c>
       <c r="Q273" t="str">
-        <v>2</v>
-      </c>
-      <c r="R273" t="str">
         <v>0</v>
       </c>
     </row>
@@ -15742,9 +14923,6 @@
       <c r="Q274" t="str">
         <v>1</v>
       </c>
-      <c r="R274" t="str">
-        <v>1</v>
-      </c>
     </row>
     <row r="275">
       <c r="A275" t="str">
@@ -15796,9 +14974,6 @@
         <v>0</v>
       </c>
       <c r="Q275" t="str">
-        <v>1</v>
-      </c>
-      <c r="R275" t="str">
         <v>0</v>
       </c>
     </row>
@@ -15854,9 +15029,6 @@
       <c r="Q276" t="str">
         <v>1</v>
       </c>
-      <c r="R276" t="str">
-        <v>1</v>
-      </c>
     </row>
     <row r="277">
       <c r="A277" t="str">
@@ -15908,9 +15080,6 @@
         <v>4</v>
       </c>
       <c r="Q277" t="str">
-        <v>0</v>
-      </c>
-      <c r="R277" t="str">
         <v>1</v>
       </c>
     </row>
@@ -15964,9 +15133,6 @@
         <v>0</v>
       </c>
       <c r="Q278" t="str">
-        <v>2</v>
-      </c>
-      <c r="R278" t="str">
         <v>1</v>
       </c>
     </row>
@@ -16020,9 +15186,6 @@
         <v>4</v>
       </c>
       <c r="Q279" t="str">
-        <v>0</v>
-      </c>
-      <c r="R279" t="str">
         <v>1</v>
       </c>
     </row>
@@ -16076,9 +15239,6 @@
         <v>0</v>
       </c>
       <c r="Q280" t="str">
-        <v>2</v>
-      </c>
-      <c r="R280" t="str">
         <v>0</v>
       </c>
     </row>
@@ -16132,9 +15292,6 @@
         <v>0</v>
       </c>
       <c r="Q281" t="str">
-        <v>2</v>
-      </c>
-      <c r="R281" t="str">
         <v>0</v>
       </c>
     </row>
@@ -16190,9 +15347,6 @@
       <c r="Q282" t="str">
         <v>1</v>
       </c>
-      <c r="R282" t="str">
-        <v>1</v>
-      </c>
     </row>
     <row r="283">
       <c r="A283" t="str">
@@ -16244,9 +15398,6 @@
         <v>0</v>
       </c>
       <c r="Q283" t="str">
-        <v>1</v>
-      </c>
-      <c r="R283" t="str">
         <v>0</v>
       </c>
     </row>
@@ -16302,9 +15453,6 @@
       <c r="Q284" t="str">
         <v>1</v>
       </c>
-      <c r="R284" t="str">
-        <v>1</v>
-      </c>
     </row>
     <row r="285">
       <c r="A285" t="str">
@@ -16356,9 +15504,6 @@
         <v>0</v>
       </c>
       <c r="Q285" t="str">
-        <v>1</v>
-      </c>
-      <c r="R285" t="str">
         <v>0</v>
       </c>
     </row>
@@ -16414,9 +15559,6 @@
       <c r="Q286" t="str">
         <v>1</v>
       </c>
-      <c r="R286" t="str">
-        <v>1</v>
-      </c>
     </row>
     <row r="287">
       <c r="A287" t="str">
@@ -16468,9 +15610,6 @@
         <v>0</v>
       </c>
       <c r="Q287" t="str">
-        <v>1</v>
-      </c>
-      <c r="R287" t="str">
         <v>0</v>
       </c>
     </row>
@@ -16524,9 +15663,6 @@
         <v>0</v>
       </c>
       <c r="Q288" t="str">
-        <v>1</v>
-      </c>
-      <c r="R288" t="str">
         <v>0</v>
       </c>
     </row>
@@ -16580,9 +15716,6 @@
         <v>0</v>
       </c>
       <c r="Q289" t="str">
-        <v>2</v>
-      </c>
-      <c r="R289" t="str">
         <v>0</v>
       </c>
     </row>
@@ -16636,9 +15769,6 @@
         <v>0</v>
       </c>
       <c r="Q290" t="str">
-        <v>1</v>
-      </c>
-      <c r="R290" t="str">
         <v>0</v>
       </c>
     </row>
@@ -16692,9 +15822,6 @@
         <v>0</v>
       </c>
       <c r="Q291" t="str">
-        <v>2</v>
-      </c>
-      <c r="R291" t="str">
         <v>0</v>
       </c>
     </row>
@@ -16748,9 +15875,6 @@
         <v>0</v>
       </c>
       <c r="Q292" t="str">
-        <v>1</v>
-      </c>
-      <c r="R292" t="str">
         <v>0</v>
       </c>
     </row>
@@ -16804,9 +15928,6 @@
         <v>0</v>
       </c>
       <c r="Q293" t="str">
-        <v>2</v>
-      </c>
-      <c r="R293" t="str">
         <v>1</v>
       </c>
     </row>
@@ -16860,9 +15981,6 @@
         <v>0</v>
       </c>
       <c r="Q294" t="str">
-        <v>1</v>
-      </c>
-      <c r="R294" t="str">
         <v>0</v>
       </c>
     </row>
@@ -16916,9 +16034,6 @@
         <v>0</v>
       </c>
       <c r="Q295" t="str">
-        <v>2</v>
-      </c>
-      <c r="R295" t="str">
         <v>0</v>
       </c>
     </row>
@@ -16974,9 +16089,6 @@
       <c r="Q296" t="str">
         <v>1</v>
       </c>
-      <c r="R296" t="str">
-        <v>1</v>
-      </c>
     </row>
     <row r="297">
       <c r="A297" t="str">
@@ -17030,9 +16142,6 @@
       <c r="Q297" t="str">
         <v>0</v>
       </c>
-      <c r="R297" t="str">
-        <v>0</v>
-      </c>
     </row>
     <row r="298">
       <c r="A298" t="str">
@@ -17084,9 +16193,6 @@
         <v>0</v>
       </c>
       <c r="Q298" t="str">
-        <v>1</v>
-      </c>
-      <c r="R298" t="str">
         <v>0</v>
       </c>
     </row>
@@ -17140,9 +16246,6 @@
         <v>0</v>
       </c>
       <c r="Q299" t="str">
-        <v>1</v>
-      </c>
-      <c r="R299" t="str">
         <v>0</v>
       </c>
     </row>
@@ -17198,9 +16301,6 @@
       <c r="Q300" t="str">
         <v>1</v>
       </c>
-      <c r="R300" t="str">
-        <v>1</v>
-      </c>
     </row>
     <row r="301">
       <c r="A301" t="str">
@@ -17252,9 +16352,6 @@
         <v>0</v>
       </c>
       <c r="Q301" t="str">
-        <v>2</v>
-      </c>
-      <c r="R301" t="str">
         <v>1</v>
       </c>
     </row>
@@ -17310,9 +16407,6 @@
       <c r="Q302" t="str">
         <v>1</v>
       </c>
-      <c r="R302" t="str">
-        <v>1</v>
-      </c>
     </row>
     <row r="303">
       <c r="A303" t="str">
@@ -17366,9 +16460,6 @@
       <c r="Q303" t="str">
         <v>1</v>
       </c>
-      <c r="R303" t="str">
-        <v>1</v>
-      </c>
     </row>
     <row r="304">
       <c r="A304" t="str">
@@ -17420,9 +16511,6 @@
         <v>0</v>
       </c>
       <c r="Q304" t="str">
-        <v>1</v>
-      </c>
-      <c r="R304" t="str">
         <v>0</v>
       </c>
     </row>
@@ -17476,9 +16564,6 @@
         <v>0</v>
       </c>
       <c r="Q305" t="str">
-        <v>2</v>
-      </c>
-      <c r="R305" t="str">
         <v>1</v>
       </c>
     </row>
@@ -17532,9 +16617,6 @@
         <v>0</v>
       </c>
       <c r="Q306" t="str">
-        <v>1</v>
-      </c>
-      <c r="R306" t="str">
         <v>0</v>
       </c>
     </row>
@@ -17588,9 +16670,6 @@
         <v>4</v>
       </c>
       <c r="Q307" t="str">
-        <v>0</v>
-      </c>
-      <c r="R307" t="str">
         <v>1</v>
       </c>
     </row>
@@ -17646,9 +16725,6 @@
       <c r="Q308" t="str">
         <v>1</v>
       </c>
-      <c r="R308" t="str">
-        <v>1</v>
-      </c>
     </row>
     <row r="309">
       <c r="A309" t="str">
@@ -17702,9 +16778,6 @@
       <c r="Q309" t="str">
         <v>1</v>
       </c>
-      <c r="R309" t="str">
-        <v>1</v>
-      </c>
     </row>
     <row r="310">
       <c r="A310" t="str">
@@ -17756,9 +16829,6 @@
         <v>0</v>
       </c>
       <c r="Q310" t="str">
-        <v>2</v>
-      </c>
-      <c r="R310" t="str">
         <v>0</v>
       </c>
     </row>
@@ -17812,9 +16882,6 @@
         <v>0</v>
       </c>
       <c r="Q311" t="str">
-        <v>1</v>
-      </c>
-      <c r="R311" t="str">
         <v>0</v>
       </c>
     </row>
@@ -17870,9 +16937,6 @@
       <c r="Q312" t="str">
         <v>1</v>
       </c>
-      <c r="R312" t="str">
-        <v>1</v>
-      </c>
     </row>
     <row r="313">
       <c r="A313" t="str">
@@ -17926,9 +16990,6 @@
       <c r="Q313" t="str">
         <v>1</v>
       </c>
-      <c r="R313" t="str">
-        <v>1</v>
-      </c>
     </row>
     <row r="314">
       <c r="A314" t="str">
@@ -17980,9 +17041,6 @@
         <v>3</v>
       </c>
       <c r="Q314" t="str">
-        <v>0</v>
-      </c>
-      <c r="R314" t="str">
         <v>1</v>
       </c>
     </row>
@@ -18036,9 +17094,6 @@
         <v>0</v>
       </c>
       <c r="Q315" t="str">
-        <v>1</v>
-      </c>
-      <c r="R315" t="str">
         <v>0</v>
       </c>
     </row>
@@ -18094,9 +17149,6 @@
       <c r="Q316" t="str">
         <v>1</v>
       </c>
-      <c r="R316" t="str">
-        <v>1</v>
-      </c>
     </row>
     <row r="317">
       <c r="A317" t="str">
@@ -18148,9 +17200,6 @@
         <v>0</v>
       </c>
       <c r="Q317" t="str">
-        <v>1</v>
-      </c>
-      <c r="R317" t="str">
         <v>0</v>
       </c>
     </row>
@@ -18204,9 +17253,6 @@
         <v>0</v>
       </c>
       <c r="Q318" t="str">
-        <v>1</v>
-      </c>
-      <c r="R318" t="str">
         <v>0</v>
       </c>
     </row>
@@ -18262,9 +17308,6 @@
       <c r="Q319" t="str">
         <v>1</v>
       </c>
-      <c r="R319" t="str">
-        <v>1</v>
-      </c>
     </row>
     <row r="320">
       <c r="A320" t="str">
@@ -18316,9 +17359,6 @@
         <v>0</v>
       </c>
       <c r="Q320" t="str">
-        <v>1</v>
-      </c>
-      <c r="R320" t="str">
         <v>0</v>
       </c>
     </row>
@@ -18372,9 +17412,6 @@
         <v>0</v>
       </c>
       <c r="Q321" t="str">
-        <v>1</v>
-      </c>
-      <c r="R321" t="str">
         <v>0</v>
       </c>
     </row>
@@ -18430,9 +17467,6 @@
       <c r="Q322" t="str">
         <v>1</v>
       </c>
-      <c r="R322" t="str">
-        <v>1</v>
-      </c>
     </row>
     <row r="323">
       <c r="A323" t="str">
@@ -18486,9 +17520,6 @@
       <c r="Q323" t="str">
         <v>0</v>
       </c>
-      <c r="R323" t="str">
-        <v>0</v>
-      </c>
     </row>
     <row r="324">
       <c r="A324" t="str">
@@ -18540,9 +17571,6 @@
         <v>0</v>
       </c>
       <c r="Q324" t="str">
-        <v>1</v>
-      </c>
-      <c r="R324" t="str">
         <v>0</v>
       </c>
     </row>
@@ -18596,9 +17624,6 @@
         <v>4</v>
       </c>
       <c r="Q325" t="str">
-        <v>0</v>
-      </c>
-      <c r="R325" t="str">
         <v>1</v>
       </c>
     </row>
@@ -18652,9 +17677,6 @@
         <v>0</v>
       </c>
       <c r="Q326" t="str">
-        <v>1</v>
-      </c>
-      <c r="R326" t="str">
         <v>0</v>
       </c>
     </row>
@@ -18708,9 +17730,6 @@
         <v>0</v>
       </c>
       <c r="Q327" t="str">
-        <v>2</v>
-      </c>
-      <c r="R327" t="str">
         <v>1</v>
       </c>
     </row>
@@ -18766,9 +17785,6 @@
       <c r="Q328" t="str">
         <v>1</v>
       </c>
-      <c r="R328" t="str">
-        <v>1</v>
-      </c>
     </row>
     <row r="329">
       <c r="A329" t="str">
@@ -18820,9 +17836,6 @@
         <v>0</v>
       </c>
       <c r="Q329" t="str">
-        <v>2</v>
-      </c>
-      <c r="R329" t="str">
         <v>0</v>
       </c>
     </row>
@@ -18878,9 +17891,6 @@
       <c r="Q330" t="str">
         <v>1</v>
       </c>
-      <c r="R330" t="str">
-        <v>1</v>
-      </c>
     </row>
     <row r="331">
       <c r="A331" t="str">
@@ -18934,9 +17944,6 @@
       <c r="Q331" t="str">
         <v>1</v>
       </c>
-      <c r="R331" t="str">
-        <v>1</v>
-      </c>
     </row>
     <row r="332">
       <c r="A332" t="str">
@@ -18990,9 +17997,6 @@
       <c r="Q332" t="str">
         <v>1</v>
       </c>
-      <c r="R332" t="str">
-        <v>1</v>
-      </c>
     </row>
     <row r="333">
       <c r="A333" t="str">
@@ -19046,9 +18050,6 @@
       <c r="Q333" t="str">
         <v>1</v>
       </c>
-      <c r="R333" t="str">
-        <v>1</v>
-      </c>
     </row>
     <row r="334">
       <c r="A334" t="str">
@@ -19102,9 +18103,6 @@
       <c r="Q334" t="str">
         <v>1</v>
       </c>
-      <c r="R334" t="str">
-        <v>1</v>
-      </c>
     </row>
     <row r="335">
       <c r="A335" t="str">
@@ -19156,9 +18154,6 @@
         <v>0</v>
       </c>
       <c r="Q335" t="str">
-        <v>1</v>
-      </c>
-      <c r="R335" t="str">
         <v>0</v>
       </c>
     </row>
@@ -19212,9 +18207,6 @@
         <v>0</v>
       </c>
       <c r="Q336" t="str">
-        <v>2</v>
-      </c>
-      <c r="R336" t="str">
         <v>0</v>
       </c>
     </row>
@@ -19268,9 +18260,6 @@
         <v>0</v>
       </c>
       <c r="Q337" t="str">
-        <v>1</v>
-      </c>
-      <c r="R337" t="str">
         <v>0</v>
       </c>
     </row>
@@ -19326,9 +18315,6 @@
       <c r="Q338" t="str">
         <v>0</v>
       </c>
-      <c r="R338" t="str">
-        <v>0</v>
-      </c>
     </row>
     <row r="339">
       <c r="A339" t="str">
@@ -19380,9 +18366,6 @@
         <v>0</v>
       </c>
       <c r="Q339" t="str">
-        <v>1</v>
-      </c>
-      <c r="R339" t="str">
         <v>0</v>
       </c>
     </row>
@@ -19436,9 +18419,6 @@
         <v>4</v>
       </c>
       <c r="Q340" t="str">
-        <v>0</v>
-      </c>
-      <c r="R340" t="str">
         <v>1</v>
       </c>
     </row>
@@ -19494,9 +18474,6 @@
       <c r="Q341" t="str">
         <v>1</v>
       </c>
-      <c r="R341" t="str">
-        <v>1</v>
-      </c>
     </row>
     <row r="342">
       <c r="A342" t="str">
@@ -19550,9 +18527,6 @@
       <c r="Q342" t="str">
         <v>1</v>
       </c>
-      <c r="R342" t="str">
-        <v>1</v>
-      </c>
     </row>
     <row r="343">
       <c r="A343" t="str">
@@ -19606,9 +18580,6 @@
       <c r="Q343" t="str">
         <v>1</v>
       </c>
-      <c r="R343" t="str">
-        <v>1</v>
-      </c>
     </row>
     <row r="344">
       <c r="A344" t="str">
@@ -19662,9 +18633,6 @@
       <c r="Q344" t="str">
         <v>1</v>
       </c>
-      <c r="R344" t="str">
-        <v>1</v>
-      </c>
     </row>
     <row r="345">
       <c r="A345" t="str">
@@ -19718,9 +18686,6 @@
       <c r="Q345" t="str">
         <v>0</v>
       </c>
-      <c r="R345" t="str">
-        <v>0</v>
-      </c>
     </row>
     <row r="346">
       <c r="A346" t="str">
@@ -19774,9 +18739,6 @@
       <c r="Q346" t="str">
         <v>1</v>
       </c>
-      <c r="R346" t="str">
-        <v>1</v>
-      </c>
     </row>
     <row r="347">
       <c r="A347" t="str">
@@ -19828,9 +18790,6 @@
         <v>0</v>
       </c>
       <c r="Q347" t="str">
-        <v>2</v>
-      </c>
-      <c r="R347" t="str">
         <v>1</v>
       </c>
     </row>
@@ -19884,9 +18843,6 @@
         <v>0</v>
       </c>
       <c r="Q348" t="str">
-        <v>2</v>
-      </c>
-      <c r="R348" t="str">
         <v>0</v>
       </c>
     </row>
@@ -19940,9 +18896,6 @@
         <v>0</v>
       </c>
       <c r="Q349" t="str">
-        <v>1</v>
-      </c>
-      <c r="R349" t="str">
         <v>0</v>
       </c>
     </row>
@@ -19996,9 +18949,6 @@
         <v>4</v>
       </c>
       <c r="Q350" t="str">
-        <v>0</v>
-      </c>
-      <c r="R350" t="str">
         <v>1</v>
       </c>
     </row>
@@ -20052,9 +19002,6 @@
         <v>0</v>
       </c>
       <c r="Q351" t="str">
-        <v>1</v>
-      </c>
-      <c r="R351" t="str">
         <v>0</v>
       </c>
     </row>
@@ -20108,9 +19055,6 @@
         <v>0</v>
       </c>
       <c r="Q352" t="str">
-        <v>2</v>
-      </c>
-      <c r="R352" t="str">
         <v>1</v>
       </c>
     </row>
@@ -20166,9 +19110,6 @@
       <c r="Q353" t="str">
         <v>1</v>
       </c>
-      <c r="R353" t="str">
-        <v>1</v>
-      </c>
     </row>
     <row r="354">
       <c r="A354" t="str">
@@ -20220,9 +19161,6 @@
         <v>0</v>
       </c>
       <c r="Q354" t="str">
-        <v>1</v>
-      </c>
-      <c r="R354" t="str">
         <v>0</v>
       </c>
     </row>
@@ -20278,9 +19216,6 @@
       <c r="Q355" t="str">
         <v>1</v>
       </c>
-      <c r="R355" t="str">
-        <v>1</v>
-      </c>
     </row>
     <row r="356">
       <c r="A356" t="str">
@@ -20332,15 +19267,12 @@
         <v>3</v>
       </c>
       <c r="Q356" t="str">
-        <v>0</v>
-      </c>
-      <c r="R356" t="str">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:R356"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:Q356"/>
   </ignoredErrors>
 </worksheet>
 </file>